--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
@@ -9,39 +9,41 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Паспорт" sheetId="16" r:id="rId1"/>
-    <sheet name="Данные" sheetId="15" r:id="rId2"/>
-    <sheet name="Акт приемки" sheetId="14" r:id="rId3"/>
-    <sheet name="Чист. форма" sheetId="8" r:id="rId4"/>
-    <sheet name="Чист.  поддон" sheetId="4" r:id="rId5"/>
-    <sheet name="Черн. форма" sheetId="3" r:id="rId6"/>
-    <sheet name="Черн. поддон" sheetId="1" r:id="rId7"/>
-    <sheet name="Горл. кольцо" sheetId="9" r:id="rId8"/>
-    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId9"/>
-    <sheet name="Плунжер" sheetId="10" r:id="rId10"/>
-    <sheet name="Втулка" sheetId="11" r:id="rId11"/>
-    <sheet name="Дут. головка" sheetId="6" r:id="rId12"/>
-    <sheet name="Воронка" sheetId="12" r:id="rId13"/>
+    <sheet name="Детали ф-тов" sheetId="17" r:id="rId1"/>
+    <sheet name="Паспорт" sheetId="16" r:id="rId2"/>
+    <sheet name="Данные" sheetId="15" r:id="rId3"/>
+    <sheet name="Акт приемки" sheetId="14" r:id="rId4"/>
+    <sheet name="Чист. форма" sheetId="8" r:id="rId5"/>
+    <sheet name="Чист.  поддон" sheetId="4" r:id="rId6"/>
+    <sheet name="Черн. форма" sheetId="3" r:id="rId7"/>
+    <sheet name="Черн. поддон" sheetId="1" r:id="rId8"/>
+    <sheet name="Горл. кольцо" sheetId="9" r:id="rId9"/>
+    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId10"/>
+    <sheet name="Плунжер" sheetId="10" r:id="rId11"/>
+    <sheet name="Втулка" sheetId="11" r:id="rId12"/>
+    <sheet name="Дут. головка" sheetId="6" r:id="rId13"/>
+    <sheet name="Воронка" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Паспорт!$A$1:$I$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Акт приемки'!$A$1:$J$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Горл. кольцо'!$A$1:$S$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Детали ф-тов'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">Плунжер!$A$1:$S$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Черн. поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. форма'!$A$1:$R$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Чист.  поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="146">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -780,6 +782,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -2168,7 +2172,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="631">
+  <cellXfs count="637">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3549,6 +3553,113 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3556,23 +3667,11 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3618,12 +3717,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3633,86 +3726,77 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3764,76 +3848,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3857,75 +3938,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3952,6 +3964,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3960,9 +3975,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6240,1064 +6252,1170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="309"/>
+    <col min="4" max="4" width="8" style="309" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="309"/>
+    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="309"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="486" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="392"/>
-      <c r="K1" s="392"/>
-      <c r="L1" s="392"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="486" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="393"/>
-      <c r="K2" s="393"/>
-      <c r="L2" s="393"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="487" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="487"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="487"/>
-      <c r="E3" s="487"/>
-      <c r="F3" s="487"/>
-      <c r="G3" s="487"/>
-      <c r="H3" s="487"/>
-      <c r="I3" s="487"/>
-      <c r="K3" s="394"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="395"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A4" s="395"/>
-      <c r="B4" s="396"/>
-      <c r="C4" s="396"/>
-      <c r="F4" s="397"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="397"/>
-      <c r="I4" s="397"/>
-      <c r="J4" s="394"/>
-      <c r="K4" s="394"/>
-      <c r="M4" s="374"/>
-    </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A5" s="399" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="400" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="400" t="s">
+    <row r="1" spans="1:10" s="371" customFormat="1" ht="15.6">
+      <c r="A1" s="322"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
+      <c r="J1" s="314"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="313"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="314"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6">
+      <c r="A3" s="313"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="314"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="487" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="487" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="487"/>
+      <c r="D4" s="487"/>
+      <c r="E4" s="487" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="400" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="400" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="400" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="400" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="401" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="402"/>
-      <c r="J5" s="402"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="402"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="403">
+      <c r="F4" s="487"/>
+      <c r="G4" s="488" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="487" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="487"/>
+      <c r="J4" s="487"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="487"/>
+      <c r="B5" s="487"/>
+      <c r="C5" s="487"/>
+      <c r="D5" s="487"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
+      <c r="G5" s="488"/>
+      <c r="H5" s="487"/>
+      <c r="I5" s="487"/>
+      <c r="J5" s="487"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="489">
         <v>1</v>
       </c>
-      <c r="B6" s="477" t="str">
-        <f>Данные!A14</f>
-        <v>Чистовая форма</v>
-      </c>
-      <c r="C6" s="384" t="str">
-        <f>Данные!C14</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D6" s="404">
-        <f>Данные!B14</f>
-        <v>22</v>
-      </c>
-      <c r="E6" s="378">
-        <v>22</v>
-      </c>
-      <c r="F6" s="405"/>
-      <c r="G6" s="404">
-        <f>E6-F6</f>
-        <v>22</v>
-      </c>
-      <c r="H6" s="406"/>
-      <c r="I6" s="407"/>
-      <c r="J6" s="395"/>
-      <c r="K6" s="395"/>
-      <c r="L6" s="407"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="408">
-        <f>A6+1</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="409" t="str">
-        <f>Данные!A15</f>
-        <v>Чистовой поддон</v>
-      </c>
-      <c r="C7" s="384" t="str">
-        <f>Данные!C15</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D7" s="410">
-        <f>Данные!B15</f>
-        <v>22</v>
-      </c>
-      <c r="E7" s="378">
-        <v>22</v>
-      </c>
-      <c r="F7" s="391"/>
-      <c r="G7" s="410">
-        <f t="shared" ref="G7:G17" si="0">E7-F7</f>
-        <v>22</v>
-      </c>
-      <c r="H7" s="411"/>
-      <c r="I7" s="407"/>
-      <c r="J7" s="395"/>
-      <c r="K7" s="395"/>
-      <c r="L7" s="407"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="408">
-        <f t="shared" ref="A8:A17" si="1">A7+1</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="409" t="str">
-        <f>Данные!A16</f>
-        <v>Черновая форма</v>
-      </c>
-      <c r="C8" s="384" t="str">
-        <f>Данные!C16</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D8" s="410">
-        <f>Данные!B16</f>
-        <v>26</v>
-      </c>
-      <c r="E8" s="378">
-        <v>26</v>
-      </c>
-      <c r="F8" s="391"/>
-      <c r="G8" s="410">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H8" s="412"/>
-      <c r="I8" s="407"/>
-      <c r="J8" s="395"/>
-      <c r="K8" s="395"/>
-      <c r="L8" s="407"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="408">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="409" t="str">
-        <f>Данные!A17</f>
-        <v>Черновой поддон</v>
-      </c>
-      <c r="C9" s="384" t="str">
-        <f>Данные!C17</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D9" s="410">
-        <f>Данные!B17</f>
-        <v>26</v>
-      </c>
-      <c r="E9" s="378">
-        <v>26</v>
-      </c>
-      <c r="F9" s="391"/>
-      <c r="G9" s="410">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H9" s="412"/>
-      <c r="I9" s="407"/>
-      <c r="J9" s="413"/>
-      <c r="K9" s="395"/>
-      <c r="L9" s="407"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="408">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="409" t="str">
-        <f>Данные!A18</f>
-        <v>Горловое кольцо</v>
-      </c>
-      <c r="C10" s="384" t="str">
-        <f>Данные!C18</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D10" s="410">
-        <f>Данные!B18</f>
-        <v>50</v>
-      </c>
-      <c r="E10" s="378">
-        <v>50</v>
-      </c>
-      <c r="F10" s="391"/>
-      <c r="G10" s="410">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H10" s="412"/>
-      <c r="I10" s="413"/>
-      <c r="J10" s="413"/>
-      <c r="K10" s="413"/>
-      <c r="L10" s="407"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="408">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B11" s="409" t="str">
-        <f>Данные!A19</f>
-        <v>Направляющее кольцо</v>
-      </c>
-      <c r="C11" s="384" t="str">
-        <f>Данные!C19</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D11" s="410">
-        <f>Данные!B19</f>
-        <v>50</v>
-      </c>
-      <c r="E11" s="378">
-        <v>50</v>
-      </c>
-      <c r="F11" s="391"/>
-      <c r="G11" s="410">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H11" s="412"/>
-      <c r="I11" s="407"/>
-      <c r="J11" s="413"/>
-      <c r="K11" s="395"/>
-      <c r="L11" s="407"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="408">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="409" t="str">
-        <f>Данные!A20</f>
-        <v>Плунжер</v>
-      </c>
-      <c r="C12" s="384" t="str">
-        <f>Данные!C20</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D12" s="410">
-        <f>Данные!B20</f>
-        <v>40</v>
-      </c>
-      <c r="E12" s="378">
-        <v>40</v>
-      </c>
-      <c r="F12" s="414"/>
-      <c r="G12" s="410">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H12" s="412"/>
-      <c r="I12" s="413"/>
-      <c r="J12" s="413"/>
-      <c r="K12" s="413"/>
-      <c r="L12" s="407"/>
-      <c r="M12" s="415"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="408">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="409" t="str">
-        <f>Данные!A21</f>
-        <v>Втулка плунжера</v>
-      </c>
-      <c r="C13" s="384" t="str">
-        <f>Данные!C21</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D13" s="410">
-        <f>Данные!B21</f>
-        <v>20</v>
-      </c>
-      <c r="E13" s="378">
-        <v>20</v>
-      </c>
-      <c r="F13" s="416"/>
-      <c r="G13" s="410">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H13" s="412"/>
-      <c r="I13" s="413"/>
-      <c r="J13" s="413"/>
-      <c r="K13" s="413"/>
-      <c r="L13" s="407"/>
-      <c r="M13" s="415"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="408">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="409" t="str">
-        <f>Данные!A22</f>
-        <v>Хватки</v>
-      </c>
-      <c r="C14" s="384">
-        <f>Данные!C22</f>
+      <c r="B6" s="491" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="492"/>
+      <c r="D6" s="493"/>
+      <c r="E6" s="494"/>
+      <c r="F6" s="495"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="500"/>
+      <c r="I6" s="501"/>
+      <c r="J6" s="502"/>
+    </row>
+    <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="490"/>
+      <c r="B7" s="506"/>
+      <c r="C7" s="507"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="496"/>
+      <c r="F7" s="497"/>
+      <c r="G7" s="499"/>
+      <c r="H7" s="503"/>
+      <c r="I7" s="504"/>
+      <c r="J7" s="505"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="489">
+        <v>1</v>
+      </c>
+      <c r="B8" s="509" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="510"/>
+      <c r="D8" s="511"/>
+      <c r="E8" s="494"/>
+      <c r="F8" s="495"/>
+      <c r="G8" s="498"/>
+      <c r="H8" s="500"/>
+      <c r="I8" s="501"/>
+      <c r="J8" s="502"/>
+    </row>
+    <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="490"/>
+      <c r="B9" s="506"/>
+      <c r="C9" s="507"/>
+      <c r="D9" s="508"/>
+      <c r="E9" s="496"/>
+      <c r="F9" s="497"/>
+      <c r="G9" s="499"/>
+      <c r="H9" s="503"/>
+      <c r="I9" s="504"/>
+      <c r="J9" s="505"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="489">
+        <v>1</v>
+      </c>
+      <c r="B10" s="509" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="510"/>
+      <c r="D10" s="511"/>
+      <c r="E10" s="494"/>
+      <c r="F10" s="495"/>
+      <c r="G10" s="498"/>
+      <c r="H10" s="500"/>
+      <c r="I10" s="501"/>
+      <c r="J10" s="502"/>
+    </row>
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="490"/>
+      <c r="B11" s="506"/>
+      <c r="C11" s="507"/>
+      <c r="D11" s="508"/>
+      <c r="E11" s="496"/>
+      <c r="F11" s="497"/>
+      <c r="G11" s="499"/>
+      <c r="H11" s="503"/>
+      <c r="I11" s="504"/>
+      <c r="J11" s="505"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A12" s="489">
+        <v>1</v>
+      </c>
+      <c r="B12" s="509" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="510"/>
+      <c r="D12" s="511"/>
+      <c r="E12" s="494"/>
+      <c r="F12" s="495"/>
+      <c r="G12" s="498"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="501"/>
+      <c r="J12" s="502"/>
+    </row>
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="512"/>
+      <c r="B13" s="506"/>
+      <c r="C13" s="507"/>
+      <c r="D13" s="508"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="497"/>
+      <c r="G13" s="499"/>
+      <c r="H13" s="503"/>
+      <c r="I13" s="504"/>
+      <c r="J13" s="505"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A14" s="489">
+        <v>1</v>
+      </c>
+      <c r="B14" s="509" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="510"/>
+      <c r="D14" s="511"/>
+      <c r="E14" s="494"/>
+      <c r="F14" s="495"/>
+      <c r="G14" s="498"/>
+      <c r="H14" s="500"/>
+      <c r="I14" s="501"/>
+      <c r="J14" s="502"/>
+    </row>
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A15" s="512"/>
+      <c r="B15" s="506"/>
+      <c r="C15" s="507"/>
+      <c r="D15" s="508"/>
+      <c r="E15" s="513"/>
+      <c r="F15" s="497"/>
+      <c r="G15" s="499"/>
+      <c r="H15" s="503"/>
+      <c r="I15" s="504"/>
+      <c r="J15" s="505"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A16" s="489">
+        <v>1</v>
+      </c>
+      <c r="B16" s="509" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="510"/>
+      <c r="D16" s="511"/>
+      <c r="E16" s="494"/>
+      <c r="F16" s="495"/>
+      <c r="G16" s="498"/>
+      <c r="H16" s="500"/>
+      <c r="I16" s="501"/>
+      <c r="J16" s="502"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="512"/>
+      <c r="B17" s="506"/>
+      <c r="C17" s="507"/>
+      <c r="D17" s="508"/>
+      <c r="E17" s="513"/>
+      <c r="F17" s="497"/>
+      <c r="G17" s="499"/>
+      <c r="H17" s="503"/>
+      <c r="I17" s="504"/>
+      <c r="J17" s="505"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A18" s="489">
+        <v>1</v>
+      </c>
+      <c r="B18" s="509" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="510"/>
+      <c r="D18" s="511"/>
+      <c r="E18" s="494"/>
+      <c r="F18" s="495"/>
+      <c r="G18" s="498"/>
+      <c r="H18" s="500"/>
+      <c r="I18" s="501"/>
+      <c r="J18" s="502"/>
+    </row>
+    <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A19" s="512"/>
+      <c r="B19" s="506"/>
+      <c r="C19" s="507"/>
+      <c r="D19" s="508"/>
+      <c r="E19" s="513"/>
+      <c r="F19" s="497"/>
+      <c r="G19" s="499"/>
+      <c r="H19" s="503"/>
+      <c r="I19" s="504"/>
+      <c r="J19" s="505"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A20" s="489">
+        <v>1</v>
+      </c>
+      <c r="B20" s="509" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="510"/>
+      <c r="D20" s="511"/>
+      <c r="E20" s="494"/>
+      <c r="F20" s="495"/>
+      <c r="G20" s="498"/>
+      <c r="H20" s="500"/>
+      <c r="I20" s="501"/>
+      <c r="J20" s="502"/>
+    </row>
+    <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A21" s="512"/>
+      <c r="B21" s="506"/>
+      <c r="C21" s="507"/>
+      <c r="D21" s="508"/>
+      <c r="E21" s="513"/>
+      <c r="F21" s="497"/>
+      <c r="G21" s="499"/>
+      <c r="H21" s="503"/>
+      <c r="I21" s="504"/>
+      <c r="J21" s="505"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A22" s="489">
+        <v>1</v>
+      </c>
+      <c r="B22" s="509" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="510"/>
+      <c r="D22" s="511"/>
+      <c r="E22" s="494"/>
+      <c r="F22" s="495"/>
+      <c r="G22" s="498"/>
+      <c r="H22" s="500"/>
+      <c r="I22" s="501"/>
+      <c r="J22" s="502"/>
+    </row>
+    <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A23" s="512"/>
+      <c r="B23" s="506"/>
+      <c r="C23" s="507"/>
+      <c r="D23" s="508"/>
+      <c r="E23" s="513"/>
+      <c r="F23" s="497"/>
+      <c r="G23" s="499"/>
+      <c r="H23" s="503"/>
+      <c r="I23" s="504"/>
+      <c r="J23" s="505"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A24" s="489">
+        <v>1</v>
+      </c>
+      <c r="B24" s="509" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="510"/>
+      <c r="D24" s="511"/>
+      <c r="E24" s="494"/>
+      <c r="F24" s="495"/>
+      <c r="G24" s="498"/>
+      <c r="H24" s="500"/>
+      <c r="I24" s="501"/>
+      <c r="J24" s="502"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A25" s="512"/>
+      <c r="B25" s="506"/>
+      <c r="C25" s="507"/>
+      <c r="D25" s="508"/>
+      <c r="E25" s="513"/>
+      <c r="F25" s="497"/>
+      <c r="G25" s="499"/>
+      <c r="H25" s="503"/>
+      <c r="I25" s="504"/>
+      <c r="J25" s="505"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A26" s="489">
+        <v>1</v>
+      </c>
+      <c r="B26" s="509" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="510"/>
+      <c r="D26" s="511"/>
+      <c r="E26" s="494"/>
+      <c r="F26" s="495"/>
+      <c r="G26" s="498"/>
+      <c r="H26" s="500"/>
+      <c r="I26" s="501"/>
+      <c r="J26" s="502"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="512"/>
+      <c r="B27" s="506"/>
+      <c r="C27" s="507"/>
+      <c r="D27" s="508"/>
+      <c r="E27" s="513"/>
+      <c r="F27" s="497"/>
+      <c r="G27" s="499"/>
+      <c r="H27" s="503"/>
+      <c r="I27" s="504"/>
+      <c r="J27" s="505"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A28" s="489">
+        <v>1</v>
+      </c>
+      <c r="B28" s="509" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="510"/>
+      <c r="D28" s="511"/>
+      <c r="E28" s="494"/>
+      <c r="F28" s="495"/>
+      <c r="G28" s="498"/>
+      <c r="H28" s="500"/>
+      <c r="I28" s="501"/>
+      <c r="J28" s="502"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="512"/>
+      <c r="B29" s="506"/>
+      <c r="C29" s="507"/>
+      <c r="D29" s="508"/>
+      <c r="E29" s="513"/>
+      <c r="F29" s="497"/>
+      <c r="G29" s="499"/>
+      <c r="H29" s="503"/>
+      <c r="I29" s="504"/>
+      <c r="J29" s="505"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6">
+      <c r="A30" s="313"/>
+      <c r="B30" s="313"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="313"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="313"/>
+      <c r="I30" s="313"/>
+      <c r="J30" s="314"/>
+    </row>
+    <row r="31" spans="1:10" s="483" customFormat="1" ht="15.6">
+      <c r="A31" s="481"/>
+      <c r="B31" s="481"/>
+      <c r="C31" s="481"/>
+      <c r="D31" s="481"/>
+      <c r="E31" s="481"/>
+      <c r="F31" s="481"/>
+      <c r="G31" s="481"/>
+      <c r="H31" s="481"/>
+      <c r="I31" s="481"/>
+      <c r="J31" s="482"/>
+    </row>
+    <row r="32" spans="1:10" s="483" customFormat="1" ht="15.6">
+      <c r="A32" s="481"/>
+      <c r="B32" s="481"/>
+      <c r="C32" s="481"/>
+      <c r="D32" s="484"/>
+      <c r="E32" s="484"/>
+      <c r="F32" s="484"/>
+      <c r="G32" s="484"/>
+      <c r="H32" s="484"/>
+      <c r="I32" s="481"/>
+      <c r="J32" s="482"/>
+    </row>
+    <row r="33" spans="1:10" s="483" customFormat="1" ht="15.6">
+      <c r="A33" s="481"/>
+      <c r="B33" s="485"/>
+      <c r="C33" s="481"/>
+      <c r="D33" s="481"/>
+      <c r="E33" s="481"/>
+      <c r="F33" s="481"/>
+      <c r="G33" s="481"/>
+      <c r="H33" s="481"/>
+      <c r="I33" s="481"/>
+      <c r="J33" s="482"/>
+    </row>
+    <row r="34" spans="1:10" s="483" customFormat="1" ht="15.6">
+      <c r="A34" s="481"/>
+      <c r="B34" s="481"/>
+      <c r="C34" s="481"/>
+      <c r="D34" s="481"/>
+      <c r="E34" s="481"/>
+      <c r="F34" s="481"/>
+      <c r="G34" s="481"/>
+      <c r="H34" s="481"/>
+      <c r="I34" s="481"/>
+      <c r="J34" s="482"/>
+    </row>
+    <row r="35" spans="1:10" s="483" customFormat="1" ht="15.6">
+      <c r="A35" s="481"/>
+      <c r="B35" s="481"/>
+      <c r="C35" s="481"/>
+      <c r="D35" s="481"/>
+      <c r="E35" s="481"/>
+      <c r="G35" s="481"/>
+      <c r="H35" s="481"/>
+      <c r="I35" s="481"/>
+      <c r="J35" s="481"/>
+    </row>
+    <row r="36" spans="1:10" s="483" customFormat="1" ht="15.6">
+      <c r="A36" s="481"/>
+      <c r="B36" s="481"/>
+      <c r="C36" s="481"/>
+      <c r="D36" s="481"/>
+      <c r="E36" s="481"/>
+      <c r="G36" s="481"/>
+      <c r="H36" s="481"/>
+      <c r="I36" s="481"/>
+      <c r="J36" s="481"/>
+    </row>
+    <row r="37" spans="1:10" s="483" customFormat="1" ht="15.6">
+      <c r="A37" s="481"/>
+      <c r="B37" s="481"/>
+      <c r="C37" s="481"/>
+      <c r="D37" s="481"/>
+      <c r="E37" s="481"/>
+      <c r="I37" s="481"/>
+    </row>
+    <row r="38" spans="1:10" s="483" customFormat="1" ht="17.399999999999999">
+      <c r="A38" s="486"/>
+      <c r="B38" s="486"/>
+      <c r="C38" s="486"/>
+      <c r="D38" s="486"/>
+      <c r="E38" s="486"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.399999999999999">
+      <c r="A39" s="310"/>
+      <c r="B39" s="310"/>
+      <c r="C39" s="310"/>
+      <c r="D39" s="310"/>
+      <c r="E39" s="310"/>
+      <c r="G39" s="317"/>
+      <c r="H39" s="317"/>
+      <c r="I39" s="313">
+        <f>I1</f>
         <v>0</v>
       </c>
-      <c r="D14" s="410" t="str">
-        <f>Данные!B22</f>
-        <v>нет</v>
-      </c>
-      <c r="E14" s="384" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="391"/>
-      <c r="G14" s="410" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="412" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="413"/>
-      <c r="J14" s="413"/>
-      <c r="K14" s="413"/>
-      <c r="L14" s="407"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="408">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="409" t="str">
-        <f>Данные!A23</f>
-        <v>Воронка</v>
-      </c>
-      <c r="C15" s="384" t="str">
-        <f>Данные!C23</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D15" s="410">
-        <f>Данные!B23</f>
-        <v>18</v>
-      </c>
-      <c r="E15" s="378">
-        <v>18</v>
-      </c>
-      <c r="F15" s="414"/>
-      <c r="G15" s="410">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H15" s="412"/>
-      <c r="I15" s="413"/>
-      <c r="J15" s="413"/>
-      <c r="K15" s="413"/>
-      <c r="L15" s="407"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A16" s="408">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="409" t="str">
-        <f>Данные!A24</f>
-        <v>Плита охлаждения</v>
-      </c>
-      <c r="C16" s="384" t="str">
-        <f>Данные!C24</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D16" s="410">
-        <f>Данные!B24</f>
-        <v>8</v>
-      </c>
-      <c r="E16" s="378">
-        <v>8</v>
-      </c>
-      <c r="F16" s="391"/>
-      <c r="G16" s="410">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H16" s="412"/>
-      <c r="I16" s="413"/>
-      <c r="J16" s="413"/>
-      <c r="K16" s="413"/>
-      <c r="L16" s="407"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="417">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="478" t="str">
-        <f>Данные!A25</f>
-        <v>Дутьевая головка</v>
-      </c>
-      <c r="C17" s="480" t="str">
-        <f>Данные!C25</f>
-        <v>В-30-4А-500</v>
-      </c>
-      <c r="D17" s="410">
-        <f>Данные!B25</f>
-        <v>18</v>
-      </c>
-      <c r="E17" s="391">
-        <v>18</v>
-      </c>
-      <c r="F17" s="419"/>
-      <c r="G17" s="418">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H17" s="420"/>
-      <c r="I17" s="413"/>
-      <c r="J17" s="421"/>
-      <c r="K17" s="413"/>
-      <c r="L17" s="407"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="422"/>
-      <c r="B18" s="479"/>
-      <c r="C18" s="395"/>
-      <c r="D18" s="395"/>
-      <c r="E18" s="395"/>
-      <c r="F18" s="395"/>
-      <c r="G18" s="395"/>
-      <c r="H18" s="395"/>
-      <c r="I18" s="395"/>
-      <c r="J18" s="395"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A19" s="395"/>
-      <c r="B19" s="423" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="374"/>
-      <c r="D19" s="374"/>
-      <c r="E19" s="374"/>
-      <c r="F19" s="374"/>
-      <c r="G19" s="395"/>
-      <c r="H19" s="395"/>
-      <c r="I19" s="395"/>
-      <c r="J19" s="424"/>
-      <c r="K19" s="424"/>
-      <c r="L19" s="424"/>
-    </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A20" s="399" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="400" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="400" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="400" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="400" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="400" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="425" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="426" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="427" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="402"/>
-      <c r="K20" s="402"/>
-      <c r="L20" s="402"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="428">
-        <f>D6*700000</f>
-        <v>15400000</v>
-      </c>
-      <c r="B21" s="429">
-        <v>43759</v>
-      </c>
-      <c r="C21" s="430">
-        <v>43765</v>
-      </c>
-      <c r="D21" s="429">
-        <v>43769</v>
-      </c>
-      <c r="E21" s="431">
-        <v>948096</v>
-      </c>
-      <c r="F21" s="431">
-        <v>1031915</v>
-      </c>
-      <c r="G21" s="432">
-        <f>F21/A$21</f>
-        <v>6.700746753246753E-2</v>
-      </c>
-      <c r="H21" s="433">
-        <f>A21-F21</f>
-        <v>14368085</v>
-      </c>
-      <c r="I21" s="434">
-        <f>1-G21</f>
-        <v>0.93299253246753244</v>
-      </c>
-      <c r="J21" s="435"/>
-      <c r="K21" s="413"/>
-      <c r="L21" s="413"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="436"/>
-      <c r="B22" s="437"/>
-      <c r="C22" s="437"/>
-      <c r="D22" s="437"/>
-      <c r="E22" s="438"/>
-      <c r="F22" s="438"/>
-      <c r="G22" s="432">
-        <f>F22/A$21</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="439">
-        <f>H21-F22</f>
-        <v>14368085</v>
-      </c>
-      <c r="I22" s="440">
-        <f>I21-G22</f>
-        <v>0.93299253246753244</v>
-      </c>
-      <c r="J22" s="395"/>
-      <c r="K22" s="395"/>
-      <c r="L22" s="395"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="441"/>
-      <c r="B23" s="442"/>
-      <c r="C23" s="442"/>
-      <c r="D23" s="442"/>
-      <c r="E23" s="443"/>
-      <c r="F23" s="443"/>
-      <c r="G23" s="444"/>
-      <c r="H23" s="445"/>
-      <c r="I23" s="446"/>
-      <c r="J23" s="435"/>
-      <c r="K23" s="413"/>
-      <c r="L23" s="413"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="441"/>
-      <c r="B24" s="387"/>
-      <c r="C24" s="387"/>
-      <c r="D24" s="387"/>
-      <c r="E24" s="387"/>
-      <c r="F24" s="387"/>
-      <c r="G24" s="387"/>
-      <c r="H24" s="387"/>
-      <c r="I24" s="447"/>
-      <c r="J24" s="435"/>
-      <c r="K24" s="435"/>
-      <c r="L24" s="395"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="441"/>
-      <c r="B25" s="442"/>
-      <c r="C25" s="442"/>
-      <c r="D25" s="442"/>
-      <c r="E25" s="443"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="448"/>
-      <c r="H25" s="445"/>
-      <c r="I25" s="446"/>
-      <c r="J25" s="435"/>
-      <c r="K25" s="449"/>
-      <c r="L25" s="395"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="441"/>
-      <c r="B26" s="442"/>
-      <c r="C26" s="442"/>
-      <c r="D26" s="442"/>
-      <c r="E26" s="443"/>
-      <c r="F26" s="443"/>
-      <c r="G26" s="448"/>
-      <c r="H26" s="445"/>
-      <c r="I26" s="446"/>
-      <c r="J26" s="435"/>
-      <c r="K26" s="435"/>
-      <c r="L26" s="395"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="441"/>
-      <c r="B27" s="442"/>
-      <c r="C27" s="442"/>
-      <c r="D27" s="442"/>
-      <c r="E27" s="445"/>
-      <c r="F27" s="443"/>
-      <c r="G27" s="448"/>
-      <c r="H27" s="445"/>
-      <c r="I27" s="446"/>
-      <c r="J27" s="435"/>
-      <c r="K27" s="435"/>
-      <c r="L27" s="395"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="441"/>
-      <c r="B28" s="442"/>
-      <c r="C28" s="442"/>
-      <c r="D28" s="442"/>
-      <c r="E28" s="445"/>
-      <c r="F28" s="443"/>
-      <c r="G28" s="448"/>
-      <c r="H28" s="445"/>
-      <c r="I28" s="446"/>
-      <c r="J28" s="435"/>
-      <c r="K28" s="435"/>
-      <c r="L28" s="395"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="441"/>
-      <c r="B29" s="442"/>
-      <c r="C29" s="442"/>
-      <c r="D29" s="387"/>
-      <c r="E29" s="387"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="450"/>
-      <c r="H29" s="445"/>
-      <c r="I29" s="451"/>
-      <c r="J29" s="435"/>
-      <c r="K29" s="435"/>
-      <c r="L29" s="395"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="441"/>
-      <c r="B30" s="442"/>
-      <c r="C30" s="442"/>
-      <c r="D30" s="387"/>
-      <c r="E30" s="387"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="448"/>
-      <c r="H30" s="445"/>
-      <c r="I30" s="451"/>
-      <c r="J30" s="435"/>
-      <c r="K30" s="435"/>
-      <c r="L30" s="395"/>
-    </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="452"/>
-      <c r="B31" s="453"/>
-      <c r="C31" s="453"/>
-      <c r="D31" s="454"/>
-      <c r="E31" s="454"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="456"/>
-      <c r="H31" s="457"/>
-      <c r="I31" s="458"/>
-      <c r="J31" s="395"/>
-      <c r="K31" s="395"/>
-      <c r="L31" s="395"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A32" s="459" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="460"/>
-      <c r="C32" s="460"/>
-      <c r="D32" s="461"/>
-      <c r="E32" s="462">
-        <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="463">
-        <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="464">
-        <f>SUM(G21:G31)</f>
-        <v>6.700746753246753E-2</v>
-      </c>
-      <c r="H32" s="465">
-        <f>A21-F32</f>
-        <v>14368085</v>
-      </c>
-      <c r="I32" s="466">
-        <f>1-G32</f>
-        <v>0.93299253246753244</v>
-      </c>
-      <c r="J32" s="467"/>
-      <c r="K32" s="467"/>
-      <c r="L32" s="467"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="395"/>
-      <c r="B35" s="395"/>
-      <c r="C35" s="395"/>
-      <c r="D35" s="395"/>
-      <c r="E35" s="395"/>
-      <c r="F35" s="395"/>
-      <c r="G35" s="395"/>
-      <c r="H35" s="395"/>
-      <c r="I35" s="395"/>
-      <c r="J35" s="395"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="488" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="488"/>
-      <c r="C36" s="488"/>
-      <c r="D36" s="488"/>
-      <c r="E36" s="395"/>
-      <c r="F36" s="395"/>
-      <c r="G36" s="395"/>
-      <c r="H36" s="395"/>
-      <c r="I36" s="395"/>
-      <c r="J36" s="395"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="489" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="489"/>
-      <c r="C37" s="468" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="468" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="395"/>
-      <c r="F37" s="395"/>
-      <c r="G37" s="395"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="395"/>
-      <c r="J37" s="395"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="490">
-        <f>A21-F32</f>
-        <v>14368085</v>
-      </c>
-      <c r="B38" s="491"/>
-      <c r="C38" s="469">
-        <f>1-G32</f>
-        <v>0.93299253246753244</v>
-      </c>
-      <c r="D38" s="470">
-        <f>(C38/0.8)*100</f>
-        <v>116.62406655844156</v>
-      </c>
-      <c r="E38" s="471" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="471"/>
-      <c r="G38" s="471"/>
-      <c r="H38" s="471"/>
-      <c r="I38" s="471"/>
-      <c r="J38" s="471"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="395"/>
-      <c r="B39" s="395"/>
-      <c r="C39" s="395"/>
-      <c r="D39" s="395"/>
-      <c r="E39" s="395"/>
-      <c r="F39" s="395"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="395"/>
-      <c r="B40" s="395"/>
-      <c r="C40" s="395"/>
-      <c r="D40" s="395"/>
-      <c r="E40" s="395"/>
-      <c r="F40" s="395"/>
-      <c r="G40" s="395"/>
-      <c r="H40" s="395"/>
-      <c r="I40" s="395"/>
-      <c r="J40" s="395"/>
-      <c r="K40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.6">
-      <c r="A41" s="395"/>
-      <c r="B41" s="472"/>
-      <c r="C41" s="472"/>
-      <c r="D41" s="395"/>
-      <c r="E41" s="395"/>
-      <c r="F41" s="395"/>
-      <c r="G41" s="395"/>
-      <c r="H41" s="395"/>
-      <c r="I41" s="395"/>
-      <c r="J41" s="395"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="473"/>
-      <c r="B42" s="473"/>
-      <c r="C42" s="473"/>
-      <c r="D42" s="473"/>
-      <c r="E42" s="473"/>
-      <c r="F42" s="473"/>
-      <c r="G42" s="473"/>
-      <c r="H42" s="473"/>
-      <c r="I42" s="481"/>
-      <c r="J42" s="482"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="474"/>
-      <c r="B43" s="475"/>
-      <c r="C43" s="475"/>
-      <c r="D43" s="395"/>
-      <c r="E43" s="395"/>
-      <c r="F43" s="475"/>
-      <c r="G43" s="421"/>
-      <c r="H43" s="475"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="474"/>
-      <c r="B44" s="475"/>
-      <c r="C44" s="475"/>
-      <c r="D44" s="475"/>
-      <c r="E44" s="475"/>
-      <c r="F44" s="475"/>
-      <c r="G44" s="421"/>
-      <c r="H44" s="475"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="474"/>
-      <c r="B45" s="475"/>
-      <c r="C45" s="475"/>
-      <c r="D45" s="395"/>
-      <c r="E45" s="395"/>
-      <c r="F45" s="475"/>
-      <c r="G45" s="421"/>
-      <c r="H45" s="475"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="474"/>
-      <c r="B46" s="475"/>
-      <c r="C46" s="475"/>
-      <c r="D46" s="475"/>
-      <c r="E46" s="475"/>
-      <c r="F46" s="475"/>
-      <c r="G46" s="421"/>
-      <c r="H46" s="475"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="474"/>
-      <c r="B47" s="475"/>
-      <c r="C47" s="475"/>
-      <c r="D47" s="395"/>
-      <c r="E47" s="395"/>
-      <c r="F47" s="475"/>
-      <c r="G47" s="421"/>
-      <c r="H47" s="475"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="474"/>
-      <c r="B48" s="475"/>
-      <c r="C48" s="413"/>
-      <c r="D48" s="476"/>
-      <c r="E48" s="476"/>
-      <c r="F48" s="413"/>
-      <c r="G48" s="413"/>
-      <c r="H48" s="413"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="474"/>
-      <c r="B49" s="475"/>
-      <c r="C49" s="475"/>
-      <c r="D49" s="475"/>
-      <c r="E49" s="475"/>
-      <c r="F49" s="475"/>
-      <c r="G49" s="421"/>
-      <c r="H49" s="475"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="474"/>
-      <c r="B50" s="475"/>
-      <c r="C50" s="475"/>
-      <c r="D50" s="475"/>
-      <c r="E50" s="475"/>
-      <c r="F50" s="475"/>
-      <c r="G50" s="421"/>
-      <c r="H50" s="475"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="474"/>
-      <c r="B51" s="475"/>
-      <c r="C51" s="475"/>
-      <c r="D51" s="395"/>
-      <c r="E51" s="395"/>
-      <c r="F51" s="475"/>
-      <c r="G51" s="421"/>
-      <c r="H51" s="475"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="395"/>
-      <c r="B52" s="483"/>
-      <c r="C52" s="483"/>
-      <c r="D52" s="484"/>
-      <c r="E52" s="471"/>
-      <c r="F52" s="395"/>
-      <c r="G52" s="395"/>
-      <c r="H52" s="395"/>
-      <c r="I52" s="395"/>
-      <c r="J52" s="395"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="473"/>
-      <c r="B53" s="473"/>
-      <c r="C53" s="473"/>
-      <c r="D53" s="473"/>
-      <c r="E53" s="473"/>
-      <c r="F53" s="473"/>
-      <c r="G53" s="473"/>
-      <c r="H53" s="473"/>
-      <c r="I53" s="481"/>
-      <c r="J53" s="482"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="474"/>
-      <c r="B54" s="395"/>
-      <c r="C54" s="395"/>
-      <c r="D54" s="395"/>
-      <c r="E54" s="395"/>
-      <c r="F54" s="421"/>
-      <c r="G54" s="421"/>
-      <c r="H54" s="475"/>
-      <c r="I54" s="485"/>
-      <c r="J54" s="485"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="474"/>
-      <c r="B55" s="395"/>
-      <c r="C55" s="395"/>
-      <c r="D55" s="413"/>
-      <c r="E55" s="413"/>
-      <c r="F55" s="413"/>
-      <c r="G55" s="413"/>
-      <c r="H55" s="413"/>
-      <c r="I55" s="485"/>
-      <c r="J55" s="485"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="395"/>
-      <c r="B56" s="395"/>
-      <c r="C56" s="395"/>
-      <c r="D56" s="395"/>
-      <c r="E56" s="395"/>
-      <c r="F56" s="395"/>
-      <c r="G56" s="395"/>
-      <c r="H56" s="395"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="481"/>
-      <c r="C61" s="482"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="481"/>
-      <c r="C68" s="482"/>
+      <c r="J39" s="313"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
+  <mergeCells count="77">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:J7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:J5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="1048575" man="1"/>
-  </colBreaks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="8" max="18" width="9" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="63"/>
+    </row>
+    <row r="2" spans="1:19" ht="24" customHeight="1">
+      <c r="A2" s="65"/>
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
+        <f>Данные!B19</f>
+        <v>50</v>
+      </c>
+      <c r="L2" s="608"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="625"/>
+      <c r="Q2" s="625"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="70"/>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A3" s="65"/>
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="70"/>
+    </row>
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A4" s="65"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="70"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="65"/>
+      <c r="B5" s="573" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
+        <f>Данные!$A5</f>
+        <v>PCI</v>
+      </c>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="70"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="65"/>
+      <c r="B6" s="573" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
+        <f>Данные!$A2</f>
+        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="70"/>
+    </row>
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="65"/>
+      <c r="B7" s="580" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
+        <f>Данные!$A8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
+        <f>Данные!$A11</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="529"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="70"/>
+    </row>
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="86"/>
+    </row>
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+      <c r="A9" s="87"/>
+      <c r="B9" s="256" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="257" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="258" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="259" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="260" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="134"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="90"/>
+    </row>
+    <row r="10" spans="1:19" ht="40.799999999999997">
+      <c r="A10" s="78"/>
+      <c r="B10" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="98">
+        <v>26.25</v>
+      </c>
+      <c r="D10" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="98">
+        <v>0</v>
+      </c>
+      <c r="F10" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="86"/>
+    </row>
+    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="98">
+        <v>21.55</v>
+      </c>
+      <c r="D11" s="98">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="98">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="99"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="86"/>
+    </row>
+    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="324">
+        <v>28.6</v>
+      </c>
+      <c r="D12" s="98">
+        <v>0</v>
+      </c>
+      <c r="E12" s="98">
+        <v>-0.03</v>
+      </c>
+      <c r="F12" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="132"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="86"/>
+    </row>
+    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="324">
+        <v>62</v>
+      </c>
+      <c r="D13" s="98">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="98">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="86"/>
+    </row>
+    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+      <c r="A14" s="78"/>
+      <c r="B14" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="98">
+        <v>15.5</v>
+      </c>
+      <c r="D14" s="98">
+        <v>0</v>
+      </c>
+      <c r="E14" s="98">
+        <v>-0.03</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="99"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="86"/>
+    </row>
+    <row r="15" spans="1:19" ht="23.1" customHeight="1">
+      <c r="A15" s="78"/>
+      <c r="B15" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="324">
+        <v>9.5</v>
+      </c>
+      <c r="D15" s="98">
+        <v>0</v>
+      </c>
+      <c r="E15" s="98">
+        <v>-0.02</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="86"/>
+    </row>
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+      <c r="A16" s="78"/>
+      <c r="B16" s="570" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="571"/>
+      <c r="D16" s="571"/>
+      <c r="E16" s="572"/>
+      <c r="F16" s="261" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="200" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="86"/>
+    </row>
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A17" s="112"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="116"/>
+    </row>
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+      <c r="B18" s="125"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H10:R15">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="notBetween">
+      <formula>$C10+$D10</formula>
+      <formula>$C10+$E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;C&amp;R</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -7344,47 +7462,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="172"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="620"/>
-      <c r="Q2" s="620"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="172"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7395,9 +7513,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="172"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7416,22 +7534,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="172"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7442,22 +7560,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="172"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7468,27 +7586,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="172"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="505">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="493">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7874,6 +7992,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7881,17 +8010,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7910,7 +8028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -7957,47 +8075,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="211"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="624"/>
-      <c r="Q2" s="624"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="211"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8008,9 +8126,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="211"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8029,22 +8147,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="211"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8055,22 +8173,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="211"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8081,27 +8199,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="211"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="505">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="493">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8430,12 +8548,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="221"/>
-      <c r="B18" s="621" t="s">
+      <c r="B18" s="628" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="622"/>
-      <c r="D18" s="622"/>
-      <c r="E18" s="623"/>
+      <c r="C18" s="629"/>
+      <c r="D18" s="629"/>
+      <c r="E18" s="630"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8479,14 +8597,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8498,6 +8608,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8536,7 +8654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
@@ -8583,47 +8701,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="135"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="625"/>
-      <c r="Q2" s="625"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="135"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8634,9 +8752,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8655,22 +8773,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="135"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8681,22 +8799,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="135"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8707,27 +8825,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="135"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="505">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="493">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9108,6 +9226,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9115,17 +9244,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9144,7 +9262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -9191,47 +9309,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="268"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="627">
+      <c r="J2" s="604"/>
+      <c r="K2" s="633">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="634"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="268"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="635"/>
+      <c r="L3" s="636"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9242,9 +9360,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="268"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9263,22 +9381,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="268"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9289,22 +9407,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="268"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9315,27 +9433,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="268"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="505">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="493">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9608,7 +9726,6 @@
     <row r="17" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
@@ -9626,6 +9743,7 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9652,6 +9770,1065 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.6">
+      <c r="A1" s="516" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="516" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="516"/>
+      <c r="E2" s="516"/>
+      <c r="F2" s="516"/>
+      <c r="G2" s="516"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="517" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="517"/>
+      <c r="G3" s="517"/>
+      <c r="H3" s="517"/>
+      <c r="I3" s="517"/>
+      <c r="K3" s="394"/>
+      <c r="L3" s="394"/>
+      <c r="M3" s="395"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+      <c r="A4" s="395"/>
+      <c r="B4" s="396"/>
+      <c r="C4" s="396"/>
+      <c r="F4" s="397"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="397"/>
+      <c r="I4" s="397"/>
+      <c r="J4" s="394"/>
+      <c r="K4" s="394"/>
+      <c r="M4" s="374"/>
+    </row>
+    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+      <c r="A5" s="399" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="400" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="400" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="400" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="400" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="400" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="400" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="401" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="402"/>
+      <c r="J5" s="402"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="402"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="403">
+        <v>1</v>
+      </c>
+      <c r="B6" s="477" t="str">
+        <f>Данные!A14</f>
+        <v>Чистовая форма</v>
+      </c>
+      <c r="C6" s="384" t="str">
+        <f>Данные!C14</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D6" s="404">
+        <f>Данные!B14</f>
+        <v>22</v>
+      </c>
+      <c r="E6" s="378">
+        <v>22</v>
+      </c>
+      <c r="F6" s="405"/>
+      <c r="G6" s="404">
+        <f>E6-F6</f>
+        <v>22</v>
+      </c>
+      <c r="H6" s="406"/>
+      <c r="I6" s="407"/>
+      <c r="J6" s="395"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="407"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="408">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="409" t="str">
+        <f>Данные!A15</f>
+        <v>Чистовой поддон</v>
+      </c>
+      <c r="C7" s="384" t="str">
+        <f>Данные!C15</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D7" s="410">
+        <f>Данные!B15</f>
+        <v>22</v>
+      </c>
+      <c r="E7" s="378">
+        <v>22</v>
+      </c>
+      <c r="F7" s="391"/>
+      <c r="G7" s="410">
+        <f t="shared" ref="G7:G17" si="0">E7-F7</f>
+        <v>22</v>
+      </c>
+      <c r="H7" s="411"/>
+      <c r="I7" s="407"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="395"/>
+      <c r="L7" s="407"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="408">
+        <f t="shared" ref="A8:A17" si="1">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="409" t="str">
+        <f>Данные!A16</f>
+        <v>Черновая форма</v>
+      </c>
+      <c r="C8" s="384" t="str">
+        <f>Данные!C16</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D8" s="410">
+        <f>Данные!B16</f>
+        <v>26</v>
+      </c>
+      <c r="E8" s="378">
+        <v>26</v>
+      </c>
+      <c r="F8" s="391"/>
+      <c r="G8" s="410">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H8" s="412"/>
+      <c r="I8" s="407"/>
+      <c r="J8" s="395"/>
+      <c r="K8" s="395"/>
+      <c r="L8" s="407"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="408">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="409" t="str">
+        <f>Данные!A17</f>
+        <v>Черновой поддон</v>
+      </c>
+      <c r="C9" s="384" t="str">
+        <f>Данные!C17</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D9" s="410">
+        <f>Данные!B17</f>
+        <v>26</v>
+      </c>
+      <c r="E9" s="378">
+        <v>26</v>
+      </c>
+      <c r="F9" s="391"/>
+      <c r="G9" s="410">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H9" s="412"/>
+      <c r="I9" s="407"/>
+      <c r="J9" s="413"/>
+      <c r="K9" s="395"/>
+      <c r="L9" s="407"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="408">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="409" t="str">
+        <f>Данные!A18</f>
+        <v>Горловое кольцо</v>
+      </c>
+      <c r="C10" s="384" t="str">
+        <f>Данные!C18</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D10" s="410">
+        <f>Данные!B18</f>
+        <v>50</v>
+      </c>
+      <c r="E10" s="378">
+        <v>50</v>
+      </c>
+      <c r="F10" s="391"/>
+      <c r="G10" s="410">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H10" s="412"/>
+      <c r="I10" s="413"/>
+      <c r="J10" s="413"/>
+      <c r="K10" s="413"/>
+      <c r="L10" s="407"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="408">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="409" t="str">
+        <f>Данные!A19</f>
+        <v>Направляющее кольцо</v>
+      </c>
+      <c r="C11" s="384" t="str">
+        <f>Данные!C19</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D11" s="410">
+        <f>Данные!B19</f>
+        <v>50</v>
+      </c>
+      <c r="E11" s="378">
+        <v>50</v>
+      </c>
+      <c r="F11" s="391"/>
+      <c r="G11" s="410">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H11" s="412"/>
+      <c r="I11" s="407"/>
+      <c r="J11" s="413"/>
+      <c r="K11" s="395"/>
+      <c r="L11" s="407"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="408">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="409" t="str">
+        <f>Данные!A20</f>
+        <v>Плунжер</v>
+      </c>
+      <c r="C12" s="384" t="str">
+        <f>Данные!C20</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D12" s="410">
+        <f>Данные!B20</f>
+        <v>40</v>
+      </c>
+      <c r="E12" s="378">
+        <v>40</v>
+      </c>
+      <c r="F12" s="414"/>
+      <c r="G12" s="410">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H12" s="412"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="413"/>
+      <c r="K12" s="413"/>
+      <c r="L12" s="407"/>
+      <c r="M12" s="415"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A13" s="408">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="409" t="str">
+        <f>Данные!A21</f>
+        <v>Втулка плунжера</v>
+      </c>
+      <c r="C13" s="384" t="str">
+        <f>Данные!C21</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D13" s="410">
+        <f>Данные!B21</f>
+        <v>20</v>
+      </c>
+      <c r="E13" s="378">
+        <v>20</v>
+      </c>
+      <c r="F13" s="416"/>
+      <c r="G13" s="410">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H13" s="412"/>
+      <c r="I13" s="413"/>
+      <c r="J13" s="413"/>
+      <c r="K13" s="413"/>
+      <c r="L13" s="407"/>
+      <c r="M13" s="415"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A14" s="408">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="409" t="str">
+        <f>Данные!A22</f>
+        <v>Хватки</v>
+      </c>
+      <c r="C14" s="384">
+        <f>Данные!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="410" t="str">
+        <f>Данные!B22</f>
+        <v>нет</v>
+      </c>
+      <c r="E14" s="384" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="391"/>
+      <c r="G14" s="410" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="412" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="413"/>
+      <c r="J14" s="413"/>
+      <c r="K14" s="413"/>
+      <c r="L14" s="407"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A15" s="408">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="409" t="str">
+        <f>Данные!A23</f>
+        <v>Воронка</v>
+      </c>
+      <c r="C15" s="384" t="str">
+        <f>Данные!C23</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D15" s="410">
+        <f>Данные!B23</f>
+        <v>18</v>
+      </c>
+      <c r="E15" s="378">
+        <v>18</v>
+      </c>
+      <c r="F15" s="414"/>
+      <c r="G15" s="410">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H15" s="412"/>
+      <c r="I15" s="413"/>
+      <c r="J15" s="413"/>
+      <c r="K15" s="413"/>
+      <c r="L15" s="407"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A16" s="408">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="409" t="str">
+        <f>Данные!A24</f>
+        <v>Плита охлаждения</v>
+      </c>
+      <c r="C16" s="384" t="str">
+        <f>Данные!C24</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D16" s="410">
+        <f>Данные!B24</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="378">
+        <v>8</v>
+      </c>
+      <c r="F16" s="391"/>
+      <c r="G16" s="410">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H16" s="412"/>
+      <c r="I16" s="413"/>
+      <c r="J16" s="413"/>
+      <c r="K16" s="413"/>
+      <c r="L16" s="407"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A17" s="417">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="478" t="str">
+        <f>Данные!A25</f>
+        <v>Дутьевая головка</v>
+      </c>
+      <c r="C17" s="480" t="str">
+        <f>Данные!C25</f>
+        <v>В-30-4А-500</v>
+      </c>
+      <c r="D17" s="410">
+        <f>Данные!B25</f>
+        <v>18</v>
+      </c>
+      <c r="E17" s="391">
+        <v>18</v>
+      </c>
+      <c r="F17" s="419"/>
+      <c r="G17" s="418">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H17" s="420"/>
+      <c r="I17" s="413"/>
+      <c r="J17" s="421"/>
+      <c r="K17" s="413"/>
+      <c r="L17" s="407"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="422"/>
+      <c r="B18" s="479"/>
+      <c r="C18" s="395"/>
+      <c r="D18" s="395"/>
+      <c r="E18" s="395"/>
+      <c r="F18" s="395"/>
+      <c r="G18" s="395"/>
+      <c r="H18" s="395"/>
+      <c r="I18" s="395"/>
+      <c r="J18" s="395"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A19" s="395"/>
+      <c r="B19" s="423" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="374"/>
+      <c r="D19" s="374"/>
+      <c r="E19" s="374"/>
+      <c r="F19" s="374"/>
+      <c r="G19" s="395"/>
+      <c r="H19" s="395"/>
+      <c r="I19" s="395"/>
+      <c r="J19" s="424"/>
+      <c r="K19" s="424"/>
+      <c r="L19" s="424"/>
+    </row>
+    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="A20" s="399" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="400" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="400" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="400" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="400" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="400" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="425" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="426" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="427" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="402"/>
+      <c r="K20" s="402"/>
+      <c r="L20" s="402"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="428">
+        <f>D6*700000</f>
+        <v>15400000</v>
+      </c>
+      <c r="B21" s="429">
+        <v>43759</v>
+      </c>
+      <c r="C21" s="430">
+        <v>43765</v>
+      </c>
+      <c r="D21" s="429">
+        <v>43769</v>
+      </c>
+      <c r="E21" s="431">
+        <v>948096</v>
+      </c>
+      <c r="F21" s="431">
+        <v>1031915</v>
+      </c>
+      <c r="G21" s="432">
+        <f>F21/A$21</f>
+        <v>6.700746753246753E-2</v>
+      </c>
+      <c r="H21" s="433">
+        <f>A21-F21</f>
+        <v>14368085</v>
+      </c>
+      <c r="I21" s="434">
+        <f>1-G21</f>
+        <v>0.93299253246753244</v>
+      </c>
+      <c r="J21" s="435"/>
+      <c r="K21" s="413"/>
+      <c r="L21" s="413"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A22" s="436"/>
+      <c r="B22" s="437"/>
+      <c r="C22" s="437"/>
+      <c r="D22" s="437"/>
+      <c r="E22" s="438"/>
+      <c r="F22" s="438"/>
+      <c r="G22" s="432">
+        <f>F22/A$21</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="439">
+        <f>H21-F22</f>
+        <v>14368085</v>
+      </c>
+      <c r="I22" s="440">
+        <f>I21-G22</f>
+        <v>0.93299253246753244</v>
+      </c>
+      <c r="J22" s="395"/>
+      <c r="K22" s="395"/>
+      <c r="L22" s="395"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A23" s="441"/>
+      <c r="B23" s="442"/>
+      <c r="C23" s="442"/>
+      <c r="D23" s="442"/>
+      <c r="E23" s="443"/>
+      <c r="F23" s="443"/>
+      <c r="G23" s="444"/>
+      <c r="H23" s="445"/>
+      <c r="I23" s="446"/>
+      <c r="J23" s="435"/>
+      <c r="K23" s="413"/>
+      <c r="L23" s="413"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="441"/>
+      <c r="B24" s="387"/>
+      <c r="C24" s="387"/>
+      <c r="D24" s="387"/>
+      <c r="E24" s="387"/>
+      <c r="F24" s="387"/>
+      <c r="G24" s="387"/>
+      <c r="H24" s="387"/>
+      <c r="I24" s="447"/>
+      <c r="J24" s="435"/>
+      <c r="K24" s="435"/>
+      <c r="L24" s="395"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="441"/>
+      <c r="B25" s="442"/>
+      <c r="C25" s="442"/>
+      <c r="D25" s="442"/>
+      <c r="E25" s="443"/>
+      <c r="F25" s="443"/>
+      <c r="G25" s="448"/>
+      <c r="H25" s="445"/>
+      <c r="I25" s="446"/>
+      <c r="J25" s="435"/>
+      <c r="K25" s="449"/>
+      <c r="L25" s="395"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="441"/>
+      <c r="B26" s="442"/>
+      <c r="C26" s="442"/>
+      <c r="D26" s="442"/>
+      <c r="E26" s="443"/>
+      <c r="F26" s="443"/>
+      <c r="G26" s="448"/>
+      <c r="H26" s="445"/>
+      <c r="I26" s="446"/>
+      <c r="J26" s="435"/>
+      <c r="K26" s="435"/>
+      <c r="L26" s="395"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="441"/>
+      <c r="B27" s="442"/>
+      <c r="C27" s="442"/>
+      <c r="D27" s="442"/>
+      <c r="E27" s="445"/>
+      <c r="F27" s="443"/>
+      <c r="G27" s="448"/>
+      <c r="H27" s="445"/>
+      <c r="I27" s="446"/>
+      <c r="J27" s="435"/>
+      <c r="K27" s="435"/>
+      <c r="L27" s="395"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="441"/>
+      <c r="B28" s="442"/>
+      <c r="C28" s="442"/>
+      <c r="D28" s="442"/>
+      <c r="E28" s="445"/>
+      <c r="F28" s="443"/>
+      <c r="G28" s="448"/>
+      <c r="H28" s="445"/>
+      <c r="I28" s="446"/>
+      <c r="J28" s="435"/>
+      <c r="K28" s="435"/>
+      <c r="L28" s="395"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="441"/>
+      <c r="B29" s="442"/>
+      <c r="C29" s="442"/>
+      <c r="D29" s="387"/>
+      <c r="E29" s="387"/>
+      <c r="F29" s="443"/>
+      <c r="G29" s="450"/>
+      <c r="H29" s="445"/>
+      <c r="I29" s="451"/>
+      <c r="J29" s="435"/>
+      <c r="K29" s="435"/>
+      <c r="L29" s="395"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="441"/>
+      <c r="B30" s="442"/>
+      <c r="C30" s="442"/>
+      <c r="D30" s="387"/>
+      <c r="E30" s="387"/>
+      <c r="F30" s="443"/>
+      <c r="G30" s="448"/>
+      <c r="H30" s="445"/>
+      <c r="I30" s="451"/>
+      <c r="J30" s="435"/>
+      <c r="K30" s="435"/>
+      <c r="L30" s="395"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A31" s="452"/>
+      <c r="B31" s="453"/>
+      <c r="C31" s="453"/>
+      <c r="D31" s="454"/>
+      <c r="E31" s="454"/>
+      <c r="F31" s="455"/>
+      <c r="G31" s="456"/>
+      <c r="H31" s="457"/>
+      <c r="I31" s="458"/>
+      <c r="J31" s="395"/>
+      <c r="K31" s="395"/>
+      <c r="L31" s="395"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A32" s="459" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="460"/>
+      <c r="C32" s="460"/>
+      <c r="D32" s="461"/>
+      <c r="E32" s="462">
+        <f>SUM(E21:E31)</f>
+        <v>948096</v>
+      </c>
+      <c r="F32" s="463">
+        <f>SUM(F21:F31)</f>
+        <v>1031915</v>
+      </c>
+      <c r="G32" s="464">
+        <f>SUM(G21:G31)</f>
+        <v>6.700746753246753E-2</v>
+      </c>
+      <c r="H32" s="465">
+        <f>A21-F32</f>
+        <v>14368085</v>
+      </c>
+      <c r="I32" s="466">
+        <f>1-G32</f>
+        <v>0.93299253246753244</v>
+      </c>
+      <c r="J32" s="467"/>
+      <c r="K32" s="467"/>
+      <c r="L32" s="467"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="395"/>
+      <c r="B35" s="395"/>
+      <c r="C35" s="395"/>
+      <c r="D35" s="395"/>
+      <c r="E35" s="395"/>
+      <c r="F35" s="395"/>
+      <c r="G35" s="395"/>
+      <c r="H35" s="395"/>
+      <c r="I35" s="395"/>
+      <c r="J35" s="395"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A36" s="518" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="518"/>
+      <c r="C36" s="518"/>
+      <c r="D36" s="518"/>
+      <c r="E36" s="395"/>
+      <c r="F36" s="395"/>
+      <c r="G36" s="395"/>
+      <c r="H36" s="395"/>
+      <c r="I36" s="395"/>
+      <c r="J36" s="395"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="519" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="519"/>
+      <c r="C37" s="468" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="468" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="395"/>
+      <c r="F37" s="395"/>
+      <c r="G37" s="395"/>
+      <c r="H37" s="395"/>
+      <c r="I37" s="395"/>
+      <c r="J37" s="395"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="514">
+        <f>A21-F32</f>
+        <v>14368085</v>
+      </c>
+      <c r="B38" s="515"/>
+      <c r="C38" s="469">
+        <f>1-G32</f>
+        <v>0.93299253246753244</v>
+      </c>
+      <c r="D38" s="470">
+        <f>(C38/0.8)*100</f>
+        <v>116.62406655844156</v>
+      </c>
+      <c r="E38" s="471" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="471"/>
+      <c r="G38" s="471"/>
+      <c r="H38" s="471"/>
+      <c r="I38" s="471"/>
+      <c r="J38" s="471"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="395"/>
+      <c r="B39" s="395"/>
+      <c r="C39" s="395"/>
+      <c r="D39" s="395"/>
+      <c r="E39" s="395"/>
+      <c r="F39" s="395"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="395"/>
+      <c r="B40" s="395"/>
+      <c r="C40" s="395"/>
+      <c r="D40" s="395"/>
+      <c r="E40" s="395"/>
+      <c r="F40" s="395"/>
+      <c r="G40" s="395"/>
+      <c r="H40" s="395"/>
+      <c r="I40" s="395"/>
+      <c r="J40" s="395"/>
+      <c r="K40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.6">
+      <c r="A41" s="395"/>
+      <c r="B41" s="472"/>
+      <c r="C41" s="472"/>
+      <c r="D41" s="395"/>
+      <c r="E41" s="395"/>
+      <c r="F41" s="395"/>
+      <c r="G41" s="395"/>
+      <c r="H41" s="395"/>
+      <c r="I41" s="395"/>
+      <c r="J41" s="395"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="473"/>
+      <c r="B42" s="473"/>
+      <c r="C42" s="473"/>
+      <c r="D42" s="473"/>
+      <c r="E42" s="473"/>
+      <c r="F42" s="473"/>
+      <c r="G42" s="473"/>
+      <c r="H42" s="473"/>
+      <c r="I42" s="520"/>
+      <c r="J42" s="521"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="474"/>
+      <c r="B43" s="475"/>
+      <c r="C43" s="475"/>
+      <c r="D43" s="395"/>
+      <c r="E43" s="395"/>
+      <c r="F43" s="475"/>
+      <c r="G43" s="421"/>
+      <c r="H43" s="475"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="474"/>
+      <c r="B44" s="475"/>
+      <c r="C44" s="475"/>
+      <c r="D44" s="475"/>
+      <c r="E44" s="475"/>
+      <c r="F44" s="475"/>
+      <c r="G44" s="421"/>
+      <c r="H44" s="475"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="474"/>
+      <c r="B45" s="475"/>
+      <c r="C45" s="475"/>
+      <c r="D45" s="395"/>
+      <c r="E45" s="395"/>
+      <c r="F45" s="475"/>
+      <c r="G45" s="421"/>
+      <c r="H45" s="475"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="474"/>
+      <c r="B46" s="475"/>
+      <c r="C46" s="475"/>
+      <c r="D46" s="475"/>
+      <c r="E46" s="475"/>
+      <c r="F46" s="475"/>
+      <c r="G46" s="421"/>
+      <c r="H46" s="475"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="474"/>
+      <c r="B47" s="475"/>
+      <c r="C47" s="475"/>
+      <c r="D47" s="395"/>
+      <c r="E47" s="395"/>
+      <c r="F47" s="475"/>
+      <c r="G47" s="421"/>
+      <c r="H47" s="475"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="474"/>
+      <c r="B48" s="475"/>
+      <c r="C48" s="413"/>
+      <c r="D48" s="476"/>
+      <c r="E48" s="476"/>
+      <c r="F48" s="413"/>
+      <c r="G48" s="413"/>
+      <c r="H48" s="413"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="474"/>
+      <c r="B49" s="475"/>
+      <c r="C49" s="475"/>
+      <c r="D49" s="475"/>
+      <c r="E49" s="475"/>
+      <c r="F49" s="475"/>
+      <c r="G49" s="421"/>
+      <c r="H49" s="475"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="474"/>
+      <c r="B50" s="475"/>
+      <c r="C50" s="475"/>
+      <c r="D50" s="475"/>
+      <c r="E50" s="475"/>
+      <c r="F50" s="475"/>
+      <c r="G50" s="421"/>
+      <c r="H50" s="475"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="474"/>
+      <c r="B51" s="475"/>
+      <c r="C51" s="475"/>
+      <c r="D51" s="395"/>
+      <c r="E51" s="395"/>
+      <c r="F51" s="475"/>
+      <c r="G51" s="421"/>
+      <c r="H51" s="475"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.6">
+      <c r="A52" s="395"/>
+      <c r="B52" s="522"/>
+      <c r="C52" s="522"/>
+      <c r="D52" s="523"/>
+      <c r="E52" s="471"/>
+      <c r="F52" s="395"/>
+      <c r="G52" s="395"/>
+      <c r="H52" s="395"/>
+      <c r="I52" s="395"/>
+      <c r="J52" s="395"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="473"/>
+      <c r="B53" s="473"/>
+      <c r="C53" s="473"/>
+      <c r="D53" s="473"/>
+      <c r="E53" s="473"/>
+      <c r="F53" s="473"/>
+      <c r="G53" s="473"/>
+      <c r="H53" s="473"/>
+      <c r="I53" s="520"/>
+      <c r="J53" s="521"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="474"/>
+      <c r="B54" s="395"/>
+      <c r="C54" s="395"/>
+      <c r="D54" s="395"/>
+      <c r="E54" s="395"/>
+      <c r="F54" s="421"/>
+      <c r="G54" s="421"/>
+      <c r="H54" s="475"/>
+      <c r="I54" s="524"/>
+      <c r="J54" s="524"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="474"/>
+      <c r="B55" s="395"/>
+      <c r="C55" s="395"/>
+      <c r="D55" s="413"/>
+      <c r="E55" s="413"/>
+      <c r="F55" s="413"/>
+      <c r="G55" s="413"/>
+      <c r="H55" s="413"/>
+      <c r="I55" s="524"/>
+      <c r="J55" s="524"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="395"/>
+      <c r="B56" s="395"/>
+      <c r="C56" s="395"/>
+      <c r="D56" s="395"/>
+      <c r="E56" s="395"/>
+      <c r="F56" s="395"/>
+      <c r="G56" s="395"/>
+      <c r="H56" s="395"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="520"/>
+      <c r="C61" s="521"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="520"/>
+      <c r="C68" s="521"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -9667,25 +10844,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="530" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
+      <c r="B1" s="534"/>
+      <c r="C1" s="534"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
       <c r="G1" s="373" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="496" t="s">
+      <c r="A2" s="531" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="497"/>
-      <c r="C2" s="497"/>
-      <c r="D2" s="497"/>
-      <c r="E2" s="498"/>
+      <c r="B2" s="532"/>
+      <c r="C2" s="532"/>
+      <c r="D2" s="532"/>
+      <c r="E2" s="533"/>
       <c r="G2" s="372" t="s">
         <v>80</v>
       </c>
@@ -9696,45 +10873,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="500" t="s">
+      <c r="A4" s="535" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="501"/>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501"/>
+      <c r="B4" s="536"/>
+      <c r="C4" s="536"/>
+      <c r="D4" s="536"/>
+      <c r="E4" s="536"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="502" t="s">
+      <c r="A5" s="537" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="503"/>
-      <c r="C5" s="503"/>
-      <c r="D5" s="503"/>
-      <c r="E5" s="504"/>
+      <c r="B5" s="538"/>
+      <c r="C5" s="538"/>
+      <c r="D5" s="538"/>
+      <c r="E5" s="539"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="495" t="s">
+      <c r="A7" s="530" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="499"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
+      <c r="B7" s="534"/>
+      <c r="C7" s="534"/>
+      <c r="D7" s="534"/>
+      <c r="E7" s="534"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="505"/>
-      <c r="B8" s="506"/>
-      <c r="C8" s="506"/>
-      <c r="D8" s="506"/>
-      <c r="E8" s="507"/>
+      <c r="A8" s="540"/>
+      <c r="B8" s="541"/>
+      <c r="C8" s="541"/>
+      <c r="D8" s="541"/>
+      <c r="E8" s="542"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="495" t="s">
+      <c r="A10" s="530" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="495"/>
+      <c r="B10" s="530"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>95</v>
@@ -9745,33 +10922,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="493"/>
-      <c r="B11" s="494"/>
+      <c r="A11" s="528"/>
+      <c r="B11" s="529"/>
       <c r="D11" s="381">
         <v>43753</v>
       </c>
-      <c r="F11" s="508" t="s">
+      <c r="F11" s="525" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="508"/>
-      <c r="H11" s="508"/>
-      <c r="I11" s="508"/>
-      <c r="J11" s="509" t="s">
+      <c r="G11" s="525"/>
+      <c r="H11" s="525"/>
+      <c r="I11" s="525"/>
+      <c r="J11" s="526" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="509"/>
+      <c r="K11" s="526"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="F12" s="508" t="s">
+      <c r="F12" s="525" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="508"/>
-      <c r="H12" s="508"/>
-      <c r="I12" s="508"/>
-      <c r="J12" s="509" t="s">
+      <c r="G12" s="525"/>
+      <c r="H12" s="525"/>
+      <c r="I12" s="525"/>
+      <c r="J12" s="526" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="509"/>
+      <c r="K12" s="526"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="375" t="s">
@@ -9783,16 +10960,16 @@
       <c r="C13" s="386" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="508" t="s">
+      <c r="F13" s="525" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="508"/>
-      <c r="H13" s="508"/>
-      <c r="I13" s="508"/>
-      <c r="J13" s="509" t="s">
+      <c r="G13" s="525"/>
+      <c r="H13" s="525"/>
+      <c r="I13" s="525"/>
+      <c r="J13" s="526" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="509"/>
+      <c r="K13" s="526"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="377" t="s">
@@ -9944,11 +11121,11 @@
       <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="492" t="s">
+      <c r="A29" s="527" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="492"/>
-      <c r="C29" s="492"/>
+      <c r="B29" s="527"/>
+      <c r="C29" s="527"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
@@ -9957,12 +11134,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -9972,18 +11143,24 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A34" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42:G43"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A38" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -10049,47 +11226,47 @@
       <c r="J8" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="511" t="s">
+      <c r="A11" s="544" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="511"/>
-      <c r="C11" s="511"/>
-      <c r="D11" s="511"/>
-      <c r="E11" s="511"/>
-      <c r="F11" s="511"/>
-      <c r="G11" s="511"/>
-      <c r="H11" s="511"/>
-      <c r="I11" s="511"/>
-      <c r="J11" s="511"/>
+      <c r="B11" s="544"/>
+      <c r="C11" s="544"/>
+      <c r="D11" s="544"/>
+      <c r="E11" s="544"/>
+      <c r="F11" s="544"/>
+      <c r="G11" s="544"/>
+      <c r="H11" s="544"/>
+      <c r="I11" s="544"/>
+      <c r="J11" s="544"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="510" t="s">
+      <c r="A12" s="543" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="510"/>
-      <c r="C12" s="510"/>
-      <c r="D12" s="510"/>
-      <c r="E12" s="510"/>
-      <c r="F12" s="510"/>
-      <c r="G12" s="510"/>
-      <c r="H12" s="510"/>
-      <c r="I12" s="510"/>
-      <c r="J12" s="510"/>
+      <c r="B12" s="543"/>
+      <c r="C12" s="543"/>
+      <c r="D12" s="543"/>
+      <c r="E12" s="543"/>
+      <c r="F12" s="543"/>
+      <c r="G12" s="543"/>
+      <c r="H12" s="543"/>
+      <c r="I12" s="543"/>
+      <c r="J12" s="543"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="512" t="str">
+      <c r="A13" s="545" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="B13" s="511"/>
-      <c r="C13" s="511"/>
-      <c r="D13" s="511"/>
-      <c r="E13" s="511"/>
-      <c r="F13" s="511"/>
-      <c r="G13" s="511"/>
-      <c r="H13" s="511"/>
-      <c r="I13" s="511"/>
-      <c r="J13" s="511"/>
+      <c r="B13" s="544"/>
+      <c r="C13" s="544"/>
+      <c r="D13" s="544"/>
+      <c r="E13" s="544"/>
+      <c r="F13" s="544"/>
+      <c r="G13" s="544"/>
+      <c r="H13" s="544"/>
+      <c r="I13" s="544"/>
+      <c r="J13" s="544"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="313" t="s">
@@ -10214,482 +11391,493 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="516" t="s">
+      <c r="A22" s="487" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="516" t="s">
+      <c r="B22" s="487" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="516"/>
-      <c r="D22" s="516"/>
-      <c r="E22" s="516" t="s">
+      <c r="C22" s="487"/>
+      <c r="D22" s="487"/>
+      <c r="E22" s="487" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="516"/>
-      <c r="G22" s="534" t="s">
+      <c r="F22" s="487"/>
+      <c r="G22" s="488" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="516" t="s">
+      <c r="H22" s="487" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="516"/>
-      <c r="J22" s="516"/>
+      <c r="I22" s="487"/>
+      <c r="J22" s="487"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="516"/>
-      <c r="B23" s="516"/>
-      <c r="C23" s="516"/>
-      <c r="D23" s="516"/>
-      <c r="E23" s="516"/>
-      <c r="F23" s="516"/>
-      <c r="G23" s="534"/>
-      <c r="H23" s="516"/>
-      <c r="I23" s="516"/>
-      <c r="J23" s="516"/>
+      <c r="A23" s="487"/>
+      <c r="B23" s="487"/>
+      <c r="C23" s="487"/>
+      <c r="D23" s="487"/>
+      <c r="E23" s="487"/>
+      <c r="F23" s="487"/>
+      <c r="G23" s="488"/>
+      <c r="H23" s="487"/>
+      <c r="I23" s="487"/>
+      <c r="J23" s="487"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="517">
+      <c r="A24" s="489">
         <v>1</v>
       </c>
-      <c r="B24" s="531" t="s">
+      <c r="B24" s="491" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="532"/>
-      <c r="D24" s="533"/>
-      <c r="E24" s="519" t="str">
+      <c r="C24" s="492"/>
+      <c r="D24" s="493"/>
+      <c r="E24" s="494" t="str">
         <f>Данные!C14</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F24" s="520"/>
-      <c r="G24" s="523">
+      <c r="F24" s="495"/>
+      <c r="G24" s="498">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="525"/>
-      <c r="I24" s="526"/>
-      <c r="J24" s="527"/>
+      <c r="H24" s="500"/>
+      <c r="I24" s="501"/>
+      <c r="J24" s="502"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="518"/>
-      <c r="B25" s="513" t="str">
+      <c r="A25" s="490"/>
+      <c r="B25" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C25" s="514"/>
-      <c r="D25" s="515"/>
-      <c r="E25" s="521"/>
-      <c r="F25" s="522"/>
-      <c r="G25" s="524"/>
-      <c r="H25" s="528"/>
-      <c r="I25" s="529"/>
-      <c r="J25" s="530"/>
+      <c r="C25" s="507"/>
+      <c r="D25" s="508"/>
+      <c r="E25" s="496"/>
+      <c r="F25" s="497"/>
+      <c r="G25" s="499"/>
+      <c r="H25" s="503"/>
+      <c r="I25" s="504"/>
+      <c r="J25" s="505"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="517">
-        <v>1</v>
-      </c>
-      <c r="B26" s="535" t="s">
+      <c r="A26" s="489">
+        <f>A24+1</f>
+        <v>2</v>
+      </c>
+      <c r="B26" s="509" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="536"/>
-      <c r="D26" s="537"/>
-      <c r="E26" s="519" t="str">
+      <c r="C26" s="510"/>
+      <c r="D26" s="511"/>
+      <c r="E26" s="494" t="str">
         <f>Данные!C15</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F26" s="520"/>
-      <c r="G26" s="523">
+      <c r="F26" s="495"/>
+      <c r="G26" s="498">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="525"/>
-      <c r="I26" s="526"/>
-      <c r="J26" s="527"/>
+      <c r="H26" s="500"/>
+      <c r="I26" s="501"/>
+      <c r="J26" s="502"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="518"/>
-      <c r="B27" s="513" t="str">
+      <c r="A27" s="490"/>
+      <c r="B27" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C27" s="514"/>
-      <c r="D27" s="515"/>
-      <c r="E27" s="521"/>
-      <c r="F27" s="522"/>
-      <c r="G27" s="524"/>
-      <c r="H27" s="528"/>
-      <c r="I27" s="529"/>
-      <c r="J27" s="530"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="517">
-        <v>1</v>
-      </c>
-      <c r="B28" s="535" t="s">
+      <c r="C27" s="507"/>
+      <c r="D27" s="508"/>
+      <c r="E27" s="496"/>
+      <c r="F27" s="497"/>
+      <c r="G27" s="499"/>
+      <c r="H27" s="503"/>
+      <c r="I27" s="504"/>
+      <c r="J27" s="505"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A28" s="489">
+        <f t="shared" ref="A28" si="0">A26+1</f>
+        <v>3</v>
+      </c>
+      <c r="B28" s="509" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="536"/>
-      <c r="D28" s="537"/>
-      <c r="E28" s="519" t="str">
+      <c r="C28" s="510"/>
+      <c r="D28" s="511"/>
+      <c r="E28" s="494" t="str">
         <f>Данные!C16</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F28" s="520"/>
-      <c r="G28" s="523">
+      <c r="F28" s="495"/>
+      <c r="G28" s="498">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H28" s="525"/>
-      <c r="I28" s="526"/>
-      <c r="J28" s="527"/>
+      <c r="H28" s="500"/>
+      <c r="I28" s="501"/>
+      <c r="J28" s="502"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="518"/>
-      <c r="B29" s="513" t="str">
+      <c r="A29" s="490"/>
+      <c r="B29" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C29" s="514"/>
-      <c r="D29" s="515"/>
-      <c r="E29" s="521"/>
-      <c r="F29" s="522"/>
-      <c r="G29" s="524"/>
-      <c r="H29" s="528"/>
-      <c r="I29" s="529"/>
-      <c r="J29" s="530"/>
+      <c r="C29" s="507"/>
+      <c r="D29" s="508"/>
+      <c r="E29" s="496"/>
+      <c r="F29" s="497"/>
+      <c r="G29" s="499"/>
+      <c r="H29" s="503"/>
+      <c r="I29" s="504"/>
+      <c r="J29" s="505"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="517">
-        <v>1</v>
-      </c>
-      <c r="B30" s="535" t="s">
+      <c r="A30" s="489">
+        <f t="shared" ref="A30" si="1">A28+1</f>
+        <v>4</v>
+      </c>
+      <c r="B30" s="509" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="536"/>
-      <c r="D30" s="537"/>
-      <c r="E30" s="519" t="str">
+      <c r="C30" s="510"/>
+      <c r="D30" s="511"/>
+      <c r="E30" s="494" t="str">
         <f>Данные!C17</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F30" s="520"/>
-      <c r="G30" s="523">
+      <c r="F30" s="495"/>
+      <c r="G30" s="498">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H30" s="525"/>
-      <c r="I30" s="526"/>
-      <c r="J30" s="527"/>
+      <c r="H30" s="500"/>
+      <c r="I30" s="501"/>
+      <c r="J30" s="502"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="538"/>
-      <c r="B31" s="513" t="str">
+      <c r="A31" s="490"/>
+      <c r="B31" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C31" s="514"/>
-      <c r="D31" s="515"/>
-      <c r="E31" s="539"/>
-      <c r="F31" s="522"/>
-      <c r="G31" s="524"/>
-      <c r="H31" s="528"/>
-      <c r="I31" s="529"/>
-      <c r="J31" s="530"/>
+      <c r="C31" s="507"/>
+      <c r="D31" s="508"/>
+      <c r="E31" s="513"/>
+      <c r="F31" s="497"/>
+      <c r="G31" s="499"/>
+      <c r="H31" s="503"/>
+      <c r="I31" s="504"/>
+      <c r="J31" s="505"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="517">
-        <v>1</v>
-      </c>
-      <c r="B32" s="535" t="s">
+      <c r="A32" s="489">
+        <f t="shared" ref="A32" si="2">A30+1</f>
+        <v>5</v>
+      </c>
+      <c r="B32" s="509" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="536"/>
-      <c r="D32" s="537"/>
-      <c r="E32" s="519" t="str">
+      <c r="C32" s="510"/>
+      <c r="D32" s="511"/>
+      <c r="E32" s="494" t="str">
         <f>Данные!C18</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F32" s="520"/>
-      <c r="G32" s="523">
+      <c r="F32" s="495"/>
+      <c r="G32" s="498">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="525"/>
-      <c r="I32" s="526"/>
-      <c r="J32" s="527"/>
+      <c r="H32" s="500"/>
+      <c r="I32" s="501"/>
+      <c r="J32" s="502"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="538"/>
-      <c r="B33" s="513" t="str">
+      <c r="A33" s="490"/>
+      <c r="B33" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C33" s="514"/>
-      <c r="D33" s="515"/>
-      <c r="E33" s="539"/>
-      <c r="F33" s="522"/>
-      <c r="G33" s="524"/>
-      <c r="H33" s="528"/>
-      <c r="I33" s="529"/>
-      <c r="J33" s="530"/>
+      <c r="C33" s="507"/>
+      <c r="D33" s="508"/>
+      <c r="E33" s="513"/>
+      <c r="F33" s="497"/>
+      <c r="G33" s="499"/>
+      <c r="H33" s="503"/>
+      <c r="I33" s="504"/>
+      <c r="J33" s="505"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="517">
-        <v>1</v>
-      </c>
-      <c r="B34" s="535" t="s">
+      <c r="A34" s="489">
+        <f t="shared" ref="A34" si="3">A32+1</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="509" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="536"/>
-      <c r="D34" s="537"/>
-      <c r="E34" s="519" t="str">
+      <c r="C34" s="510"/>
+      <c r="D34" s="511"/>
+      <c r="E34" s="494" t="str">
         <f>Данные!C19</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F34" s="520"/>
-      <c r="G34" s="523">
+      <c r="F34" s="495"/>
+      <c r="G34" s="498">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="525"/>
-      <c r="I34" s="526"/>
-      <c r="J34" s="527"/>
+      <c r="H34" s="500"/>
+      <c r="I34" s="501"/>
+      <c r="J34" s="502"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="538"/>
-      <c r="B35" s="513" t="str">
+      <c r="A35" s="490"/>
+      <c r="B35" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C35" s="514"/>
-      <c r="D35" s="515"/>
-      <c r="E35" s="539"/>
-      <c r="F35" s="522"/>
-      <c r="G35" s="524"/>
-      <c r="H35" s="528"/>
-      <c r="I35" s="529"/>
-      <c r="J35" s="530"/>
+      <c r="C35" s="507"/>
+      <c r="D35" s="508"/>
+      <c r="E35" s="513"/>
+      <c r="F35" s="497"/>
+      <c r="G35" s="499"/>
+      <c r="H35" s="503"/>
+      <c r="I35" s="504"/>
+      <c r="J35" s="505"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="517">
-        <v>1</v>
-      </c>
-      <c r="B36" s="535" t="s">
+      <c r="A36" s="489">
+        <f t="shared" ref="A36" si="4">A34+1</f>
+        <v>7</v>
+      </c>
+      <c r="B36" s="509" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="536"/>
-      <c r="D36" s="537"/>
-      <c r="E36" s="519" t="str">
+      <c r="C36" s="510"/>
+      <c r="D36" s="511"/>
+      <c r="E36" s="494" t="str">
         <f>Данные!C20</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F36" s="520"/>
-      <c r="G36" s="523">
+      <c r="F36" s="495"/>
+      <c r="G36" s="498">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="525"/>
-      <c r="I36" s="526"/>
-      <c r="J36" s="527"/>
+      <c r="H36" s="500"/>
+      <c r="I36" s="501"/>
+      <c r="J36" s="502"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="538"/>
-      <c r="B37" s="513" t="str">
+      <c r="A37" s="490"/>
+      <c r="B37" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C37" s="514"/>
-      <c r="D37" s="515"/>
-      <c r="E37" s="539"/>
-      <c r="F37" s="522"/>
-      <c r="G37" s="524"/>
-      <c r="H37" s="528"/>
-      <c r="I37" s="529"/>
-      <c r="J37" s="530"/>
+      <c r="C37" s="507"/>
+      <c r="D37" s="508"/>
+      <c r="E37" s="513"/>
+      <c r="F37" s="497"/>
+      <c r="G37" s="499"/>
+      <c r="H37" s="503"/>
+      <c r="I37" s="504"/>
+      <c r="J37" s="505"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="517">
-        <v>1</v>
-      </c>
-      <c r="B38" s="535" t="s">
+      <c r="A38" s="489">
+        <f t="shared" ref="A38" si="5">A36+1</f>
+        <v>8</v>
+      </c>
+      <c r="B38" s="509" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="536"/>
-      <c r="D38" s="537"/>
-      <c r="E38" s="519" t="str">
+      <c r="C38" s="510"/>
+      <c r="D38" s="511"/>
+      <c r="E38" s="494" t="str">
         <f>Данные!C21</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F38" s="520"/>
-      <c r="G38" s="523">
+      <c r="F38" s="495"/>
+      <c r="G38" s="498">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="525"/>
-      <c r="I38" s="526"/>
-      <c r="J38" s="527"/>
+      <c r="H38" s="500"/>
+      <c r="I38" s="501"/>
+      <c r="J38" s="502"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A39" s="538"/>
-      <c r="B39" s="513" t="str">
+      <c r="A39" s="490"/>
+      <c r="B39" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C39" s="514"/>
-      <c r="D39" s="515"/>
-      <c r="E39" s="539"/>
-      <c r="F39" s="522"/>
-      <c r="G39" s="524"/>
-      <c r="H39" s="528"/>
-      <c r="I39" s="529"/>
-      <c r="J39" s="530"/>
+      <c r="C39" s="507"/>
+      <c r="D39" s="508"/>
+      <c r="E39" s="513"/>
+      <c r="F39" s="497"/>
+      <c r="G39" s="499"/>
+      <c r="H39" s="503"/>
+      <c r="I39" s="504"/>
+      <c r="J39" s="505"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="517">
-        <v>1</v>
-      </c>
-      <c r="B40" s="535" t="s">
+      <c r="A40" s="489">
+        <f t="shared" ref="A40" si="6">A38+1</f>
+        <v>9</v>
+      </c>
+      <c r="B40" s="509" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="536"/>
-      <c r="D40" s="537"/>
-      <c r="E40" s="519" t="str">
+      <c r="C40" s="510"/>
+      <c r="D40" s="511"/>
+      <c r="E40" s="494" t="str">
         <f>Данные!C23</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F40" s="520"/>
-      <c r="G40" s="523">
+      <c r="F40" s="495"/>
+      <c r="G40" s="498">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="525"/>
-      <c r="I40" s="526"/>
-      <c r="J40" s="527"/>
+      <c r="H40" s="500"/>
+      <c r="I40" s="501"/>
+      <c r="J40" s="502"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A41" s="538"/>
-      <c r="B41" s="513" t="str">
+      <c r="A41" s="490"/>
+      <c r="B41" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C41" s="514"/>
-      <c r="D41" s="515"/>
-      <c r="E41" s="539"/>
-      <c r="F41" s="522"/>
-      <c r="G41" s="524"/>
-      <c r="H41" s="528"/>
-      <c r="I41" s="529"/>
-      <c r="J41" s="530"/>
+      <c r="C41" s="507"/>
+      <c r="D41" s="508"/>
+      <c r="E41" s="513"/>
+      <c r="F41" s="497"/>
+      <c r="G41" s="499"/>
+      <c r="H41" s="503"/>
+      <c r="I41" s="504"/>
+      <c r="J41" s="505"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="517">
-        <v>1</v>
-      </c>
-      <c r="B42" s="535" t="s">
+      <c r="A42" s="489">
+        <f t="shared" ref="A42" si="7">A40+1</f>
+        <v>10</v>
+      </c>
+      <c r="B42" s="509" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="536"/>
-      <c r="D42" s="537"/>
-      <c r="E42" s="519" t="str">
+      <c r="C42" s="510"/>
+      <c r="D42" s="511"/>
+      <c r="E42" s="494" t="str">
         <f>Данные!C25</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F42" s="520"/>
-      <c r="G42" s="523">
+      <c r="F42" s="495"/>
+      <c r="G42" s="498">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="525"/>
-      <c r="I42" s="526"/>
-      <c r="J42" s="527"/>
+      <c r="H42" s="500"/>
+      <c r="I42" s="501"/>
+      <c r="J42" s="502"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A43" s="538"/>
-      <c r="B43" s="513" t="str">
+      <c r="A43" s="490"/>
+      <c r="B43" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C43" s="514"/>
-      <c r="D43" s="515"/>
-      <c r="E43" s="539"/>
-      <c r="F43" s="522"/>
-      <c r="G43" s="524"/>
-      <c r="H43" s="528"/>
-      <c r="I43" s="529"/>
-      <c r="J43" s="530"/>
+      <c r="C43" s="507"/>
+      <c r="D43" s="508"/>
+      <c r="E43" s="513"/>
+      <c r="F43" s="497"/>
+      <c r="G43" s="499"/>
+      <c r="H43" s="503"/>
+      <c r="I43" s="504"/>
+      <c r="J43" s="505"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="517">
-        <v>1</v>
-      </c>
-      <c r="B44" s="535" t="s">
+      <c r="A44" s="489">
+        <f t="shared" ref="A44" si="8">A42+1</f>
+        <v>11</v>
+      </c>
+      <c r="B44" s="509" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="536"/>
-      <c r="D44" s="537"/>
-      <c r="E44" s="519">
+      <c r="C44" s="510"/>
+      <c r="D44" s="511"/>
+      <c r="E44" s="494">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="520"/>
-      <c r="G44" s="523">
+      <c r="F44" s="495"/>
+      <c r="G44" s="498">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="525"/>
-      <c r="I44" s="526"/>
-      <c r="J44" s="527"/>
+      <c r="H44" s="500"/>
+      <c r="I44" s="501"/>
+      <c r="J44" s="502"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A45" s="538"/>
-      <c r="B45" s="513" t="str">
+      <c r="A45" s="490"/>
+      <c r="B45" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C45" s="514"/>
-      <c r="D45" s="515"/>
-      <c r="E45" s="539"/>
-      <c r="F45" s="522"/>
-      <c r="G45" s="524"/>
-      <c r="H45" s="528"/>
-      <c r="I45" s="529"/>
-      <c r="J45" s="530"/>
+      <c r="C45" s="507"/>
+      <c r="D45" s="508"/>
+      <c r="E45" s="513"/>
+      <c r="F45" s="497"/>
+      <c r="G45" s="499"/>
+      <c r="H45" s="503"/>
+      <c r="I45" s="504"/>
+      <c r="J45" s="505"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="517">
-        <v>1</v>
-      </c>
-      <c r="B46" s="535" t="s">
+      <c r="A46" s="489">
+        <f t="shared" ref="A46" si="9">A44+1</f>
+        <v>12</v>
+      </c>
+      <c r="B46" s="509" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="536"/>
-      <c r="D46" s="537"/>
-      <c r="E46" s="519" t="str">
+      <c r="C46" s="510"/>
+      <c r="D46" s="511"/>
+      <c r="E46" s="494" t="str">
         <f>Данные!C24</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F46" s="520"/>
-      <c r="G46" s="523">
+      <c r="F46" s="495"/>
+      <c r="G46" s="498">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="525"/>
-      <c r="I46" s="526"/>
-      <c r="J46" s="527"/>
+      <c r="H46" s="500"/>
+      <c r="I46" s="501"/>
+      <c r="J46" s="502"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A47" s="538"/>
-      <c r="B47" s="513" t="str">
+      <c r="A47" s="490"/>
+      <c r="B47" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C47" s="514"/>
-      <c r="D47" s="515"/>
-      <c r="E47" s="539"/>
-      <c r="F47" s="522"/>
-      <c r="G47" s="524"/>
-      <c r="H47" s="528"/>
-      <c r="I47" s="529"/>
-      <c r="J47" s="530"/>
+      <c r="C47" s="507"/>
+      <c r="D47" s="508"/>
+      <c r="E47" s="513"/>
+      <c r="F47" s="497"/>
+      <c r="G47" s="499"/>
+      <c r="H47" s="503"/>
+      <c r="I47" s="504"/>
+      <c r="J47" s="505"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="313"/>
@@ -10818,70 +12006,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10898,6 +12022,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10905,7 +12093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
@@ -10952,47 +12140,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="65"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11003,9 +12191,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11024,22 +12212,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="544"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11050,22 +12238,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="547"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="538"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11076,27 +12264,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="505">
+      <c r="C7" s="581"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="493">
+      <c r="J7" s="584"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11590,12 +12778,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4">
       <c r="A23" s="78"/>
-      <c r="B23" s="555" t="s">
+      <c r="B23" s="585" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="556"/>
-      <c r="D23" s="556"/>
-      <c r="E23" s="557"/>
+      <c r="C23" s="586"/>
+      <c r="D23" s="586"/>
+      <c r="E23" s="587"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -11617,12 +12805,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1">
       <c r="A24" s="78"/>
-      <c r="B24" s="540" t="s">
+      <c r="B24" s="570" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="541"/>
-      <c r="D24" s="541"/>
-      <c r="E24" s="542"/>
+      <c r="C24" s="571"/>
+      <c r="D24" s="571"/>
+      <c r="E24" s="572"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11666,12 +12854,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11686,6 +12868,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11704,7 +12892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -11751,50 +12939,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="589">
+      <c r="B2" s="588">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11805,9 +12993,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11826,22 +13014,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11852,22 +13040,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11878,27 +13066,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="505">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="493">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12095,13 +13283,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="555" t="s">
+      <c r="B14" s="585" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="556"/>
-      <c r="D14" s="556"/>
-      <c r="E14" s="556"/>
-      <c r="F14" s="588"/>
+      <c r="C14" s="586"/>
+      <c r="D14" s="586"/>
+      <c r="E14" s="586"/>
+      <c r="F14" s="617"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -12120,12 +13308,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="540" t="s">
+      <c r="B15" s="570" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="541"/>
-      <c r="D15" s="541"/>
-      <c r="E15" s="542"/>
+      <c r="C15" s="571"/>
+      <c r="D15" s="571"/>
+      <c r="E15" s="572"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -12176,12 +13364,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12196,6 +13378,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12222,7 +13410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
@@ -12269,47 +13457,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12320,9 +13508,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12341,22 +13529,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="544"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12367,22 +13555,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="547"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="538"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12393,27 +13581,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="505">
+      <c r="C7" s="581"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="493">
+      <c r="J7" s="584"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12896,7 +14084,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
@@ -12914,6 +14101,7 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12934,7 +14122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -12981,47 +14169,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="612"/>
-      <c r="Q2" s="612"/>
+      <c r="P2" s="618"/>
+      <c r="Q2" s="618"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13032,9 +14220,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13053,22 +14241,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="544"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13079,22 +14267,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="547"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="538"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13105,27 +14293,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="505">
+      <c r="C7" s="581"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="493">
+      <c r="J7" s="584"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13410,17 +14598,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13428,6 +14605,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13449,7 +14637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13499,60 +14687,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="609"/>
-      <c r="M2" s="613"/>
-      <c r="N2" s="614"/>
-      <c r="O2" s="614"/>
-      <c r="P2" s="614"/>
-      <c r="Q2" s="614"/>
-      <c r="R2" s="615"/>
+      <c r="L2" s="608"/>
+      <c r="M2" s="619"/>
+      <c r="N2" s="620"/>
+      <c r="O2" s="620"/>
+      <c r="P2" s="620"/>
+      <c r="Q2" s="620"/>
+      <c r="R2" s="621"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
-      <c r="M3" s="616"/>
-      <c r="N3" s="617"/>
-      <c r="O3" s="617"/>
-      <c r="P3" s="617"/>
-      <c r="Q3" s="617"/>
-      <c r="R3" s="618"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
+      <c r="M3" s="622"/>
+      <c r="N3" s="623"/>
+      <c r="O3" s="623"/>
+      <c r="P3" s="623"/>
+      <c r="Q3" s="623"/>
+      <c r="R3" s="624"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13561,95 +14749,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="616"/>
-      <c r="N4" s="617"/>
-      <c r="O4" s="617"/>
-      <c r="P4" s="617"/>
-      <c r="Q4" s="617"/>
-      <c r="R4" s="618"/>
+      <c r="M4" s="622"/>
+      <c r="N4" s="623"/>
+      <c r="O4" s="623"/>
+      <c r="P4" s="623"/>
+      <c r="Q4" s="623"/>
+      <c r="R4" s="624"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="504"/>
-      <c r="M5" s="616"/>
-      <c r="N5" s="617"/>
-      <c r="O5" s="617"/>
-      <c r="P5" s="617"/>
-      <c r="Q5" s="617"/>
-      <c r="R5" s="618"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
+      <c r="M5" s="622"/>
+      <c r="N5" s="623"/>
+      <c r="O5" s="623"/>
+      <c r="P5" s="623"/>
+      <c r="Q5" s="623"/>
+      <c r="R5" s="624"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="504"/>
-      <c r="M6" s="616"/>
-      <c r="N6" s="617"/>
-      <c r="O6" s="617"/>
-      <c r="P6" s="617"/>
-      <c r="Q6" s="617"/>
-      <c r="R6" s="618"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
+      <c r="M6" s="622"/>
+      <c r="N6" s="623"/>
+      <c r="O6" s="623"/>
+      <c r="P6" s="623"/>
+      <c r="Q6" s="623"/>
+      <c r="R6" s="624"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="505">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="493">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
-      <c r="M7" s="616"/>
-      <c r="N7" s="617"/>
-      <c r="O7" s="617"/>
-      <c r="P7" s="617"/>
-      <c r="Q7" s="617"/>
-      <c r="R7" s="618"/>
+      <c r="L7" s="529"/>
+      <c r="M7" s="622"/>
+      <c r="N7" s="623"/>
+      <c r="O7" s="623"/>
+      <c r="P7" s="623"/>
+      <c r="Q7" s="623"/>
+      <c r="R7" s="624"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
@@ -14071,12 +15259,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1">
       <c r="A21" s="78"/>
-      <c r="B21" s="540" t="s">
+      <c r="B21" s="570" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="541"/>
-      <c r="D21" s="541"/>
-      <c r="E21" s="542"/>
+      <c r="C21" s="571"/>
+      <c r="D21" s="571"/>
+      <c r="E21" s="572"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -14122,6 +15310,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14134,13 +15329,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14157,547 +15345,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63"/>
-    </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
-        <f>Данные!B19</f>
-        <v>50</v>
-      </c>
-      <c r="L2" s="609"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="619"/>
-      <c r="Q2" s="619"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-    </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="70"/>
-    </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="70"/>
-    </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="502" t="str">
-        <f>Данные!$A5</f>
-        <v>PCI</v>
-      </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="504"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="70"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="496" t="str">
-        <f>Данные!$A2</f>
-        <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
-      </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="504"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="70"/>
-    </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="505">
-        <f>Данные!$A8</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="493">
-        <f>Данные!$A11</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="494"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="70"/>
-    </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="86"/>
-    </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="256" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="257" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="259" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="260" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="134"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="90"/>
-    </row>
-    <row r="10" spans="1:19" ht="40.799999999999997">
-      <c r="A10" s="78"/>
-      <c r="B10" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="98">
-        <v>26.25</v>
-      </c>
-      <c r="D10" s="98">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="98">
-        <v>0</v>
-      </c>
-      <c r="F10" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="86"/>
-    </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="98">
-        <v>21.55</v>
-      </c>
-      <c r="D11" s="98">
-        <v>0.02</v>
-      </c>
-      <c r="E11" s="98">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="86"/>
-    </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="324">
-        <v>28.6</v>
-      </c>
-      <c r="D12" s="98">
-        <v>0</v>
-      </c>
-      <c r="E12" s="98">
-        <v>-0.03</v>
-      </c>
-      <c r="F12" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="86"/>
-    </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="324">
-        <v>62</v>
-      </c>
-      <c r="D13" s="98">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="98">
-        <v>-0.1</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="86"/>
-    </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="98">
-        <v>15.5</v>
-      </c>
-      <c r="D14" s="98">
-        <v>0</v>
-      </c>
-      <c r="E14" s="98">
-        <v>-0.03</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="86"/>
-    </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="324">
-        <v>9.5</v>
-      </c>
-      <c r="D15" s="98">
-        <v>0</v>
-      </c>
-      <c r="E15" s="98">
-        <v>-0.02</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="86"/>
-    </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A16" s="78"/>
-      <c r="B16" s="540" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="541"/>
-      <c r="D16" s="541"/>
-      <c r="E16" s="542"/>
-      <c r="F16" s="261" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="200" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="86"/>
-    </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A17" s="112"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="116"/>
-    </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B18" s="125"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H10:R15">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="notBetween">
-      <formula>$C10+$D10</formula>
-      <formula>$C10+$E10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;C&amp;R</oddHeader>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
@@ -3561,104 +3561,86 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3667,10 +3649,22 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3717,6 +3711,12 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3725,78 +3725,6 @@
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3848,73 +3776,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3938,6 +3869,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3964,9 +3964,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3975,6 +3972,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6306,374 +6306,374 @@
       <c r="J3" s="314"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="487" t="s">
+      <c r="A4" s="512" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="487" t="s">
+      <c r="B4" s="512" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="487"/>
-      <c r="D4" s="487"/>
-      <c r="E4" s="487" t="s">
+      <c r="C4" s="512"/>
+      <c r="D4" s="512"/>
+      <c r="E4" s="512" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="487"/>
-      <c r="G4" s="488" t="s">
+      <c r="F4" s="512"/>
+      <c r="G4" s="513" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="487" t="s">
+      <c r="H4" s="512" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="487"/>
-      <c r="J4" s="487"/>
+      <c r="I4" s="512"/>
+      <c r="J4" s="512"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="487"/>
-      <c r="B5" s="487"/>
-      <c r="C5" s="487"/>
-      <c r="D5" s="487"/>
-      <c r="E5" s="487"/>
-      <c r="F5" s="487"/>
-      <c r="G5" s="488"/>
-      <c r="H5" s="487"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="487"/>
+      <c r="A5" s="512"/>
+      <c r="B5" s="512"/>
+      <c r="C5" s="512"/>
+      <c r="D5" s="512"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="512"/>
+      <c r="J5" s="512"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="489">
+      <c r="A6" s="487">
         <v>1</v>
       </c>
-      <c r="B6" s="491" t="s">
+      <c r="B6" s="509" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="492"/>
-      <c r="D6" s="493"/>
-      <c r="E6" s="494"/>
-      <c r="F6" s="495"/>
-      <c r="G6" s="498"/>
-      <c r="H6" s="500"/>
-      <c r="I6" s="501"/>
-      <c r="J6" s="502"/>
+      <c r="C6" s="510"/>
+      <c r="D6" s="511"/>
+      <c r="E6" s="492"/>
+      <c r="F6" s="493"/>
+      <c r="G6" s="496"/>
+      <c r="H6" s="498"/>
+      <c r="I6" s="499"/>
+      <c r="J6" s="500"/>
     </row>
     <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="490"/>
-      <c r="B7" s="506"/>
-      <c r="C7" s="507"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="496"/>
-      <c r="F7" s="497"/>
-      <c r="G7" s="499"/>
-      <c r="H7" s="503"/>
-      <c r="I7" s="504"/>
-      <c r="J7" s="505"/>
+      <c r="A7" s="507"/>
+      <c r="B7" s="504"/>
+      <c r="C7" s="505"/>
+      <c r="D7" s="506"/>
+      <c r="E7" s="508"/>
+      <c r="F7" s="495"/>
+      <c r="G7" s="497"/>
+      <c r="H7" s="501"/>
+      <c r="I7" s="502"/>
+      <c r="J7" s="503"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="489">
+      <c r="A8" s="487">
         <v>1</v>
       </c>
-      <c r="B8" s="509" t="s">
+      <c r="B8" s="489" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="510"/>
-      <c r="D8" s="511"/>
-      <c r="E8" s="494"/>
-      <c r="F8" s="495"/>
-      <c r="G8" s="498"/>
-      <c r="H8" s="500"/>
-      <c r="I8" s="501"/>
-      <c r="J8" s="502"/>
+      <c r="C8" s="490"/>
+      <c r="D8" s="491"/>
+      <c r="E8" s="492"/>
+      <c r="F8" s="493"/>
+      <c r="G8" s="496"/>
+      <c r="H8" s="498"/>
+      <c r="I8" s="499"/>
+      <c r="J8" s="500"/>
     </row>
     <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="490"/>
-      <c r="B9" s="506"/>
-      <c r="C9" s="507"/>
-      <c r="D9" s="508"/>
-      <c r="E9" s="496"/>
-      <c r="F9" s="497"/>
-      <c r="G9" s="499"/>
-      <c r="H9" s="503"/>
-      <c r="I9" s="504"/>
-      <c r="J9" s="505"/>
+      <c r="A9" s="507"/>
+      <c r="B9" s="504"/>
+      <c r="C9" s="505"/>
+      <c r="D9" s="506"/>
+      <c r="E9" s="508"/>
+      <c r="F9" s="495"/>
+      <c r="G9" s="497"/>
+      <c r="H9" s="501"/>
+      <c r="I9" s="502"/>
+      <c r="J9" s="503"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="489">
+      <c r="A10" s="487">
         <v>1</v>
       </c>
-      <c r="B10" s="509" t="s">
+      <c r="B10" s="489" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="510"/>
-      <c r="D10" s="511"/>
-      <c r="E10" s="494"/>
-      <c r="F10" s="495"/>
-      <c r="G10" s="498"/>
-      <c r="H10" s="500"/>
-      <c r="I10" s="501"/>
-      <c r="J10" s="502"/>
+      <c r="C10" s="490"/>
+      <c r="D10" s="491"/>
+      <c r="E10" s="492"/>
+      <c r="F10" s="493"/>
+      <c r="G10" s="496"/>
+      <c r="H10" s="498"/>
+      <c r="I10" s="499"/>
+      <c r="J10" s="500"/>
     </row>
     <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="490"/>
-      <c r="B11" s="506"/>
-      <c r="C11" s="507"/>
-      <c r="D11" s="508"/>
-      <c r="E11" s="496"/>
-      <c r="F11" s="497"/>
-      <c r="G11" s="499"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="504"/>
-      <c r="J11" s="505"/>
+      <c r="A11" s="507"/>
+      <c r="B11" s="504"/>
+      <c r="C11" s="505"/>
+      <c r="D11" s="506"/>
+      <c r="E11" s="508"/>
+      <c r="F11" s="495"/>
+      <c r="G11" s="497"/>
+      <c r="H11" s="501"/>
+      <c r="I11" s="502"/>
+      <c r="J11" s="503"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A12" s="489">
+      <c r="A12" s="487">
         <v>1</v>
       </c>
-      <c r="B12" s="509" t="s">
+      <c r="B12" s="489" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="510"/>
-      <c r="D12" s="511"/>
-      <c r="E12" s="494"/>
-      <c r="F12" s="495"/>
-      <c r="G12" s="498"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="501"/>
-      <c r="J12" s="502"/>
+      <c r="C12" s="490"/>
+      <c r="D12" s="491"/>
+      <c r="E12" s="492"/>
+      <c r="F12" s="493"/>
+      <c r="G12" s="496"/>
+      <c r="H12" s="498"/>
+      <c r="I12" s="499"/>
+      <c r="J12" s="500"/>
     </row>
     <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="512"/>
-      <c r="B13" s="506"/>
-      <c r="C13" s="507"/>
-      <c r="D13" s="508"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="497"/>
-      <c r="G13" s="499"/>
-      <c r="H13" s="503"/>
-      <c r="I13" s="504"/>
-      <c r="J13" s="505"/>
+      <c r="A13" s="488"/>
+      <c r="B13" s="504"/>
+      <c r="C13" s="505"/>
+      <c r="D13" s="506"/>
+      <c r="E13" s="494"/>
+      <c r="F13" s="495"/>
+      <c r="G13" s="497"/>
+      <c r="H13" s="501"/>
+      <c r="I13" s="502"/>
+      <c r="J13" s="503"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A14" s="489">
+      <c r="A14" s="487">
         <v>1</v>
       </c>
-      <c r="B14" s="509" t="s">
+      <c r="B14" s="489" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="510"/>
-      <c r="D14" s="511"/>
-      <c r="E14" s="494"/>
-      <c r="F14" s="495"/>
-      <c r="G14" s="498"/>
-      <c r="H14" s="500"/>
-      <c r="I14" s="501"/>
-      <c r="J14" s="502"/>
+      <c r="C14" s="490"/>
+      <c r="D14" s="491"/>
+      <c r="E14" s="492"/>
+      <c r="F14" s="493"/>
+      <c r="G14" s="496"/>
+      <c r="H14" s="498"/>
+      <c r="I14" s="499"/>
+      <c r="J14" s="500"/>
     </row>
     <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A15" s="512"/>
-      <c r="B15" s="506"/>
-      <c r="C15" s="507"/>
-      <c r="D15" s="508"/>
-      <c r="E15" s="513"/>
-      <c r="F15" s="497"/>
-      <c r="G15" s="499"/>
-      <c r="H15" s="503"/>
-      <c r="I15" s="504"/>
-      <c r="J15" s="505"/>
+      <c r="A15" s="488"/>
+      <c r="B15" s="504"/>
+      <c r="C15" s="505"/>
+      <c r="D15" s="506"/>
+      <c r="E15" s="494"/>
+      <c r="F15" s="495"/>
+      <c r="G15" s="497"/>
+      <c r="H15" s="501"/>
+      <c r="I15" s="502"/>
+      <c r="J15" s="503"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A16" s="489">
+      <c r="A16" s="487">
         <v>1</v>
       </c>
-      <c r="B16" s="509" t="s">
+      <c r="B16" s="489" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="510"/>
-      <c r="D16" s="511"/>
-      <c r="E16" s="494"/>
-      <c r="F16" s="495"/>
-      <c r="G16" s="498"/>
-      <c r="H16" s="500"/>
-      <c r="I16" s="501"/>
-      <c r="J16" s="502"/>
+      <c r="C16" s="490"/>
+      <c r="D16" s="491"/>
+      <c r="E16" s="492"/>
+      <c r="F16" s="493"/>
+      <c r="G16" s="496"/>
+      <c r="H16" s="498"/>
+      <c r="I16" s="499"/>
+      <c r="J16" s="500"/>
     </row>
     <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A17" s="512"/>
-      <c r="B17" s="506"/>
-      <c r="C17" s="507"/>
-      <c r="D17" s="508"/>
-      <c r="E17" s="513"/>
-      <c r="F17" s="497"/>
-      <c r="G17" s="499"/>
-      <c r="H17" s="503"/>
-      <c r="I17" s="504"/>
-      <c r="J17" s="505"/>
+      <c r="A17" s="488"/>
+      <c r="B17" s="504"/>
+      <c r="C17" s="505"/>
+      <c r="D17" s="506"/>
+      <c r="E17" s="494"/>
+      <c r="F17" s="495"/>
+      <c r="G17" s="497"/>
+      <c r="H17" s="501"/>
+      <c r="I17" s="502"/>
+      <c r="J17" s="503"/>
     </row>
     <row r="18" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A18" s="489">
+      <c r="A18" s="487">
         <v>1</v>
       </c>
-      <c r="B18" s="509" t="s">
+      <c r="B18" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="510"/>
-      <c r="D18" s="511"/>
-      <c r="E18" s="494"/>
-      <c r="F18" s="495"/>
-      <c r="G18" s="498"/>
-      <c r="H18" s="500"/>
-      <c r="I18" s="501"/>
-      <c r="J18" s="502"/>
+      <c r="C18" s="490"/>
+      <c r="D18" s="491"/>
+      <c r="E18" s="492"/>
+      <c r="F18" s="493"/>
+      <c r="G18" s="496"/>
+      <c r="H18" s="498"/>
+      <c r="I18" s="499"/>
+      <c r="J18" s="500"/>
     </row>
     <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A19" s="512"/>
-      <c r="B19" s="506"/>
-      <c r="C19" s="507"/>
-      <c r="D19" s="508"/>
-      <c r="E19" s="513"/>
-      <c r="F19" s="497"/>
-      <c r="G19" s="499"/>
-      <c r="H19" s="503"/>
-      <c r="I19" s="504"/>
-      <c r="J19" s="505"/>
+      <c r="A19" s="488"/>
+      <c r="B19" s="504"/>
+      <c r="C19" s="505"/>
+      <c r="D19" s="506"/>
+      <c r="E19" s="494"/>
+      <c r="F19" s="495"/>
+      <c r="G19" s="497"/>
+      <c r="H19" s="501"/>
+      <c r="I19" s="502"/>
+      <c r="J19" s="503"/>
     </row>
     <row r="20" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A20" s="489">
+      <c r="A20" s="487">
         <v>1</v>
       </c>
-      <c r="B20" s="509" t="s">
+      <c r="B20" s="489" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="510"/>
-      <c r="D20" s="511"/>
-      <c r="E20" s="494"/>
-      <c r="F20" s="495"/>
-      <c r="G20" s="498"/>
-      <c r="H20" s="500"/>
-      <c r="I20" s="501"/>
-      <c r="J20" s="502"/>
+      <c r="C20" s="490"/>
+      <c r="D20" s="491"/>
+      <c r="E20" s="492"/>
+      <c r="F20" s="493"/>
+      <c r="G20" s="496"/>
+      <c r="H20" s="498"/>
+      <c r="I20" s="499"/>
+      <c r="J20" s="500"/>
     </row>
     <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A21" s="512"/>
-      <c r="B21" s="506"/>
-      <c r="C21" s="507"/>
-      <c r="D21" s="508"/>
-      <c r="E21" s="513"/>
-      <c r="F21" s="497"/>
-      <c r="G21" s="499"/>
-      <c r="H21" s="503"/>
-      <c r="I21" s="504"/>
-      <c r="J21" s="505"/>
+      <c r="A21" s="488"/>
+      <c r="B21" s="504"/>
+      <c r="C21" s="505"/>
+      <c r="D21" s="506"/>
+      <c r="E21" s="494"/>
+      <c r="F21" s="495"/>
+      <c r="G21" s="497"/>
+      <c r="H21" s="501"/>
+      <c r="I21" s="502"/>
+      <c r="J21" s="503"/>
     </row>
     <row r="22" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A22" s="489">
+      <c r="A22" s="487">
         <v>1</v>
       </c>
-      <c r="B22" s="509" t="s">
+      <c r="B22" s="489" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="510"/>
-      <c r="D22" s="511"/>
-      <c r="E22" s="494"/>
-      <c r="F22" s="495"/>
-      <c r="G22" s="498"/>
-      <c r="H22" s="500"/>
-      <c r="I22" s="501"/>
-      <c r="J22" s="502"/>
+      <c r="C22" s="490"/>
+      <c r="D22" s="491"/>
+      <c r="E22" s="492"/>
+      <c r="F22" s="493"/>
+      <c r="G22" s="496"/>
+      <c r="H22" s="498"/>
+      <c r="I22" s="499"/>
+      <c r="J22" s="500"/>
     </row>
     <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A23" s="512"/>
-      <c r="B23" s="506"/>
-      <c r="C23" s="507"/>
-      <c r="D23" s="508"/>
-      <c r="E23" s="513"/>
-      <c r="F23" s="497"/>
-      <c r="G23" s="499"/>
-      <c r="H23" s="503"/>
-      <c r="I23" s="504"/>
-      <c r="J23" s="505"/>
+      <c r="A23" s="488"/>
+      <c r="B23" s="504"/>
+      <c r="C23" s="505"/>
+      <c r="D23" s="506"/>
+      <c r="E23" s="494"/>
+      <c r="F23" s="495"/>
+      <c r="G23" s="497"/>
+      <c r="H23" s="501"/>
+      <c r="I23" s="502"/>
+      <c r="J23" s="503"/>
     </row>
     <row r="24" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A24" s="489">
+      <c r="A24" s="487">
         <v>1</v>
       </c>
-      <c r="B24" s="509" t="s">
+      <c r="B24" s="489" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="510"/>
-      <c r="D24" s="511"/>
-      <c r="E24" s="494"/>
-      <c r="F24" s="495"/>
-      <c r="G24" s="498"/>
-      <c r="H24" s="500"/>
-      <c r="I24" s="501"/>
-      <c r="J24" s="502"/>
+      <c r="C24" s="490"/>
+      <c r="D24" s="491"/>
+      <c r="E24" s="492"/>
+      <c r="F24" s="493"/>
+      <c r="G24" s="496"/>
+      <c r="H24" s="498"/>
+      <c r="I24" s="499"/>
+      <c r="J24" s="500"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="512"/>
-      <c r="B25" s="506"/>
-      <c r="C25" s="507"/>
-      <c r="D25" s="508"/>
-      <c r="E25" s="513"/>
-      <c r="F25" s="497"/>
-      <c r="G25" s="499"/>
-      <c r="H25" s="503"/>
-      <c r="I25" s="504"/>
-      <c r="J25" s="505"/>
+      <c r="A25" s="488"/>
+      <c r="B25" s="504"/>
+      <c r="C25" s="505"/>
+      <c r="D25" s="506"/>
+      <c r="E25" s="494"/>
+      <c r="F25" s="495"/>
+      <c r="G25" s="497"/>
+      <c r="H25" s="501"/>
+      <c r="I25" s="502"/>
+      <c r="J25" s="503"/>
     </row>
     <row r="26" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A26" s="489">
+      <c r="A26" s="487">
         <v>1</v>
       </c>
-      <c r="B26" s="509" t="s">
+      <c r="B26" s="489" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="510"/>
-      <c r="D26" s="511"/>
-      <c r="E26" s="494"/>
-      <c r="F26" s="495"/>
-      <c r="G26" s="498"/>
-      <c r="H26" s="500"/>
-      <c r="I26" s="501"/>
-      <c r="J26" s="502"/>
+      <c r="C26" s="490"/>
+      <c r="D26" s="491"/>
+      <c r="E26" s="492"/>
+      <c r="F26" s="493"/>
+      <c r="G26" s="496"/>
+      <c r="H26" s="498"/>
+      <c r="I26" s="499"/>
+      <c r="J26" s="500"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="512"/>
-      <c r="B27" s="506"/>
-      <c r="C27" s="507"/>
-      <c r="D27" s="508"/>
-      <c r="E27" s="513"/>
-      <c r="F27" s="497"/>
-      <c r="G27" s="499"/>
-      <c r="H27" s="503"/>
-      <c r="I27" s="504"/>
-      <c r="J27" s="505"/>
+      <c r="A27" s="488"/>
+      <c r="B27" s="504"/>
+      <c r="C27" s="505"/>
+      <c r="D27" s="506"/>
+      <c r="E27" s="494"/>
+      <c r="F27" s="495"/>
+      <c r="G27" s="497"/>
+      <c r="H27" s="501"/>
+      <c r="I27" s="502"/>
+      <c r="J27" s="503"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="489">
+      <c r="A28" s="487">
         <v>1</v>
       </c>
-      <c r="B28" s="509" t="s">
+      <c r="B28" s="489" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="510"/>
-      <c r="D28" s="511"/>
-      <c r="E28" s="494"/>
-      <c r="F28" s="495"/>
-      <c r="G28" s="498"/>
-      <c r="H28" s="500"/>
-      <c r="I28" s="501"/>
-      <c r="J28" s="502"/>
+      <c r="C28" s="490"/>
+      <c r="D28" s="491"/>
+      <c r="E28" s="492"/>
+      <c r="F28" s="493"/>
+      <c r="G28" s="496"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="499"/>
+      <c r="J28" s="500"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="512"/>
-      <c r="B29" s="506"/>
-      <c r="C29" s="507"/>
-      <c r="D29" s="508"/>
-      <c r="E29" s="513"/>
-      <c r="F29" s="497"/>
-      <c r="G29" s="499"/>
-      <c r="H29" s="503"/>
-      <c r="I29" s="504"/>
-      <c r="J29" s="505"/>
+      <c r="A29" s="488"/>
+      <c r="B29" s="504"/>
+      <c r="C29" s="505"/>
+      <c r="D29" s="506"/>
+      <c r="E29" s="494"/>
+      <c r="F29" s="495"/>
+      <c r="G29" s="497"/>
+      <c r="H29" s="501"/>
+      <c r="I29" s="502"/>
+      <c r="J29" s="503"/>
     </row>
     <row r="30" spans="1:10" ht="15.6">
       <c r="A30" s="313"/>
@@ -6788,83 +6788,83 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:J7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:J29"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:J7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6918,24 +6918,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -6946,19 +6946,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -6969,9 +6969,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6990,22 +6990,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7016,22 +7016,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7042,27 +7042,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="592"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="592"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -7325,12 +7325,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="570" t="s">
+      <c r="B16" s="546" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="571"/>
-      <c r="D16" s="571"/>
-      <c r="E16" s="572"/>
+      <c r="C16" s="547"/>
+      <c r="D16" s="547"/>
+      <c r="E16" s="548"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -7376,15 +7376,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -7395,6 +7386,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -7462,24 +7462,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="172"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
@@ -7490,19 +7490,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="172"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7513,9 +7513,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="172"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7534,22 +7534,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="172"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7560,22 +7560,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="172"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7586,27 +7586,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="172"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="592"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="592"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7992,17 +7992,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8010,6 +7999,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8075,47 +8075,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="211"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="211"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8126,9 +8126,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="211"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8147,22 +8147,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="211"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8173,22 +8173,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="211"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8199,27 +8199,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="211"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="592"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="592"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8548,12 +8548,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="221"/>
-      <c r="B18" s="628" t="s">
+      <c r="B18" s="627" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="629"/>
-      <c r="D18" s="629"/>
-      <c r="E18" s="630"/>
+      <c r="C18" s="628"/>
+      <c r="D18" s="628"/>
+      <c r="E18" s="629"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8597,6 +8597,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8608,14 +8616,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8701,24 +8701,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="135"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
@@ -8729,19 +8729,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="135"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8752,9 +8752,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8773,22 +8773,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="135"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8799,22 +8799,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="135"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8825,27 +8825,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="135"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="592"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="592"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9226,17 +9226,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9244,6 +9233,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9309,19 +9309,19 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="268"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
+      <c r="J2" s="611"/>
       <c r="K2" s="633">
         <f>Данные!B23</f>
         <v>18</v>
@@ -9337,17 +9337,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="268"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
       <c r="K3" s="635"/>
       <c r="L3" s="636"/>
       <c r="M3" s="274"/>
@@ -9360,9 +9360,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="268"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9381,22 +9381,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="268"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9407,22 +9407,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="268"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9433,27 +9433,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="268"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="592"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="592"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9726,6 +9726,8 @@
     <row r="17" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
@@ -9742,8 +9744,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9772,8 +9772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9793,49 +9793,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="516" t="s">
+      <c r="A1" s="521" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
+      <c r="B1" s="521"/>
+      <c r="C1" s="521"/>
+      <c r="D1" s="521"/>
+      <c r="E1" s="521"/>
+      <c r="F1" s="521"/>
+      <c r="G1" s="521"/>
+      <c r="H1" s="521"/>
+      <c r="I1" s="521"/>
       <c r="J1" s="392"/>
       <c r="K1" s="392"/>
       <c r="L1" s="392"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="516" t="s">
+      <c r="A2" s="521" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="516"/>
-      <c r="C2" s="516"/>
-      <c r="D2" s="516"/>
-      <c r="E2" s="516"/>
-      <c r="F2" s="516"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
+      <c r="B2" s="521"/>
+      <c r="C2" s="521"/>
+      <c r="D2" s="521"/>
+      <c r="E2" s="521"/>
+      <c r="F2" s="521"/>
+      <c r="G2" s="521"/>
+      <c r="H2" s="521"/>
+      <c r="I2" s="521"/>
       <c r="J2" s="393"/>
       <c r="K2" s="393"/>
       <c r="L2" s="393"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="517" t="s">
+      <c r="A3" s="522" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="517"/>
-      <c r="C3" s="517"/>
-      <c r="D3" s="517"/>
-      <c r="E3" s="517"/>
-      <c r="F3" s="517"/>
-      <c r="G3" s="517"/>
-      <c r="H3" s="517"/>
-      <c r="I3" s="517"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
       <c r="K3" s="394"/>
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
@@ -10355,22 +10355,32 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="436"/>
-      <c r="B22" s="437"/>
-      <c r="C22" s="437"/>
-      <c r="D22" s="437"/>
-      <c r="E22" s="438"/>
-      <c r="F22" s="438"/>
+      <c r="B22" s="437">
+        <v>43866</v>
+      </c>
+      <c r="C22" s="437">
+        <v>43870</v>
+      </c>
+      <c r="D22" s="437">
+        <v>43872</v>
+      </c>
+      <c r="E22" s="438">
+        <v>624750</v>
+      </c>
+      <c r="F22" s="438">
+        <v>730901</v>
+      </c>
       <c r="G22" s="432">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>4.7461103896103897E-2</v>
       </c>
       <c r="H22" s="439">
         <f>H21-F22</f>
-        <v>14368085</v>
+        <v>13637184</v>
       </c>
       <c r="I22" s="440">
         <f>I21-G22</f>
-        <v>0.93299253246753244</v>
+        <v>0.88553142857142852</v>
       </c>
       <c r="J22" s="395"/>
       <c r="K22" s="395"/>
@@ -10511,23 +10521,23 @@
       <c r="D32" s="461"/>
       <c r="E32" s="462">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
+        <v>1572846</v>
       </c>
       <c r="F32" s="463">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
+        <v>1762816</v>
       </c>
       <c r="G32" s="464">
         <f>SUM(G21:G31)</f>
-        <v>6.700746753246753E-2</v>
+        <v>0.11446857142857142</v>
       </c>
       <c r="H32" s="465">
         <f>A21-F32</f>
-        <v>14368085</v>
+        <v>13637184</v>
       </c>
       <c r="I32" s="466">
         <f>1-G32</f>
-        <v>0.93299253246753244</v>
+        <v>0.88553142857142864</v>
       </c>
       <c r="J32" s="467"/>
       <c r="K32" s="467"/>
@@ -10546,12 +10556,12 @@
       <c r="J35" s="395"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="518" t="s">
+      <c r="A36" s="523" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="518"/>
-      <c r="C36" s="518"/>
-      <c r="D36" s="518"/>
+      <c r="B36" s="523"/>
+      <c r="C36" s="523"/>
+      <c r="D36" s="523"/>
       <c r="E36" s="395"/>
       <c r="F36" s="395"/>
       <c r="G36" s="395"/>
@@ -10560,10 +10570,10 @@
       <c r="J36" s="395"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="519" t="s">
+      <c r="A37" s="524" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="519"/>
+      <c r="B37" s="524"/>
       <c r="C37" s="468" t="s">
         <v>143</v>
       </c>
@@ -10578,18 +10588,18 @@
       <c r="J37" s="395"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="514">
+      <c r="A38" s="519">
         <f>A21-F32</f>
-        <v>14368085</v>
-      </c>
-      <c r="B38" s="515"/>
+        <v>13637184</v>
+      </c>
+      <c r="B38" s="520"/>
       <c r="C38" s="469">
         <f>1-G32</f>
-        <v>0.93299253246753244</v>
+        <v>0.88553142857142864</v>
       </c>
       <c r="D38" s="470">
         <f>(C38/0.8)*100</f>
-        <v>116.62406655844156</v>
+        <v>110.69142857142857</v>
       </c>
       <c r="E38" s="471" t="s">
         <v>145</v>
@@ -10644,8 +10654,8 @@
       <c r="F42" s="473"/>
       <c r="G42" s="473"/>
       <c r="H42" s="473"/>
-      <c r="I42" s="520"/>
-      <c r="J42" s="521"/>
+      <c r="I42" s="514"/>
+      <c r="J42" s="515"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="474"/>
@@ -10739,9 +10749,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="395"/>
-      <c r="B52" s="522"/>
-      <c r="C52" s="522"/>
-      <c r="D52" s="523"/>
+      <c r="B52" s="516"/>
+      <c r="C52" s="516"/>
+      <c r="D52" s="517"/>
       <c r="E52" s="471"/>
       <c r="F52" s="395"/>
       <c r="G52" s="395"/>
@@ -10758,8 +10768,8 @@
       <c r="F53" s="473"/>
       <c r="G53" s="473"/>
       <c r="H53" s="473"/>
-      <c r="I53" s="520"/>
-      <c r="J53" s="521"/>
+      <c r="I53" s="514"/>
+      <c r="J53" s="515"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="474"/>
@@ -10770,8 +10780,8 @@
       <c r="F54" s="421"/>
       <c r="G54" s="421"/>
       <c r="H54" s="475"/>
-      <c r="I54" s="524"/>
-      <c r="J54" s="524"/>
+      <c r="I54" s="518"/>
+      <c r="J54" s="518"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="474"/>
@@ -10782,8 +10792,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="524"/>
-      <c r="J55" s="524"/>
+      <c r="I55" s="518"/>
+      <c r="J55" s="518"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="395"/>
@@ -10796,15 +10806,21 @@
       <c r="H56" s="395"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="520"/>
-      <c r="C61" s="521"/>
+      <c r="B61" s="514"/>
+      <c r="C61" s="515"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="520"/>
-      <c r="C68" s="521"/>
+      <c r="B68" s="514"/>
+      <c r="C68" s="515"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="B52:D52"/>
@@ -10812,12 +10828,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
@@ -10844,25 +10854,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="530" t="s">
+      <c r="A1" s="528" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="534"/>
-      <c r="C1" s="534"/>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
+      <c r="B1" s="532"/>
+      <c r="C1" s="532"/>
+      <c r="D1" s="532"/>
+      <c r="E1" s="532"/>
       <c r="G1" s="373" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="531" t="s">
+      <c r="A2" s="529" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="532"/>
-      <c r="C2" s="532"/>
-      <c r="D2" s="532"/>
-      <c r="E2" s="533"/>
+      <c r="B2" s="530"/>
+      <c r="C2" s="530"/>
+      <c r="D2" s="530"/>
+      <c r="E2" s="531"/>
       <c r="G2" s="372" t="s">
         <v>80</v>
       </c>
@@ -10873,45 +10883,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="535" t="s">
+      <c r="A4" s="533" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="536"/>
-      <c r="C4" s="536"/>
-      <c r="D4" s="536"/>
-      <c r="E4" s="536"/>
+      <c r="B4" s="534"/>
+      <c r="C4" s="534"/>
+      <c r="D4" s="534"/>
+      <c r="E4" s="534"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="537" t="s">
+      <c r="A5" s="535" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="538"/>
-      <c r="C5" s="538"/>
-      <c r="D5" s="538"/>
-      <c r="E5" s="539"/>
+      <c r="B5" s="536"/>
+      <c r="C5" s="536"/>
+      <c r="D5" s="536"/>
+      <c r="E5" s="537"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="530" t="s">
+      <c r="A7" s="528" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="534"/>
-      <c r="C7" s="534"/>
-      <c r="D7" s="534"/>
-      <c r="E7" s="534"/>
+      <c r="B7" s="532"/>
+      <c r="C7" s="532"/>
+      <c r="D7" s="532"/>
+      <c r="E7" s="532"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="540"/>
-      <c r="B8" s="541"/>
-      <c r="C8" s="541"/>
-      <c r="D8" s="541"/>
-      <c r="E8" s="542"/>
+      <c r="A8" s="538"/>
+      <c r="B8" s="539"/>
+      <c r="C8" s="539"/>
+      <c r="D8" s="539"/>
+      <c r="E8" s="540"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="530" t="s">
+      <c r="A10" s="528" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="530"/>
+      <c r="B10" s="528"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>95</v>
@@ -10922,33 +10932,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="528"/>
-      <c r="B11" s="529"/>
+      <c r="A11" s="526"/>
+      <c r="B11" s="527"/>
       <c r="D11" s="381">
         <v>43753</v>
       </c>
-      <c r="F11" s="525" t="s">
+      <c r="F11" s="541" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="525"/>
-      <c r="H11" s="525"/>
-      <c r="I11" s="525"/>
-      <c r="J11" s="526" t="s">
+      <c r="G11" s="541"/>
+      <c r="H11" s="541"/>
+      <c r="I11" s="541"/>
+      <c r="J11" s="542" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="526"/>
+      <c r="K11" s="542"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="F12" s="525" t="s">
+      <c r="F12" s="541" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="525"/>
-      <c r="H12" s="525"/>
-      <c r="I12" s="525"/>
-      <c r="J12" s="526" t="s">
+      <c r="G12" s="541"/>
+      <c r="H12" s="541"/>
+      <c r="I12" s="541"/>
+      <c r="J12" s="542" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="526"/>
+      <c r="K12" s="542"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="375" t="s">
@@ -10960,16 +10970,16 @@
       <c r="C13" s="386" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="525" t="s">
+      <c r="F13" s="541" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="525"/>
-      <c r="H13" s="525"/>
-      <c r="I13" s="525"/>
-      <c r="J13" s="526" t="s">
+      <c r="G13" s="541"/>
+      <c r="H13" s="541"/>
+      <c r="I13" s="541"/>
+      <c r="J13" s="542" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="526"/>
+      <c r="K13" s="542"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="377" t="s">
@@ -11121,11 +11131,11 @@
       <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="527" t="s">
+      <c r="A29" s="525" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="527"/>
-      <c r="C29" s="527"/>
+      <c r="B29" s="525"/>
+      <c r="C29" s="525"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
@@ -11134,6 +11144,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -11143,12 +11159,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -11391,493 +11401,493 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="487" t="s">
+      <c r="A22" s="512" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="487" t="s">
+      <c r="B22" s="512" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="487"/>
-      <c r="D22" s="487"/>
-      <c r="E22" s="487" t="s">
+      <c r="C22" s="512"/>
+      <c r="D22" s="512"/>
+      <c r="E22" s="512" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="487"/>
-      <c r="G22" s="488" t="s">
+      <c r="F22" s="512"/>
+      <c r="G22" s="513" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="487" t="s">
+      <c r="H22" s="512" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="487"/>
-      <c r="J22" s="487"/>
+      <c r="I22" s="512"/>
+      <c r="J22" s="512"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="487"/>
-      <c r="B23" s="487"/>
-      <c r="C23" s="487"/>
-      <c r="D23" s="487"/>
-      <c r="E23" s="487"/>
-      <c r="F23" s="487"/>
-      <c r="G23" s="488"/>
-      <c r="H23" s="487"/>
-      <c r="I23" s="487"/>
-      <c r="J23" s="487"/>
+      <c r="A23" s="512"/>
+      <c r="B23" s="512"/>
+      <c r="C23" s="512"/>
+      <c r="D23" s="512"/>
+      <c r="E23" s="512"/>
+      <c r="F23" s="512"/>
+      <c r="G23" s="513"/>
+      <c r="H23" s="512"/>
+      <c r="I23" s="512"/>
+      <c r="J23" s="512"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="489">
+      <c r="A24" s="487">
         <v>1</v>
       </c>
-      <c r="B24" s="491" t="s">
+      <c r="B24" s="509" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="492"/>
-      <c r="D24" s="493"/>
-      <c r="E24" s="494" t="str">
+      <c r="C24" s="510"/>
+      <c r="D24" s="511"/>
+      <c r="E24" s="492" t="str">
         <f>Данные!C14</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F24" s="495"/>
-      <c r="G24" s="498">
+      <c r="F24" s="493"/>
+      <c r="G24" s="496">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="500"/>
-      <c r="I24" s="501"/>
-      <c r="J24" s="502"/>
+      <c r="H24" s="498"/>
+      <c r="I24" s="499"/>
+      <c r="J24" s="500"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="490"/>
-      <c r="B25" s="506" t="str">
+      <c r="A25" s="507"/>
+      <c r="B25" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C25" s="507"/>
-      <c r="D25" s="508"/>
-      <c r="E25" s="496"/>
-      <c r="F25" s="497"/>
-      <c r="G25" s="499"/>
-      <c r="H25" s="503"/>
-      <c r="I25" s="504"/>
-      <c r="J25" s="505"/>
+      <c r="C25" s="505"/>
+      <c r="D25" s="506"/>
+      <c r="E25" s="508"/>
+      <c r="F25" s="495"/>
+      <c r="G25" s="497"/>
+      <c r="H25" s="501"/>
+      <c r="I25" s="502"/>
+      <c r="J25" s="503"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="489">
+      <c r="A26" s="487">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="509" t="s">
+      <c r="B26" s="489" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="510"/>
-      <c r="D26" s="511"/>
-      <c r="E26" s="494" t="str">
+      <c r="C26" s="490"/>
+      <c r="D26" s="491"/>
+      <c r="E26" s="492" t="str">
         <f>Данные!C15</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F26" s="495"/>
-      <c r="G26" s="498">
+      <c r="F26" s="493"/>
+      <c r="G26" s="496">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="500"/>
-      <c r="I26" s="501"/>
-      <c r="J26" s="502"/>
+      <c r="H26" s="498"/>
+      <c r="I26" s="499"/>
+      <c r="J26" s="500"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="490"/>
-      <c r="B27" s="506" t="str">
+      <c r="A27" s="507"/>
+      <c r="B27" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C27" s="507"/>
-      <c r="D27" s="508"/>
-      <c r="E27" s="496"/>
-      <c r="F27" s="497"/>
-      <c r="G27" s="499"/>
-      <c r="H27" s="503"/>
-      <c r="I27" s="504"/>
-      <c r="J27" s="505"/>
+      <c r="C27" s="505"/>
+      <c r="D27" s="506"/>
+      <c r="E27" s="508"/>
+      <c r="F27" s="495"/>
+      <c r="G27" s="497"/>
+      <c r="H27" s="501"/>
+      <c r="I27" s="502"/>
+      <c r="J27" s="503"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="489">
+      <c r="A28" s="487">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="509" t="s">
+      <c r="B28" s="489" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="510"/>
-      <c r="D28" s="511"/>
-      <c r="E28" s="494" t="str">
+      <c r="C28" s="490"/>
+      <c r="D28" s="491"/>
+      <c r="E28" s="492" t="str">
         <f>Данные!C16</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F28" s="495"/>
-      <c r="G28" s="498">
+      <c r="F28" s="493"/>
+      <c r="G28" s="496">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H28" s="500"/>
-      <c r="I28" s="501"/>
-      <c r="J28" s="502"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="499"/>
+      <c r="J28" s="500"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="490"/>
-      <c r="B29" s="506" t="str">
+      <c r="A29" s="507"/>
+      <c r="B29" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C29" s="507"/>
-      <c r="D29" s="508"/>
-      <c r="E29" s="496"/>
-      <c r="F29" s="497"/>
-      <c r="G29" s="499"/>
-      <c r="H29" s="503"/>
-      <c r="I29" s="504"/>
-      <c r="J29" s="505"/>
+      <c r="C29" s="505"/>
+      <c r="D29" s="506"/>
+      <c r="E29" s="508"/>
+      <c r="F29" s="495"/>
+      <c r="G29" s="497"/>
+      <c r="H29" s="501"/>
+      <c r="I29" s="502"/>
+      <c r="J29" s="503"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="489">
+      <c r="A30" s="487">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="509" t="s">
+      <c r="B30" s="489" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="510"/>
-      <c r="D30" s="511"/>
-      <c r="E30" s="494" t="str">
+      <c r="C30" s="490"/>
+      <c r="D30" s="491"/>
+      <c r="E30" s="492" t="str">
         <f>Данные!C17</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F30" s="495"/>
-      <c r="G30" s="498">
+      <c r="F30" s="493"/>
+      <c r="G30" s="496">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H30" s="500"/>
-      <c r="I30" s="501"/>
-      <c r="J30" s="502"/>
+      <c r="H30" s="498"/>
+      <c r="I30" s="499"/>
+      <c r="J30" s="500"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="490"/>
-      <c r="B31" s="506" t="str">
+      <c r="A31" s="507"/>
+      <c r="B31" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C31" s="507"/>
-      <c r="D31" s="508"/>
-      <c r="E31" s="513"/>
-      <c r="F31" s="497"/>
-      <c r="G31" s="499"/>
-      <c r="H31" s="503"/>
-      <c r="I31" s="504"/>
-      <c r="J31" s="505"/>
+      <c r="C31" s="505"/>
+      <c r="D31" s="506"/>
+      <c r="E31" s="494"/>
+      <c r="F31" s="495"/>
+      <c r="G31" s="497"/>
+      <c r="H31" s="501"/>
+      <c r="I31" s="502"/>
+      <c r="J31" s="503"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="489">
+      <c r="A32" s="487">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="509" t="s">
+      <c r="B32" s="489" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="510"/>
-      <c r="D32" s="511"/>
-      <c r="E32" s="494" t="str">
+      <c r="C32" s="490"/>
+      <c r="D32" s="491"/>
+      <c r="E32" s="492" t="str">
         <f>Данные!C18</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F32" s="495"/>
-      <c r="G32" s="498">
+      <c r="F32" s="493"/>
+      <c r="G32" s="496">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="500"/>
-      <c r="I32" s="501"/>
-      <c r="J32" s="502"/>
+      <c r="H32" s="498"/>
+      <c r="I32" s="499"/>
+      <c r="J32" s="500"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="490"/>
-      <c r="B33" s="506" t="str">
+      <c r="A33" s="507"/>
+      <c r="B33" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C33" s="507"/>
-      <c r="D33" s="508"/>
-      <c r="E33" s="513"/>
-      <c r="F33" s="497"/>
-      <c r="G33" s="499"/>
-      <c r="H33" s="503"/>
-      <c r="I33" s="504"/>
-      <c r="J33" s="505"/>
+      <c r="C33" s="505"/>
+      <c r="D33" s="506"/>
+      <c r="E33" s="494"/>
+      <c r="F33" s="495"/>
+      <c r="G33" s="497"/>
+      <c r="H33" s="501"/>
+      <c r="I33" s="502"/>
+      <c r="J33" s="503"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="489">
+      <c r="A34" s="487">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="509" t="s">
+      <c r="B34" s="489" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="510"/>
-      <c r="D34" s="511"/>
-      <c r="E34" s="494" t="str">
+      <c r="C34" s="490"/>
+      <c r="D34" s="491"/>
+      <c r="E34" s="492" t="str">
         <f>Данные!C19</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F34" s="495"/>
-      <c r="G34" s="498">
+      <c r="F34" s="493"/>
+      <c r="G34" s="496">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="500"/>
-      <c r="I34" s="501"/>
-      <c r="J34" s="502"/>
+      <c r="H34" s="498"/>
+      <c r="I34" s="499"/>
+      <c r="J34" s="500"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="490"/>
-      <c r="B35" s="506" t="str">
+      <c r="A35" s="507"/>
+      <c r="B35" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C35" s="507"/>
-      <c r="D35" s="508"/>
-      <c r="E35" s="513"/>
-      <c r="F35" s="497"/>
-      <c r="G35" s="499"/>
-      <c r="H35" s="503"/>
-      <c r="I35" s="504"/>
-      <c r="J35" s="505"/>
+      <c r="C35" s="505"/>
+      <c r="D35" s="506"/>
+      <c r="E35" s="494"/>
+      <c r="F35" s="495"/>
+      <c r="G35" s="497"/>
+      <c r="H35" s="501"/>
+      <c r="I35" s="502"/>
+      <c r="J35" s="503"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="489">
+      <c r="A36" s="487">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="509" t="s">
+      <c r="B36" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="510"/>
-      <c r="D36" s="511"/>
-      <c r="E36" s="494" t="str">
+      <c r="C36" s="490"/>
+      <c r="D36" s="491"/>
+      <c r="E36" s="492" t="str">
         <f>Данные!C20</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F36" s="495"/>
-      <c r="G36" s="498">
+      <c r="F36" s="493"/>
+      <c r="G36" s="496">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="500"/>
-      <c r="I36" s="501"/>
-      <c r="J36" s="502"/>
+      <c r="H36" s="498"/>
+      <c r="I36" s="499"/>
+      <c r="J36" s="500"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="490"/>
-      <c r="B37" s="506" t="str">
+      <c r="A37" s="507"/>
+      <c r="B37" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C37" s="507"/>
-      <c r="D37" s="508"/>
-      <c r="E37" s="513"/>
-      <c r="F37" s="497"/>
-      <c r="G37" s="499"/>
-      <c r="H37" s="503"/>
-      <c r="I37" s="504"/>
-      <c r="J37" s="505"/>
+      <c r="C37" s="505"/>
+      <c r="D37" s="506"/>
+      <c r="E37" s="494"/>
+      <c r="F37" s="495"/>
+      <c r="G37" s="497"/>
+      <c r="H37" s="501"/>
+      <c r="I37" s="502"/>
+      <c r="J37" s="503"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="489">
+      <c r="A38" s="487">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="509" t="s">
+      <c r="B38" s="489" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="510"/>
-      <c r="D38" s="511"/>
-      <c r="E38" s="494" t="str">
+      <c r="C38" s="490"/>
+      <c r="D38" s="491"/>
+      <c r="E38" s="492" t="str">
         <f>Данные!C21</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F38" s="495"/>
-      <c r="G38" s="498">
+      <c r="F38" s="493"/>
+      <c r="G38" s="496">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="500"/>
-      <c r="I38" s="501"/>
-      <c r="J38" s="502"/>
+      <c r="H38" s="498"/>
+      <c r="I38" s="499"/>
+      <c r="J38" s="500"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A39" s="490"/>
-      <c r="B39" s="506" t="str">
+      <c r="A39" s="507"/>
+      <c r="B39" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C39" s="507"/>
-      <c r="D39" s="508"/>
-      <c r="E39" s="513"/>
-      <c r="F39" s="497"/>
-      <c r="G39" s="499"/>
-      <c r="H39" s="503"/>
-      <c r="I39" s="504"/>
-      <c r="J39" s="505"/>
+      <c r="C39" s="505"/>
+      <c r="D39" s="506"/>
+      <c r="E39" s="494"/>
+      <c r="F39" s="495"/>
+      <c r="G39" s="497"/>
+      <c r="H39" s="501"/>
+      <c r="I39" s="502"/>
+      <c r="J39" s="503"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="489">
+      <c r="A40" s="487">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="509" t="s">
+      <c r="B40" s="489" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="510"/>
-      <c r="D40" s="511"/>
-      <c r="E40" s="494" t="str">
+      <c r="C40" s="490"/>
+      <c r="D40" s="491"/>
+      <c r="E40" s="492" t="str">
         <f>Данные!C23</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F40" s="495"/>
-      <c r="G40" s="498">
+      <c r="F40" s="493"/>
+      <c r="G40" s="496">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="500"/>
-      <c r="I40" s="501"/>
-      <c r="J40" s="502"/>
+      <c r="H40" s="498"/>
+      <c r="I40" s="499"/>
+      <c r="J40" s="500"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A41" s="490"/>
-      <c r="B41" s="506" t="str">
+      <c r="A41" s="507"/>
+      <c r="B41" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C41" s="507"/>
-      <c r="D41" s="508"/>
-      <c r="E41" s="513"/>
-      <c r="F41" s="497"/>
-      <c r="G41" s="499"/>
-      <c r="H41" s="503"/>
-      <c r="I41" s="504"/>
-      <c r="J41" s="505"/>
+      <c r="C41" s="505"/>
+      <c r="D41" s="506"/>
+      <c r="E41" s="494"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="497"/>
+      <c r="H41" s="501"/>
+      <c r="I41" s="502"/>
+      <c r="J41" s="503"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="489">
+      <c r="A42" s="487">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="509" t="s">
+      <c r="B42" s="489" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="510"/>
-      <c r="D42" s="511"/>
-      <c r="E42" s="494" t="str">
+      <c r="C42" s="490"/>
+      <c r="D42" s="491"/>
+      <c r="E42" s="492" t="str">
         <f>Данные!C25</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F42" s="495"/>
-      <c r="G42" s="498">
+      <c r="F42" s="493"/>
+      <c r="G42" s="496">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="500"/>
-      <c r="I42" s="501"/>
-      <c r="J42" s="502"/>
+      <c r="H42" s="498"/>
+      <c r="I42" s="499"/>
+      <c r="J42" s="500"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A43" s="490"/>
-      <c r="B43" s="506" t="str">
+      <c r="A43" s="507"/>
+      <c r="B43" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C43" s="507"/>
-      <c r="D43" s="508"/>
-      <c r="E43" s="513"/>
-      <c r="F43" s="497"/>
-      <c r="G43" s="499"/>
-      <c r="H43" s="503"/>
-      <c r="I43" s="504"/>
-      <c r="J43" s="505"/>
+      <c r="C43" s="505"/>
+      <c r="D43" s="506"/>
+      <c r="E43" s="494"/>
+      <c r="F43" s="495"/>
+      <c r="G43" s="497"/>
+      <c r="H43" s="501"/>
+      <c r="I43" s="502"/>
+      <c r="J43" s="503"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="489">
+      <c r="A44" s="487">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="509" t="s">
+      <c r="B44" s="489" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="510"/>
-      <c r="D44" s="511"/>
-      <c r="E44" s="494">
+      <c r="C44" s="490"/>
+      <c r="D44" s="491"/>
+      <c r="E44" s="492">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="495"/>
-      <c r="G44" s="498">
+      <c r="F44" s="493"/>
+      <c r="G44" s="496">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="500"/>
-      <c r="I44" s="501"/>
-      <c r="J44" s="502"/>
+      <c r="H44" s="498"/>
+      <c r="I44" s="499"/>
+      <c r="J44" s="500"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A45" s="490"/>
-      <c r="B45" s="506" t="str">
+      <c r="A45" s="507"/>
+      <c r="B45" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C45" s="507"/>
-      <c r="D45" s="508"/>
-      <c r="E45" s="513"/>
-      <c r="F45" s="497"/>
-      <c r="G45" s="499"/>
-      <c r="H45" s="503"/>
-      <c r="I45" s="504"/>
-      <c r="J45" s="505"/>
+      <c r="C45" s="505"/>
+      <c r="D45" s="506"/>
+      <c r="E45" s="494"/>
+      <c r="F45" s="495"/>
+      <c r="G45" s="497"/>
+      <c r="H45" s="501"/>
+      <c r="I45" s="502"/>
+      <c r="J45" s="503"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="489">
+      <c r="A46" s="487">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="509" t="s">
+      <c r="B46" s="489" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="510"/>
-      <c r="D46" s="511"/>
-      <c r="E46" s="494" t="str">
+      <c r="C46" s="490"/>
+      <c r="D46" s="491"/>
+      <c r="E46" s="492" t="str">
         <f>Данные!C24</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F46" s="495"/>
-      <c r="G46" s="498">
+      <c r="F46" s="493"/>
+      <c r="G46" s="496">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="500"/>
-      <c r="I46" s="501"/>
-      <c r="J46" s="502"/>
+      <c r="H46" s="498"/>
+      <c r="I46" s="499"/>
+      <c r="J46" s="500"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A47" s="490"/>
-      <c r="B47" s="506" t="str">
+      <c r="A47" s="507"/>
+      <c r="B47" s="504" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C47" s="507"/>
-      <c r="D47" s="508"/>
-      <c r="E47" s="513"/>
-      <c r="F47" s="497"/>
-      <c r="G47" s="499"/>
-      <c r="H47" s="503"/>
-      <c r="I47" s="504"/>
-      <c r="J47" s="505"/>
+      <c r="C47" s="505"/>
+      <c r="D47" s="506"/>
+      <c r="E47" s="494"/>
+      <c r="F47" s="495"/>
+      <c r="G47" s="497"/>
+      <c r="H47" s="501"/>
+      <c r="I47" s="502"/>
+      <c r="J47" s="503"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="313"/>
@@ -12006,6 +12016,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -12022,70 +12096,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12140,47 +12150,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="65"/>
-      <c r="B2" s="546"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="555" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="556"/>
-      <c r="G2" s="556"/>
-      <c r="H2" s="557"/>
-      <c r="I2" s="562" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="563"/>
-      <c r="K2" s="566">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="567"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="558"/>
-      <c r="Q2" s="558"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="550"/>
-      <c r="D3" s="551"/>
-      <c r="E3" s="559" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="560"/>
-      <c r="G3" s="560"/>
-      <c r="H3" s="561"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="565"/>
-      <c r="K3" s="568"/>
-      <c r="L3" s="569"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12191,9 +12201,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="552"/>
-      <c r="C4" s="553"/>
-      <c r="D4" s="554"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12212,22 +12222,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="550"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="575"/>
-      <c r="J5" s="576"/>
-      <c r="K5" s="538"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="536"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12238,22 +12248,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="577"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="553"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="575"/>
-      <c r="J6" s="576"/>
-      <c r="K6" s="538"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12264,27 +12274,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="581"/>
-      <c r="D7" s="540">
+      <c r="C7" s="557"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="580" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="584"/>
-      <c r="K7" s="528">
+      <c r="J7" s="560"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12778,12 +12788,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4">
       <c r="A23" s="78"/>
-      <c r="B23" s="585" t="s">
+      <c r="B23" s="561" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="586"/>
-      <c r="D23" s="586"/>
-      <c r="E23" s="587"/>
+      <c r="C23" s="562"/>
+      <c r="D23" s="562"/>
+      <c r="E23" s="563"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -12805,12 +12815,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1">
       <c r="A24" s="78"/>
-      <c r="B24" s="570" t="s">
+      <c r="B24" s="546" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="571"/>
-      <c r="D24" s="571"/>
-      <c r="E24" s="572"/>
+      <c r="C24" s="547"/>
+      <c r="D24" s="547"/>
+      <c r="E24" s="548"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -12854,6 +12864,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12868,12 +12884,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -12939,50 +12949,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="588">
+      <c r="B2" s="595">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="558"/>
-      <c r="Q2" s="558"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12993,9 +13003,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13014,22 +13024,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13040,22 +13050,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13066,27 +13076,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="592"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="592"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13283,13 +13293,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="585" t="s">
+      <c r="B14" s="561" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="586"/>
-      <c r="D14" s="586"/>
-      <c r="E14" s="586"/>
-      <c r="F14" s="617"/>
+      <c r="C14" s="562"/>
+      <c r="D14" s="562"/>
+      <c r="E14" s="562"/>
+      <c r="F14" s="594"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -13308,12 +13318,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="570" t="s">
+      <c r="B15" s="546" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="571"/>
-      <c r="D15" s="571"/>
-      <c r="E15" s="572"/>
+      <c r="C15" s="547"/>
+      <c r="D15" s="547"/>
+      <c r="E15" s="548"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -13364,6 +13374,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -13378,12 +13394,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13457,47 +13467,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="546"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="555" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="556"/>
-      <c r="G2" s="556"/>
-      <c r="H2" s="557"/>
-      <c r="I2" s="562" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="563"/>
-      <c r="K2" s="566">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="567"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="558"/>
-      <c r="Q2" s="558"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="550"/>
-      <c r="D3" s="551"/>
-      <c r="E3" s="559" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="560"/>
-      <c r="G3" s="560"/>
-      <c r="H3" s="561"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="565"/>
-      <c r="K3" s="568"/>
-      <c r="L3" s="569"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13508,9 +13518,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="552"/>
-      <c r="C4" s="553"/>
-      <c r="D4" s="554"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13529,22 +13539,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="550"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="575"/>
-      <c r="J5" s="576"/>
-      <c r="K5" s="538"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="536"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13555,22 +13565,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="577"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="553"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="575"/>
-      <c r="J6" s="576"/>
-      <c r="K6" s="538"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13581,27 +13591,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="581"/>
-      <c r="D7" s="540">
+      <c r="C7" s="557"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="580" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="584"/>
-      <c r="K7" s="528">
+      <c r="J7" s="560"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -14084,6 +14094,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
@@ -14100,8 +14112,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -14169,24 +14179,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="546"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="555" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="556"/>
-      <c r="G2" s="556"/>
-      <c r="H2" s="557"/>
-      <c r="I2" s="562" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="563"/>
-      <c r="K2" s="566">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="567"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -14197,19 +14207,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="550"/>
-      <c r="D3" s="551"/>
-      <c r="E3" s="559" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="560"/>
-      <c r="G3" s="560"/>
-      <c r="H3" s="561"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="565"/>
-      <c r="K3" s="568"/>
-      <c r="L3" s="569"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -14220,9 +14230,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="552"/>
-      <c r="C4" s="553"/>
-      <c r="D4" s="554"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -14241,22 +14251,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="550"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="575"/>
-      <c r="J5" s="576"/>
-      <c r="K5" s="538"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="536"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14267,22 +14277,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="577"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="553"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="575"/>
-      <c r="J6" s="576"/>
-      <c r="K6" s="538"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -14293,27 +14303,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="581"/>
-      <c r="D7" s="540">
+      <c r="C7" s="557"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="580" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="584"/>
-      <c r="K7" s="528">
+      <c r="J7" s="560"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14598,6 +14608,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -14605,17 +14626,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14687,24 +14697,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="619"/>
       <c r="N2" s="620"/>
       <c r="O2" s="620"/>
@@ -14715,19 +14725,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="622"/>
       <c r="N3" s="623"/>
       <c r="O3" s="623"/>
@@ -14738,9 +14748,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14759,22 +14769,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="535" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="537"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="537"/>
       <c r="M5" s="622"/>
       <c r="N5" s="623"/>
       <c r="O5" s="623"/>
@@ -14785,22 +14795,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="529" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="537"/>
       <c r="M6" s="622"/>
       <c r="N6" s="623"/>
       <c r="O6" s="623"/>
@@ -14811,27 +14821,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="592"/>
+      <c r="D7" s="538">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="592"/>
+      <c r="K7" s="526">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="527"/>
       <c r="M7" s="622"/>
       <c r="N7" s="623"/>
       <c r="O7" s="623"/>
@@ -15259,12 +15269,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1">
       <c r="A21" s="78"/>
-      <c r="B21" s="570" t="s">
+      <c r="B21" s="546" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="571"/>
-      <c r="D21" s="571"/>
-      <c r="E21" s="572"/>
+      <c r="C21" s="547"/>
+      <c r="D21" s="547"/>
+      <c r="E21" s="548"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -15310,13 +15320,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -15329,6 +15332,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-B-30-4A-500 (Байрон)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11365ED-3D2F-4293-8824-E6A8E6EA9947}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Детали ф-тов" sheetId="17" r:id="rId1"/>
@@ -38,7 +39,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -486,15 +494,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2169,7 +2177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="637">
@@ -3372,7 +3380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3387,7 +3395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3441,25 +3449,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3471,11 +3479,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3485,7 +3493,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3499,11 +3507,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
@@ -3515,13 +3523,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3534,7 +3542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3561,86 +3569,104 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3649,22 +3675,10 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3711,12 +3725,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3725,6 +3733,78 @@
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3776,76 +3856,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3869,75 +3946,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3964,6 +3972,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3972,9 +3983,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3998,8 +4006,8 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4289,7 +4297,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4335,7 +4349,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4380,7 +4400,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4424,7 +4450,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4473,7 +4505,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4519,7 +4557,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4563,7 +4607,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4607,7 +4657,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4656,7 +4712,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4702,7 +4764,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4746,7 +4814,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4790,7 +4864,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4839,7 +4919,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4885,7 +4971,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4929,7 +5021,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4973,7 +5071,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5022,7 +5126,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5068,7 +5178,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5112,7 +5228,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5156,7 +5278,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5205,7 +5333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5251,7 +5385,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5295,7 +5435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5338,7 +5484,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5384,7 +5536,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5433,7 +5591,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5479,7 +5643,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5523,7 +5693,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5567,7 +5743,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5616,7 +5798,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5662,7 +5850,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5706,7 +5900,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5750,7 +5950,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5799,7 +6005,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5845,7 +6057,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5889,7 +6107,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5933,7 +6157,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6041,6 +6271,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6076,6 +6323,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6251,25 +6515,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="309"/>
+    <col min="1" max="3" width="9.140625" style="309"/>
     <col min="4" max="4" width="8" style="309" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="309"/>
+    <col min="5" max="6" width="9.140625" style="309"/>
+    <col min="7" max="7" width="9.140625" style="309" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="309" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="309"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="1" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="322"/>
       <c r="B1" s="322"/>
       <c r="C1" s="322"/>
@@ -6281,7 +6545,7 @@
       <c r="I1" s="322"/>
       <c r="J1" s="314"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="313"/>
       <c r="B2" s="313"/>
       <c r="C2" s="313"/>
@@ -6293,7 +6557,7 @@
       <c r="I2" s="315"/>
       <c r="J2" s="314"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="313"/>
       <c r="B3" s="313"/>
       <c r="C3" s="313"/>
@@ -6305,377 +6569,377 @@
       <c r="I3" s="313"/>
       <c r="J3" s="314"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="512" t="s">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="487" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="512" t="s">
+      <c r="B4" s="487" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="512"/>
-      <c r="D4" s="512"/>
-      <c r="E4" s="512" t="s">
+      <c r="C4" s="487"/>
+      <c r="D4" s="487"/>
+      <c r="E4" s="487" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="512"/>
-      <c r="G4" s="513" t="s">
+      <c r="F4" s="487"/>
+      <c r="G4" s="488" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="512" t="s">
+      <c r="H4" s="487" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="512"/>
-      <c r="J4" s="512"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="512"/>
-      <c r="B5" s="512"/>
-      <c r="C5" s="512"/>
-      <c r="D5" s="512"/>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="512"/>
-      <c r="I5" s="512"/>
-      <c r="J5" s="512"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="487">
+      <c r="I4" s="487"/>
+      <c r="J4" s="487"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="487"/>
+      <c r="B5" s="487"/>
+      <c r="C5" s="487"/>
+      <c r="D5" s="487"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
+      <c r="G5" s="488"/>
+      <c r="H5" s="487"/>
+      <c r="I5" s="487"/>
+      <c r="J5" s="487"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="489">
         <v>1</v>
       </c>
-      <c r="B6" s="509" t="s">
+      <c r="B6" s="491" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="510"/>
-      <c r="D6" s="511"/>
-      <c r="E6" s="492"/>
-      <c r="F6" s="493"/>
-      <c r="G6" s="496"/>
-      <c r="H6" s="498"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="500"/>
-    </row>
-    <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="507"/>
-      <c r="B7" s="504"/>
-      <c r="C7" s="505"/>
-      <c r="D7" s="506"/>
-      <c r="E7" s="508"/>
-      <c r="F7" s="495"/>
-      <c r="G7" s="497"/>
-      <c r="H7" s="501"/>
-      <c r="I7" s="502"/>
-      <c r="J7" s="503"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="487">
+      <c r="C6" s="492"/>
+      <c r="D6" s="493"/>
+      <c r="E6" s="494"/>
+      <c r="F6" s="495"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="500"/>
+      <c r="I6" s="501"/>
+      <c r="J6" s="502"/>
+    </row>
+    <row r="7" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="490"/>
+      <c r="B7" s="506"/>
+      <c r="C7" s="507"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="496"/>
+      <c r="F7" s="497"/>
+      <c r="G7" s="499"/>
+      <c r="H7" s="503"/>
+      <c r="I7" s="504"/>
+      <c r="J7" s="505"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="489">
         <v>1</v>
       </c>
-      <c r="B8" s="489" t="s">
+      <c r="B8" s="509" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="490"/>
-      <c r="D8" s="491"/>
-      <c r="E8" s="492"/>
-      <c r="F8" s="493"/>
-      <c r="G8" s="496"/>
-      <c r="H8" s="498"/>
-      <c r="I8" s="499"/>
-      <c r="J8" s="500"/>
-    </row>
-    <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="507"/>
-      <c r="B9" s="504"/>
-      <c r="C9" s="505"/>
-      <c r="D9" s="506"/>
-      <c r="E9" s="508"/>
-      <c r="F9" s="495"/>
-      <c r="G9" s="497"/>
-      <c r="H9" s="501"/>
-      <c r="I9" s="502"/>
-      <c r="J9" s="503"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="487">
+      <c r="C8" s="510"/>
+      <c r="D8" s="511"/>
+      <c r="E8" s="494"/>
+      <c r="F8" s="495"/>
+      <c r="G8" s="498"/>
+      <c r="H8" s="500"/>
+      <c r="I8" s="501"/>
+      <c r="J8" s="502"/>
+    </row>
+    <row r="9" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="490"/>
+      <c r="B9" s="506"/>
+      <c r="C9" s="507"/>
+      <c r="D9" s="508"/>
+      <c r="E9" s="496"/>
+      <c r="F9" s="497"/>
+      <c r="G9" s="499"/>
+      <c r="H9" s="503"/>
+      <c r="I9" s="504"/>
+      <c r="J9" s="505"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="489">
         <v>1</v>
       </c>
-      <c r="B10" s="489" t="s">
+      <c r="B10" s="509" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="490"/>
-      <c r="D10" s="491"/>
-      <c r="E10" s="492"/>
-      <c r="F10" s="493"/>
-      <c r="G10" s="496"/>
-      <c r="H10" s="498"/>
-      <c r="I10" s="499"/>
-      <c r="J10" s="500"/>
-    </row>
-    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="507"/>
-      <c r="B11" s="504"/>
-      <c r="C11" s="505"/>
-      <c r="D11" s="506"/>
-      <c r="E11" s="508"/>
-      <c r="F11" s="495"/>
-      <c r="G11" s="497"/>
-      <c r="H11" s="501"/>
-      <c r="I11" s="502"/>
-      <c r="J11" s="503"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A12" s="487">
+      <c r="C10" s="510"/>
+      <c r="D10" s="511"/>
+      <c r="E10" s="494"/>
+      <c r="F10" s="495"/>
+      <c r="G10" s="498"/>
+      <c r="H10" s="500"/>
+      <c r="I10" s="501"/>
+      <c r="J10" s="502"/>
+    </row>
+    <row r="11" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="490"/>
+      <c r="B11" s="506"/>
+      <c r="C11" s="507"/>
+      <c r="D11" s="508"/>
+      <c r="E11" s="496"/>
+      <c r="F11" s="497"/>
+      <c r="G11" s="499"/>
+      <c r="H11" s="503"/>
+      <c r="I11" s="504"/>
+      <c r="J11" s="505"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="489">
         <v>1</v>
       </c>
-      <c r="B12" s="489" t="s">
+      <c r="B12" s="509" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="490"/>
-      <c r="D12" s="491"/>
-      <c r="E12" s="492"/>
-      <c r="F12" s="493"/>
-      <c r="G12" s="496"/>
-      <c r="H12" s="498"/>
-      <c r="I12" s="499"/>
-      <c r="J12" s="500"/>
-    </row>
-    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="488"/>
-      <c r="B13" s="504"/>
-      <c r="C13" s="505"/>
-      <c r="D13" s="506"/>
-      <c r="E13" s="494"/>
-      <c r="F13" s="495"/>
-      <c r="G13" s="497"/>
-      <c r="H13" s="501"/>
-      <c r="I13" s="502"/>
-      <c r="J13" s="503"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A14" s="487">
+      <c r="C12" s="510"/>
+      <c r="D12" s="511"/>
+      <c r="E12" s="494"/>
+      <c r="F12" s="495"/>
+      <c r="G12" s="498"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="501"/>
+      <c r="J12" s="502"/>
+    </row>
+    <row r="13" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="512"/>
+      <c r="B13" s="506"/>
+      <c r="C13" s="507"/>
+      <c r="D13" s="508"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="497"/>
+      <c r="G13" s="499"/>
+      <c r="H13" s="503"/>
+      <c r="I13" s="504"/>
+      <c r="J13" s="505"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="489">
         <v>1</v>
       </c>
-      <c r="B14" s="489" t="s">
+      <c r="B14" s="509" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="490"/>
-      <c r="D14" s="491"/>
-      <c r="E14" s="492"/>
-      <c r="F14" s="493"/>
-      <c r="G14" s="496"/>
-      <c r="H14" s="498"/>
-      <c r="I14" s="499"/>
-      <c r="J14" s="500"/>
-    </row>
-    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A15" s="488"/>
-      <c r="B15" s="504"/>
-      <c r="C15" s="505"/>
-      <c r="D15" s="506"/>
-      <c r="E15" s="494"/>
-      <c r="F15" s="495"/>
-      <c r="G15" s="497"/>
-      <c r="H15" s="501"/>
-      <c r="I15" s="502"/>
-      <c r="J15" s="503"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A16" s="487">
+      <c r="C14" s="510"/>
+      <c r="D14" s="511"/>
+      <c r="E14" s="494"/>
+      <c r="F14" s="495"/>
+      <c r="G14" s="498"/>
+      <c r="H14" s="500"/>
+      <c r="I14" s="501"/>
+      <c r="J14" s="502"/>
+    </row>
+    <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="512"/>
+      <c r="B15" s="506"/>
+      <c r="C15" s="507"/>
+      <c r="D15" s="508"/>
+      <c r="E15" s="513"/>
+      <c r="F15" s="497"/>
+      <c r="G15" s="499"/>
+      <c r="H15" s="503"/>
+      <c r="I15" s="504"/>
+      <c r="J15" s="505"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="489">
         <v>1</v>
       </c>
-      <c r="B16" s="489" t="s">
+      <c r="B16" s="509" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="490"/>
-      <c r="D16" s="491"/>
-      <c r="E16" s="492"/>
-      <c r="F16" s="493"/>
-      <c r="G16" s="496"/>
-      <c r="H16" s="498"/>
-      <c r="I16" s="499"/>
-      <c r="J16" s="500"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A17" s="488"/>
-      <c r="B17" s="504"/>
-      <c r="C17" s="505"/>
-      <c r="D17" s="506"/>
-      <c r="E17" s="494"/>
-      <c r="F17" s="495"/>
-      <c r="G17" s="497"/>
-      <c r="H17" s="501"/>
-      <c r="I17" s="502"/>
-      <c r="J17" s="503"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A18" s="487">
+      <c r="C16" s="510"/>
+      <c r="D16" s="511"/>
+      <c r="E16" s="494"/>
+      <c r="F16" s="495"/>
+      <c r="G16" s="498"/>
+      <c r="H16" s="500"/>
+      <c r="I16" s="501"/>
+      <c r="J16" s="502"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="512"/>
+      <c r="B17" s="506"/>
+      <c r="C17" s="507"/>
+      <c r="D17" s="508"/>
+      <c r="E17" s="513"/>
+      <c r="F17" s="497"/>
+      <c r="G17" s="499"/>
+      <c r="H17" s="503"/>
+      <c r="I17" s="504"/>
+      <c r="J17" s="505"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="489">
         <v>1</v>
       </c>
-      <c r="B18" s="489" t="s">
+      <c r="B18" s="509" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="490"/>
-      <c r="D18" s="491"/>
-      <c r="E18" s="492"/>
-      <c r="F18" s="493"/>
-      <c r="G18" s="496"/>
-      <c r="H18" s="498"/>
-      <c r="I18" s="499"/>
-      <c r="J18" s="500"/>
-    </row>
-    <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A19" s="488"/>
-      <c r="B19" s="504"/>
-      <c r="C19" s="505"/>
-      <c r="D19" s="506"/>
-      <c r="E19" s="494"/>
-      <c r="F19" s="495"/>
-      <c r="G19" s="497"/>
-      <c r="H19" s="501"/>
-      <c r="I19" s="502"/>
-      <c r="J19" s="503"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A20" s="487">
+      <c r="C18" s="510"/>
+      <c r="D18" s="511"/>
+      <c r="E18" s="494"/>
+      <c r="F18" s="495"/>
+      <c r="G18" s="498"/>
+      <c r="H18" s="500"/>
+      <c r="I18" s="501"/>
+      <c r="J18" s="502"/>
+    </row>
+    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="512"/>
+      <c r="B19" s="506"/>
+      <c r="C19" s="507"/>
+      <c r="D19" s="508"/>
+      <c r="E19" s="513"/>
+      <c r="F19" s="497"/>
+      <c r="G19" s="499"/>
+      <c r="H19" s="503"/>
+      <c r="I19" s="504"/>
+      <c r="J19" s="505"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="489">
         <v>1</v>
       </c>
-      <c r="B20" s="489" t="s">
+      <c r="B20" s="509" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="490"/>
-      <c r="D20" s="491"/>
-      <c r="E20" s="492"/>
-      <c r="F20" s="493"/>
-      <c r="G20" s="496"/>
-      <c r="H20" s="498"/>
-      <c r="I20" s="499"/>
-      <c r="J20" s="500"/>
-    </row>
-    <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A21" s="488"/>
-      <c r="B21" s="504"/>
-      <c r="C21" s="505"/>
-      <c r="D21" s="506"/>
-      <c r="E21" s="494"/>
-      <c r="F21" s="495"/>
-      <c r="G21" s="497"/>
-      <c r="H21" s="501"/>
-      <c r="I21" s="502"/>
-      <c r="J21" s="503"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A22" s="487">
+      <c r="C20" s="510"/>
+      <c r="D20" s="511"/>
+      <c r="E20" s="494"/>
+      <c r="F20" s="495"/>
+      <c r="G20" s="498"/>
+      <c r="H20" s="500"/>
+      <c r="I20" s="501"/>
+      <c r="J20" s="502"/>
+    </row>
+    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="512"/>
+      <c r="B21" s="506"/>
+      <c r="C21" s="507"/>
+      <c r="D21" s="508"/>
+      <c r="E21" s="513"/>
+      <c r="F21" s="497"/>
+      <c r="G21" s="499"/>
+      <c r="H21" s="503"/>
+      <c r="I21" s="504"/>
+      <c r="J21" s="505"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="489">
         <v>1</v>
       </c>
-      <c r="B22" s="489" t="s">
+      <c r="B22" s="509" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="490"/>
-      <c r="D22" s="491"/>
-      <c r="E22" s="492"/>
-      <c r="F22" s="493"/>
-      <c r="G22" s="496"/>
-      <c r="H22" s="498"/>
-      <c r="I22" s="499"/>
-      <c r="J22" s="500"/>
-    </row>
-    <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A23" s="488"/>
-      <c r="B23" s="504"/>
-      <c r="C23" s="505"/>
-      <c r="D23" s="506"/>
-      <c r="E23" s="494"/>
-      <c r="F23" s="495"/>
-      <c r="G23" s="497"/>
-      <c r="H23" s="501"/>
-      <c r="I23" s="502"/>
-      <c r="J23" s="503"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A24" s="487">
+      <c r="C22" s="510"/>
+      <c r="D22" s="511"/>
+      <c r="E22" s="494"/>
+      <c r="F22" s="495"/>
+      <c r="G22" s="498"/>
+      <c r="H22" s="500"/>
+      <c r="I22" s="501"/>
+      <c r="J22" s="502"/>
+    </row>
+    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="512"/>
+      <c r="B23" s="506"/>
+      <c r="C23" s="507"/>
+      <c r="D23" s="508"/>
+      <c r="E23" s="513"/>
+      <c r="F23" s="497"/>
+      <c r="G23" s="499"/>
+      <c r="H23" s="503"/>
+      <c r="I23" s="504"/>
+      <c r="J23" s="505"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="489">
         <v>1</v>
       </c>
-      <c r="B24" s="489" t="s">
+      <c r="B24" s="509" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="490"/>
-      <c r="D24" s="491"/>
-      <c r="E24" s="492"/>
-      <c r="F24" s="493"/>
-      <c r="G24" s="496"/>
-      <c r="H24" s="498"/>
-      <c r="I24" s="499"/>
-      <c r="J24" s="500"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="488"/>
-      <c r="B25" s="504"/>
-      <c r="C25" s="505"/>
-      <c r="D25" s="506"/>
-      <c r="E25" s="494"/>
-      <c r="F25" s="495"/>
-      <c r="G25" s="497"/>
-      <c r="H25" s="501"/>
-      <c r="I25" s="502"/>
-      <c r="J25" s="503"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A26" s="487">
+      <c r="C24" s="510"/>
+      <c r="D24" s="511"/>
+      <c r="E24" s="494"/>
+      <c r="F24" s="495"/>
+      <c r="G24" s="498"/>
+      <c r="H24" s="500"/>
+      <c r="I24" s="501"/>
+      <c r="J24" s="502"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="512"/>
+      <c r="B25" s="506"/>
+      <c r="C25" s="507"/>
+      <c r="D25" s="508"/>
+      <c r="E25" s="513"/>
+      <c r="F25" s="497"/>
+      <c r="G25" s="499"/>
+      <c r="H25" s="503"/>
+      <c r="I25" s="504"/>
+      <c r="J25" s="505"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="489">
         <v>1</v>
       </c>
-      <c r="B26" s="489" t="s">
+      <c r="B26" s="509" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="490"/>
-      <c r="D26" s="491"/>
-      <c r="E26" s="492"/>
-      <c r="F26" s="493"/>
-      <c r="G26" s="496"/>
-      <c r="H26" s="498"/>
-      <c r="I26" s="499"/>
-      <c r="J26" s="500"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="488"/>
-      <c r="B27" s="504"/>
-      <c r="C27" s="505"/>
-      <c r="D27" s="506"/>
-      <c r="E27" s="494"/>
-      <c r="F27" s="495"/>
-      <c r="G27" s="497"/>
-      <c r="H27" s="501"/>
-      <c r="I27" s="502"/>
-      <c r="J27" s="503"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="487">
+      <c r="C26" s="510"/>
+      <c r="D26" s="511"/>
+      <c r="E26" s="494"/>
+      <c r="F26" s="495"/>
+      <c r="G26" s="498"/>
+      <c r="H26" s="500"/>
+      <c r="I26" s="501"/>
+      <c r="J26" s="502"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="512"/>
+      <c r="B27" s="506"/>
+      <c r="C27" s="507"/>
+      <c r="D27" s="508"/>
+      <c r="E27" s="513"/>
+      <c r="F27" s="497"/>
+      <c r="G27" s="499"/>
+      <c r="H27" s="503"/>
+      <c r="I27" s="504"/>
+      <c r="J27" s="505"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="489">
         <v>1</v>
       </c>
-      <c r="B28" s="489" t="s">
+      <c r="B28" s="509" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="490"/>
-      <c r="D28" s="491"/>
-      <c r="E28" s="492"/>
-      <c r="F28" s="493"/>
-      <c r="G28" s="496"/>
-      <c r="H28" s="498"/>
-      <c r="I28" s="499"/>
-      <c r="J28" s="500"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="488"/>
-      <c r="B29" s="504"/>
-      <c r="C29" s="505"/>
-      <c r="D29" s="506"/>
-      <c r="E29" s="494"/>
-      <c r="F29" s="495"/>
-      <c r="G29" s="497"/>
-      <c r="H29" s="501"/>
-      <c r="I29" s="502"/>
-      <c r="J29" s="503"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.6">
+      <c r="C28" s="510"/>
+      <c r="D28" s="511"/>
+      <c r="E28" s="494"/>
+      <c r="F28" s="495"/>
+      <c r="G28" s="498"/>
+      <c r="H28" s="500"/>
+      <c r="I28" s="501"/>
+      <c r="J28" s="502"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="512"/>
+      <c r="B29" s="506"/>
+      <c r="C29" s="507"/>
+      <c r="D29" s="508"/>
+      <c r="E29" s="513"/>
+      <c r="F29" s="497"/>
+      <c r="G29" s="499"/>
+      <c r="H29" s="503"/>
+      <c r="I29" s="504"/>
+      <c r="J29" s="505"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="313"/>
       <c r="B30" s="313"/>
       <c r="C30" s="313"/>
@@ -6687,7 +6951,7 @@
       <c r="I30" s="313"/>
       <c r="J30" s="314"/>
     </row>
-    <row r="31" spans="1:10" s="483" customFormat="1" ht="15.6">
+    <row r="31" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="481"/>
       <c r="B31" s="481"/>
       <c r="C31" s="481"/>
@@ -6699,7 +6963,7 @@
       <c r="I31" s="481"/>
       <c r="J31" s="482"/>
     </row>
-    <row r="32" spans="1:10" s="483" customFormat="1" ht="15.6">
+    <row r="32" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="481"/>
       <c r="B32" s="481"/>
       <c r="C32" s="481"/>
@@ -6711,7 +6975,7 @@
       <c r="I32" s="481"/>
       <c r="J32" s="482"/>
     </row>
-    <row r="33" spans="1:10" s="483" customFormat="1" ht="15.6">
+    <row r="33" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="481"/>
       <c r="B33" s="485"/>
       <c r="C33" s="481"/>
@@ -6723,7 +6987,7 @@
       <c r="I33" s="481"/>
       <c r="J33" s="482"/>
     </row>
-    <row r="34" spans="1:10" s="483" customFormat="1" ht="15.6">
+    <row r="34" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="481"/>
       <c r="B34" s="481"/>
       <c r="C34" s="481"/>
@@ -6735,7 +6999,7 @@
       <c r="I34" s="481"/>
       <c r="J34" s="482"/>
     </row>
-    <row r="35" spans="1:10" s="483" customFormat="1" ht="15.6">
+    <row r="35" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="481"/>
       <c r="B35" s="481"/>
       <c r="C35" s="481"/>
@@ -6746,7 +7010,7 @@
       <c r="I35" s="481"/>
       <c r="J35" s="481"/>
     </row>
-    <row r="36" spans="1:10" s="483" customFormat="1" ht="15.6">
+    <row r="36" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="481"/>
       <c r="B36" s="481"/>
       <c r="C36" s="481"/>
@@ -6757,7 +7021,7 @@
       <c r="I36" s="481"/>
       <c r="J36" s="481"/>
     </row>
-    <row r="37" spans="1:10" s="483" customFormat="1" ht="15.6">
+    <row r="37" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="481"/>
       <c r="B37" s="481"/>
       <c r="C37" s="481"/>
@@ -6765,14 +7029,14 @@
       <c r="E37" s="481"/>
       <c r="I37" s="481"/>
     </row>
-    <row r="38" spans="1:10" s="483" customFormat="1" ht="17.399999999999999">
+    <row r="38" spans="1:10" s="483" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="486"/>
       <c r="B38" s="486"/>
       <c r="C38" s="486"/>
       <c r="D38" s="486"/>
       <c r="E38" s="486"/>
     </row>
-    <row r="39" spans="1:10" ht="17.399999999999999">
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="310"/>
       <c r="B39" s="310"/>
       <c r="C39" s="310"/>
@@ -6788,83 +7052,83 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:J7"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6873,7 +7137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6883,19 +7147,19 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -6916,26 +7180,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -6944,21 +7208,21 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -6967,11 +7231,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6988,24 +7252,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7014,24 +7278,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7040,29 +7304,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="538">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="526">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -7071,7 +7335,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -7092,7 +7356,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -7125,7 +7389,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="131" t="s">
         <v>26</v>
@@ -7158,7 +7422,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="131" t="s">
         <v>2</v>
@@ -7191,7 +7455,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="131" t="s">
         <v>3</v>
@@ -7224,7 +7488,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="131" t="s">
         <v>27</v>
@@ -7257,7 +7521,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="131" t="s">
         <v>9</v>
@@ -7290,7 +7554,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="131" t="s">
         <v>5</v>
@@ -7323,14 +7587,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="546" t="s">
+      <c r="B16" s="570" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="547"/>
-      <c r="D16" s="547"/>
-      <c r="E16" s="548"/>
+      <c r="C16" s="571"/>
+      <c r="D16" s="571"/>
+      <c r="E16" s="572"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -7350,7 +7614,7 @@
       <c r="R16" s="124"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="112"/>
       <c r="B17" s="130"/>
       <c r="C17" s="129"/>
@@ -7371,11 +7635,20 @@
       <c r="R17" s="115"/>
       <c r="S17" s="116"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -7386,15 +7659,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -7416,7 +7680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7426,20 +7690,20 @@
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="171" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="171" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="171" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="171" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="171" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="171" customWidth="1"/>
     <col min="8" max="18" width="9" style="171" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="171"/>
+    <col min="19" max="19" width="1.42578125" style="171" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="171"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="167"/>
       <c r="B1" s="168"/>
       <c r="C1" s="169"/>
@@ -7460,26 +7724,26 @@
       <c r="R1" s="169"/>
       <c r="S1" s="170"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
@@ -7488,21 +7752,21 @@
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7511,11 +7775,11 @@
       <c r="R3" s="180"/>
       <c r="S3" s="177"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7532,24 +7796,24 @@
       <c r="R4" s="180"/>
       <c r="S4" s="177"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7558,24 +7822,24 @@
       <c r="R5" s="180"/>
       <c r="S5" s="177"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7584,29 +7848,29 @@
       <c r="R6" s="180"/>
       <c r="S6" s="177"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="538">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="526">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7615,7 +7879,7 @@
       <c r="R7" s="180"/>
       <c r="S7" s="177"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="182"/>
       <c r="B8" s="183"/>
       <c r="C8" s="184"/>
@@ -7636,7 +7900,7 @@
       <c r="R8" s="187"/>
       <c r="S8" s="188"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="189"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -7669,7 +7933,7 @@
       <c r="R9" s="348"/>
       <c r="S9" s="204"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="182"/>
       <c r="B10" s="191" t="s">
         <v>25</v>
@@ -7704,7 +7968,7 @@
       <c r="R10" s="350"/>
       <c r="S10" s="188"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="182"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -7737,7 +8001,7 @@
       <c r="R11" s="352"/>
       <c r="S11" s="188"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="182"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -7770,7 +8034,7 @@
       <c r="R12" s="352"/>
       <c r="S12" s="188"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="182"/>
       <c r="B13" s="193" t="s">
         <v>3</v>
@@ -7803,7 +8067,7 @@
       <c r="R13" s="352"/>
       <c r="S13" s="188"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="182"/>
       <c r="B14" s="193" t="s">
         <v>27</v>
@@ -7836,7 +8100,7 @@
       <c r="R14" s="352"/>
       <c r="S14" s="188"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="182"/>
       <c r="B15" s="193" t="s">
         <v>28</v>
@@ -7869,7 +8133,7 @@
       <c r="R15" s="352"/>
       <c r="S15" s="188"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="182"/>
       <c r="B16" s="193" t="s">
         <v>4</v>
@@ -7902,7 +8166,7 @@
       <c r="R16" s="352"/>
       <c r="S16" s="188"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="182"/>
       <c r="B17" s="193" t="s">
         <v>9</v>
@@ -7935,7 +8199,7 @@
       <c r="R17" s="352"/>
       <c r="S17" s="188"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="182"/>
       <c r="B18" s="193" t="s">
         <v>5</v>
@@ -7968,7 +8232,7 @@
       <c r="R18" s="352"/>
       <c r="S18" s="188"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="195"/>
       <c r="B19" s="196"/>
       <c r="C19" s="196"/>
@@ -7989,9 +8253,20 @@
       <c r="R19" s="196"/>
       <c r="S19" s="198"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7999,17 +8274,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8029,7 +8293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8039,20 +8303,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="210" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="210" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="210" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="210" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="210" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="210" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="210" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="210" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="210" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="210" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="210" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="210" customWidth="1"/>
     <col min="8" max="18" width="9" style="210" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="210" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="210"/>
+    <col min="19" max="19" width="1.42578125" style="210" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="210"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="206"/>
       <c r="B1" s="207"/>
       <c r="C1" s="208"/>
@@ -8073,49 +8337,49 @@
       <c r="R1" s="208"/>
       <c r="S1" s="209"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8124,11 +8388,11 @@
       <c r="R3" s="219"/>
       <c r="S3" s="216"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8145,24 +8409,24 @@
       <c r="R4" s="219"/>
       <c r="S4" s="216"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8171,24 +8435,24 @@
       <c r="R5" s="219"/>
       <c r="S5" s="216"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8197,29 +8461,29 @@
       <c r="R6" s="219"/>
       <c r="S6" s="216"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="538">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="526">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8228,7 +8492,7 @@
       <c r="R7" s="219"/>
       <c r="S7" s="216"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="221"/>
       <c r="B8" s="222"/>
       <c r="C8" s="223"/>
@@ -8249,7 +8513,7 @@
       <c r="R8" s="226"/>
       <c r="S8" s="227"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="228"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8282,7 +8546,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="231"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="221"/>
       <c r="B10" s="232" t="s">
         <v>25</v>
@@ -8315,7 +8579,7 @@
       <c r="R10" s="236"/>
       <c r="S10" s="227"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="221"/>
       <c r="B11" s="237" t="s">
         <v>26</v>
@@ -8348,7 +8612,7 @@
       <c r="R11" s="241"/>
       <c r="S11" s="227"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="221"/>
       <c r="B12" s="237" t="s">
         <v>2</v>
@@ -8381,7 +8645,7 @@
       <c r="R12" s="241"/>
       <c r="S12" s="227"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="221"/>
       <c r="B13" s="237" t="s">
         <v>3</v>
@@ -8414,7 +8678,7 @@
       <c r="R13" s="241"/>
       <c r="S13" s="227"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="221"/>
       <c r="B14" s="237" t="s">
         <v>27</v>
@@ -8447,7 +8711,7 @@
       <c r="R14" s="241"/>
       <c r="S14" s="227"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="221"/>
       <c r="B15" s="237" t="s">
         <v>28</v>
@@ -8480,7 +8744,7 @@
       <c r="R15" s="241"/>
       <c r="S15" s="227"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="221"/>
       <c r="B16" s="237" t="s">
         <v>9</v>
@@ -8513,7 +8777,7 @@
       <c r="R16" s="241"/>
       <c r="S16" s="227"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="221"/>
       <c r="B17" s="237" t="s">
         <v>5</v>
@@ -8546,14 +8810,14 @@
       <c r="R17" s="241"/>
       <c r="S17" s="227"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
-      <c r="B18" s="627" t="s">
+      <c r="B18" s="628" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="628"/>
-      <c r="D18" s="628"/>
-      <c r="E18" s="629"/>
+      <c r="C18" s="629"/>
+      <c r="D18" s="629"/>
+      <c r="E18" s="630"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8573,7 +8837,7 @@
       <c r="R18" s="245"/>
       <c r="S18" s="227"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="246"/>
       <c r="B19" s="247"/>
       <c r="C19" s="247"/>
@@ -8594,17 +8858,9 @@
       <c r="R19" s="247"/>
       <c r="S19" s="249"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8616,6 +8872,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8655,7 +8919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8665,20 +8929,20 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8699,26 +8963,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
@@ -8727,21 +8991,21 @@
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8750,11 +9014,11 @@
       <c r="R3" s="143"/>
       <c r="S3" s="140"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8771,24 +9035,24 @@
       <c r="R4" s="143"/>
       <c r="S4" s="140"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8797,24 +9061,24 @@
       <c r="R5" s="143"/>
       <c r="S5" s="140"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8823,29 +9087,29 @@
       <c r="R6" s="143"/>
       <c r="S6" s="140"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="538">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="526">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -8854,7 +9118,7 @@
       <c r="R7" s="143"/>
       <c r="S7" s="140"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="145"/>
       <c r="C8" s="146"/>
@@ -8875,7 +9139,7 @@
       <c r="R8" s="149"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="150"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8908,7 +9172,7 @@
       <c r="R9" s="153"/>
       <c r="S9" s="154"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="155"/>
       <c r="B10" s="156" t="s">
         <v>25</v>
@@ -8941,7 +9205,7 @@
       <c r="R10" s="158"/>
       <c r="S10" s="159"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="155"/>
       <c r="B11" s="156" t="s">
         <v>26</v>
@@ -8974,7 +9238,7 @@
       <c r="R11" s="158"/>
       <c r="S11" s="159"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="155"/>
       <c r="B12" s="156" t="s">
         <v>2</v>
@@ -9007,7 +9271,7 @@
       <c r="R12" s="158"/>
       <c r="S12" s="159"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="155"/>
       <c r="B13" s="156" t="s">
         <v>3</v>
@@ -9040,7 +9304,7 @@
       <c r="R13" s="158"/>
       <c r="S13" s="159"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="155"/>
       <c r="B14" s="156" t="s">
         <v>27</v>
@@ -9073,7 +9337,7 @@
       <c r="R14" s="158"/>
       <c r="S14" s="159"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="155"/>
       <c r="B15" s="156" t="s">
         <v>28</v>
@@ -9106,7 +9370,7 @@
       <c r="R15" s="158"/>
       <c r="S15" s="159"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="155"/>
       <c r="B16" s="156" t="s">
         <v>4</v>
@@ -9139,7 +9403,7 @@
       <c r="R16" s="158"/>
       <c r="S16" s="159"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -9160,7 +9424,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -9181,7 +9445,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
@@ -9202,7 +9466,7 @@
       <c r="R19" s="111"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112"/>
       <c r="B20" s="113"/>
       <c r="C20" s="113"/>
@@ -9223,9 +9487,20 @@
       <c r="R20" s="115"/>
       <c r="S20" s="116"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9233,17 +9508,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9263,7 +9527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9273,20 +9537,20 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="267" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="267" customWidth="1"/>
     <col min="2" max="2" width="5" style="267" customWidth="1"/>
     <col min="3" max="3" width="11" style="267" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="267" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="267" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="267" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="267" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="267" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="267" customWidth="1"/>
     <col min="8" max="18" width="9" style="267" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="267" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="267"/>
+    <col min="19" max="19" width="1.42578125" style="267" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="267"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="263"/>
       <c r="B1" s="264"/>
       <c r="C1" s="265"/>
@@ -9307,21 +9571,21 @@
       <c r="R1" s="265"/>
       <c r="S1" s="266"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
+      <c r="J2" s="604"/>
       <c r="K2" s="633">
         <f>Данные!B23</f>
         <v>18</v>
@@ -9335,19 +9599,19 @@
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
       <c r="K3" s="635"/>
       <c r="L3" s="636"/>
       <c r="M3" s="274"/>
@@ -9358,11 +9622,11 @@
       <c r="R3" s="276"/>
       <c r="S3" s="273"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9379,24 +9643,24 @@
       <c r="R4" s="276"/>
       <c r="S4" s="273"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9405,24 +9669,24 @@
       <c r="R5" s="276"/>
       <c r="S5" s="273"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9431,29 +9695,29 @@
       <c r="R6" s="276"/>
       <c r="S6" s="273"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="538">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="526">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9462,7 +9726,7 @@
       <c r="R7" s="276"/>
       <c r="S7" s="273"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="278"/>
       <c r="B8" s="279"/>
       <c r="C8" s="280"/>
@@ -9483,7 +9747,7 @@
       <c r="R8" s="283"/>
       <c r="S8" s="284"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="285"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -9516,7 +9780,7 @@
       <c r="R9" s="354"/>
       <c r="S9" s="287"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="278"/>
       <c r="B10" s="288" t="s">
         <v>25</v>
@@ -9549,7 +9813,7 @@
       <c r="R10" s="356"/>
       <c r="S10" s="284"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="278"/>
       <c r="B11" s="292" t="s">
         <v>26</v>
@@ -9582,7 +9846,7 @@
       <c r="R11" s="357"/>
       <c r="S11" s="284"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="278"/>
       <c r="B12" s="292" t="s">
         <v>2</v>
@@ -9615,7 +9879,7 @@
       <c r="R12" s="359"/>
       <c r="S12" s="284"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="278"/>
       <c r="B13" s="292" t="s">
         <v>28</v>
@@ -9648,7 +9912,7 @@
       <c r="R13" s="359"/>
       <c r="S13" s="284"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="278"/>
       <c r="B14" s="292" t="s">
         <v>4</v>
@@ -9681,7 +9945,7 @@
       <c r="R14" s="359"/>
       <c r="S14" s="284"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="278"/>
       <c r="B15" s="298"/>
       <c r="C15" s="299"/>
@@ -9702,7 +9966,7 @@
       <c r="R15" s="341"/>
       <c r="S15" s="284"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="301"/>
       <c r="B16" s="302"/>
       <c r="C16" s="302"/>
@@ -9723,14 +9987,9 @@
       <c r="R16" s="302"/>
       <c r="S16" s="304"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -9744,6 +10003,11 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9769,78 +10033,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="521" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="516" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="521"/>
-      <c r="C1" s="521"/>
-      <c r="D1" s="521"/>
-      <c r="E1" s="521"/>
-      <c r="F1" s="521"/>
-      <c r="G1" s="521"/>
-      <c r="H1" s="521"/>
-      <c r="I1" s="521"/>
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
       <c r="J1" s="392"/>
       <c r="K1" s="392"/>
       <c r="L1" s="392"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="521" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="516" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="521"/>
-      <c r="C2" s="521"/>
-      <c r="D2" s="521"/>
-      <c r="E2" s="521"/>
-      <c r="F2" s="521"/>
-      <c r="G2" s="521"/>
-      <c r="H2" s="521"/>
-      <c r="I2" s="521"/>
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="516"/>
+      <c r="E2" s="516"/>
+      <c r="F2" s="516"/>
+      <c r="G2" s="516"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
       <c r="J2" s="393"/>
       <c r="K2" s="393"/>
       <c r="L2" s="393"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="522" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="517" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="522"/>
-      <c r="C3" s="522"/>
-      <c r="D3" s="522"/>
-      <c r="E3" s="522"/>
-      <c r="F3" s="522"/>
-      <c r="G3" s="522"/>
-      <c r="H3" s="522"/>
-      <c r="I3" s="522"/>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="517"/>
+      <c r="G3" s="517"/>
+      <c r="H3" s="517"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="394"/>
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="395"/>
       <c r="B4" s="396"/>
       <c r="C4" s="396"/>
@@ -9852,7 +10116,7 @@
       <c r="K4" s="394"/>
       <c r="M4" s="374"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="399" t="s">
         <v>123</v>
       </c>
@@ -9882,7 +10146,7 @@
       <c r="K5" s="402"/>
       <c r="L5" s="402"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="403">
         <v>1</v>
       </c>
@@ -9912,7 +10176,7 @@
       <c r="K6" s="395"/>
       <c r="L6" s="407"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="408">
         <f>A6+1</f>
         <v>2</v>
@@ -9943,7 +10207,7 @@
       <c r="K7" s="395"/>
       <c r="L7" s="407"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="408">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9974,7 +10238,7 @@
       <c r="K8" s="395"/>
       <c r="L8" s="407"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="408">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -10005,7 +10269,7 @@
       <c r="K9" s="395"/>
       <c r="L9" s="407"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="408">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -10036,7 +10300,7 @@
       <c r="K10" s="413"/>
       <c r="L10" s="407"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="408">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -10067,7 +10331,7 @@
       <c r="K11" s="395"/>
       <c r="L11" s="407"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="408">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -10099,7 +10363,7 @@
       <c r="L12" s="407"/>
       <c r="M12" s="415"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="408">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -10131,7 +10395,7 @@
       <c r="L13" s="407"/>
       <c r="M13" s="415"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="408">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -10164,7 +10428,7 @@
       <c r="K14" s="413"/>
       <c r="L14" s="407"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="408">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -10195,7 +10459,7 @@
       <c r="K15" s="413"/>
       <c r="L15" s="407"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="408">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -10226,7 +10490,7 @@
       <c r="K16" s="413"/>
       <c r="L16" s="407"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="417">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -10257,7 +10521,7 @@
       <c r="K17" s="413"/>
       <c r="L17" s="407"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="422"/>
       <c r="B18" s="479"/>
       <c r="C18" s="395"/>
@@ -10269,7 +10533,7 @@
       <c r="I18" s="395"/>
       <c r="J18" s="395"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="395"/>
       <c r="B19" s="423" t="s">
         <v>130</v>
@@ -10285,7 +10549,7 @@
       <c r="K19" s="424"/>
       <c r="L19" s="424"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="399" t="s">
         <v>131</v>
       </c>
@@ -10317,7 +10581,7 @@
       <c r="K20" s="402"/>
       <c r="L20" s="402"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="428">
         <f>D6*700000</f>
         <v>15400000</v>
@@ -10353,7 +10617,7 @@
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="436"/>
       <c r="B22" s="437">
         <v>43866</v>
@@ -10386,7 +10650,7 @@
       <c r="K22" s="395"/>
       <c r="L22" s="395"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="441"/>
       <c r="B23" s="442"/>
       <c r="C23" s="442"/>
@@ -10400,7 +10664,7 @@
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="441"/>
       <c r="B24" s="387"/>
       <c r="C24" s="387"/>
@@ -10414,7 +10678,7 @@
       <c r="K24" s="435"/>
       <c r="L24" s="395"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="441"/>
       <c r="B25" s="442"/>
       <c r="C25" s="442"/>
@@ -10428,7 +10692,7 @@
       <c r="K25" s="449"/>
       <c r="L25" s="395"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="441"/>
       <c r="B26" s="442"/>
       <c r="C26" s="442"/>
@@ -10442,7 +10706,7 @@
       <c r="K26" s="435"/>
       <c r="L26" s="395"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="441"/>
       <c r="B27" s="442"/>
       <c r="C27" s="442"/>
@@ -10456,7 +10720,7 @@
       <c r="K27" s="435"/>
       <c r="L27" s="395"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="441"/>
       <c r="B28" s="442"/>
       <c r="C28" s="442"/>
@@ -10470,7 +10734,7 @@
       <c r="K28" s="435"/>
       <c r="L28" s="395"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="441"/>
       <c r="B29" s="442"/>
       <c r="C29" s="442"/>
@@ -10484,7 +10748,7 @@
       <c r="K29" s="435"/>
       <c r="L29" s="395"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="441"/>
       <c r="B30" s="442"/>
       <c r="C30" s="442"/>
@@ -10498,7 +10762,7 @@
       <c r="K30" s="435"/>
       <c r="L30" s="395"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="452"/>
       <c r="B31" s="453"/>
       <c r="C31" s="453"/>
@@ -10512,7 +10776,7 @@
       <c r="K31" s="395"/>
       <c r="L31" s="395"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="459" t="s">
         <v>140</v>
       </c>
@@ -10543,7 +10807,7 @@
       <c r="K32" s="467"/>
       <c r="L32" s="467"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="395"/>
       <c r="B35" s="395"/>
       <c r="C35" s="395"/>
@@ -10555,13 +10819,13 @@
       <c r="I35" s="395"/>
       <c r="J35" s="395"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="523" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="518" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="523"/>
-      <c r="C36" s="523"/>
-      <c r="D36" s="523"/>
+      <c r="B36" s="518"/>
+      <c r="C36" s="518"/>
+      <c r="D36" s="518"/>
       <c r="E36" s="395"/>
       <c r="F36" s="395"/>
       <c r="G36" s="395"/>
@@ -10569,11 +10833,11 @@
       <c r="I36" s="395"/>
       <c r="J36" s="395"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="524" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="519" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="524"/>
+      <c r="B37" s="519"/>
       <c r="C37" s="468" t="s">
         <v>143</v>
       </c>
@@ -10587,12 +10851,12 @@
       <c r="I37" s="395"/>
       <c r="J37" s="395"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="519">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="514">
         <f>A21-F32</f>
         <v>13637184</v>
       </c>
-      <c r="B38" s="520"/>
+      <c r="B38" s="515"/>
       <c r="C38" s="469">
         <f>1-G32</f>
         <v>0.88553142857142864</v>
@@ -10610,7 +10874,7 @@
       <c r="I38" s="471"/>
       <c r="J38" s="471"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="395"/>
       <c r="B39" s="395"/>
       <c r="C39" s="395"/>
@@ -10618,7 +10882,7 @@
       <c r="E39" s="395"/>
       <c r="F39" s="395"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="395"/>
       <c r="B40" s="395"/>
       <c r="C40" s="395"/>
@@ -10633,7 +10897,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="395"/>
       <c r="B41" s="472"/>
       <c r="C41" s="472"/>
@@ -10645,7 +10909,7 @@
       <c r="I41" s="395"/>
       <c r="J41" s="395"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="473"/>
       <c r="B42" s="473"/>
       <c r="C42" s="473"/>
@@ -10654,10 +10918,10 @@
       <c r="F42" s="473"/>
       <c r="G42" s="473"/>
       <c r="H42" s="473"/>
-      <c r="I42" s="514"/>
-      <c r="J42" s="515"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="I42" s="520"/>
+      <c r="J42" s="521"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="474"/>
       <c r="B43" s="475"/>
       <c r="C43" s="475"/>
@@ -10667,7 +10931,7 @@
       <c r="G43" s="421"/>
       <c r="H43" s="475"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="474"/>
       <c r="B44" s="475"/>
       <c r="C44" s="475"/>
@@ -10677,7 +10941,7 @@
       <c r="G44" s="421"/>
       <c r="H44" s="475"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="474"/>
       <c r="B45" s="475"/>
       <c r="C45" s="475"/>
@@ -10687,7 +10951,7 @@
       <c r="G45" s="421"/>
       <c r="H45" s="475"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="474"/>
       <c r="B46" s="475"/>
       <c r="C46" s="475"/>
@@ -10697,7 +10961,7 @@
       <c r="G46" s="421"/>
       <c r="H46" s="475"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="474"/>
       <c r="B47" s="475"/>
       <c r="C47" s="475"/>
@@ -10707,7 +10971,7 @@
       <c r="G47" s="421"/>
       <c r="H47" s="475"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="474"/>
       <c r="B48" s="475"/>
       <c r="C48" s="413"/>
@@ -10717,7 +10981,7 @@
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="474"/>
       <c r="B49" s="475"/>
       <c r="C49" s="475"/>
@@ -10727,7 +10991,7 @@
       <c r="G49" s="421"/>
       <c r="H49" s="475"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="474"/>
       <c r="B50" s="475"/>
       <c r="C50" s="475"/>
@@ -10737,7 +11001,7 @@
       <c r="G50" s="421"/>
       <c r="H50" s="475"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="474"/>
       <c r="B51" s="475"/>
       <c r="C51" s="475"/>
@@ -10747,11 +11011,11 @@
       <c r="G51" s="421"/>
       <c r="H51" s="475"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="395"/>
-      <c r="B52" s="516"/>
-      <c r="C52" s="516"/>
-      <c r="D52" s="517"/>
+      <c r="B52" s="522"/>
+      <c r="C52" s="522"/>
+      <c r="D52" s="523"/>
       <c r="E52" s="471"/>
       <c r="F52" s="395"/>
       <c r="G52" s="395"/>
@@ -10759,7 +11023,7 @@
       <c r="I52" s="395"/>
       <c r="J52" s="395"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="473"/>
       <c r="B53" s="473"/>
       <c r="C53" s="473"/>
@@ -10768,10 +11032,10 @@
       <c r="F53" s="473"/>
       <c r="G53" s="473"/>
       <c r="H53" s="473"/>
-      <c r="I53" s="514"/>
-      <c r="J53" s="515"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="520"/>
+      <c r="J53" s="521"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="474"/>
       <c r="B54" s="395"/>
       <c r="C54" s="395"/>
@@ -10780,10 +11044,10 @@
       <c r="F54" s="421"/>
       <c r="G54" s="421"/>
       <c r="H54" s="475"/>
-      <c r="I54" s="518"/>
-      <c r="J54" s="518"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="524"/>
+      <c r="J54" s="524"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="474"/>
       <c r="B55" s="395"/>
       <c r="C55" s="395"/>
@@ -10792,10 +11056,10 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="518"/>
-      <c r="J55" s="518"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="I55" s="524"/>
+      <c r="J55" s="524"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="395"/>
       <c r="B56" s="395"/>
       <c r="C56" s="395"/>
@@ -10805,22 +11069,16 @@
       <c r="G56" s="395"/>
       <c r="H56" s="395"/>
     </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="514"/>
-      <c r="C61" s="515"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="514"/>
-      <c r="C68" s="515"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="520"/>
+      <c r="C61" s="521"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="520"/>
+      <c r="C68" s="521"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="B52:D52"/>
@@ -10828,9 +11086,15 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
@@ -10838,90 +11102,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="528" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="530" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="532"/>
-      <c r="C1" s="532"/>
-      <c r="D1" s="532"/>
-      <c r="E1" s="532"/>
+      <c r="B1" s="534"/>
+      <c r="C1" s="534"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
       <c r="G1" s="373" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="529" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="531" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="530"/>
-      <c r="C2" s="530"/>
-      <c r="D2" s="530"/>
-      <c r="E2" s="531"/>
+      <c r="B2" s="532"/>
+      <c r="C2" s="532"/>
+      <c r="D2" s="532"/>
+      <c r="E2" s="533"/>
       <c r="G2" s="372" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="372" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="533" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="535" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="534"/>
-      <c r="C4" s="534"/>
-      <c r="D4" s="534"/>
-      <c r="E4" s="534"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="535" t="s">
+      <c r="B4" s="536"/>
+      <c r="C4" s="536"/>
+      <c r="D4" s="536"/>
+      <c r="E4" s="536"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="537" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="536"/>
-      <c r="C5" s="536"/>
-      <c r="D5" s="536"/>
-      <c r="E5" s="537"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="528" t="s">
+      <c r="B5" s="538"/>
+      <c r="C5" s="538"/>
+      <c r="D5" s="538"/>
+      <c r="E5" s="539"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="530" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="532"/>
-      <c r="C7" s="532"/>
-      <c r="D7" s="532"/>
-      <c r="E7" s="532"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="538"/>
-      <c r="B8" s="539"/>
-      <c r="C8" s="539"/>
-      <c r="D8" s="539"/>
-      <c r="E8" s="540"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="528" t="s">
+      <c r="B7" s="534"/>
+      <c r="C7" s="534"/>
+      <c r="D7" s="534"/>
+      <c r="E7" s="534"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="540"/>
+      <c r="B8" s="541"/>
+      <c r="C8" s="541"/>
+      <c r="D8" s="541"/>
+      <c r="E8" s="542"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="530" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="528"/>
+      <c r="B10" s="530"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>95</v>
@@ -10931,36 +11195,36 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="526"/>
-      <c r="B11" s="527"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="528"/>
+      <c r="B11" s="529"/>
       <c r="D11" s="381">
         <v>43753</v>
       </c>
-      <c r="F11" s="541" t="s">
+      <c r="F11" s="525" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="541"/>
-      <c r="H11" s="541"/>
-      <c r="I11" s="541"/>
-      <c r="J11" s="542" t="s">
+      <c r="G11" s="525"/>
+      <c r="H11" s="525"/>
+      <c r="I11" s="525"/>
+      <c r="J11" s="526" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="542"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="F12" s="541" t="s">
+      <c r="K11" s="526"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="525" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="541"/>
-      <c r="H12" s="541"/>
-      <c r="I12" s="541"/>
-      <c r="J12" s="542" t="s">
+      <c r="G12" s="525"/>
+      <c r="H12" s="525"/>
+      <c r="I12" s="525"/>
+      <c r="J12" s="526" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="542"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="526"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="375" t="s">
         <v>89</v>
       </c>
@@ -10970,18 +11234,18 @@
       <c r="C13" s="386" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="541" t="s">
+      <c r="F13" s="525" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="541"/>
-      <c r="H13" s="541"/>
-      <c r="I13" s="541"/>
-      <c r="J13" s="542" t="s">
+      <c r="G13" s="525"/>
+      <c r="H13" s="525"/>
+      <c r="I13" s="525"/>
+      <c r="J13" s="526" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="542"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="526"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="377" t="s">
         <v>44</v>
       </c>
@@ -10992,7 +11256,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="377" t="s">
         <v>45</v>
       </c>
@@ -11003,7 +11267,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="377" t="s">
         <v>38</v>
       </c>
@@ -11014,7 +11278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="377" t="s">
         <v>23</v>
       </c>
@@ -11025,7 +11289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="377" t="s">
         <v>48</v>
       </c>
@@ -11036,7 +11300,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="377" t="s">
         <v>91</v>
       </c>
@@ -11047,7 +11311,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="377" t="s">
         <v>52</v>
       </c>
@@ -11058,7 +11322,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="377" t="s">
         <v>54</v>
       </c>
@@ -11069,7 +11333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="377" t="s">
         <v>92</v>
       </c>
@@ -11078,7 +11342,7 @@
       </c>
       <c r="C22" s="384"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="377" t="s">
         <v>57</v>
       </c>
@@ -11089,7 +11353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="377" t="s">
         <v>71</v>
       </c>
@@ -11100,7 +11364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="379" t="s">
         <v>56</v>
       </c>
@@ -11111,7 +11375,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="379" t="s">
         <v>107</v>
       </c>
@@ -11120,36 +11384,30 @@
       </c>
       <c r="C26" s="387"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="379" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="391"/>
       <c r="C27" s="387"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="383"/>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="525" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="527" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="525"/>
-      <c r="C29" s="525"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="527"/>
+      <c r="C29" s="527"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -11159,6 +11417,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -11166,25 +11430,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A38" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="309"/>
+    <col min="1" max="3" width="9.140625" style="309"/>
     <col min="4" max="4" width="8" style="309" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="309"/>
+    <col min="5" max="6" width="9.140625" style="309"/>
+    <col min="7" max="7" width="9.140625" style="309" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="309" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="2" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="318" t="s">
         <v>59</v>
       </c>
@@ -11193,7 +11457,7 @@
       <c r="J2" s="319"/>
       <c r="K2" s="319"/>
     </row>
-    <row r="3" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="3" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="318" t="s">
         <v>103</v>
       </c>
@@ -11202,7 +11466,7 @@
       <c r="J3" s="319"/>
       <c r="K3" s="319"/>
     </row>
-    <row r="4" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="4" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="318" t="s">
         <v>106</v>
       </c>
@@ -11211,8 +11475,8 @@
       <c r="J4" s="319"/>
       <c r="K4" s="319"/>
     </row>
-    <row r="5" spans="1:11" s="369" customFormat="1"/>
-    <row r="6" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="5" spans="1:11" s="369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="370"/>
       <c r="H6" s="318" t="s">
         <v>104</v>
@@ -11220,12 +11484,12 @@
       <c r="I6" s="319"/>
       <c r="J6" s="319"/>
     </row>
-    <row r="7" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="7" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="319"/>
       <c r="I7" s="319"/>
       <c r="J7" s="319"/>
     </row>
-    <row r="8" spans="1:11" s="369" customFormat="1" ht="18">
+    <row r="8" spans="1:11" s="369" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="312" t="s">
         <v>60</v>
       </c>
@@ -11235,7 +11499,7 @@
       </c>
       <c r="J8" s="319"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="544" t="s">
         <v>65</v>
       </c>
@@ -11249,7 +11513,7 @@
       <c r="I11" s="544"/>
       <c r="J11" s="544"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="543" t="s">
         <v>75</v>
       </c>
@@ -11263,7 +11527,7 @@
       <c r="I12" s="543"/>
       <c r="J12" s="543"/>
     </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="545" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
@@ -11278,7 +11542,7 @@
       <c r="I13" s="544"/>
       <c r="J13" s="544"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
         <v>61</v>
       </c>
@@ -11295,7 +11559,7 @@
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="313" t="s">
         <v>97</v>
       </c>
@@ -11309,7 +11573,7 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="17" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="321" t="s">
         <v>62</v>
       </c>
@@ -11330,7 +11594,7 @@
       </c>
       <c r="J17" s="314"/>
     </row>
-    <row r="18" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="18" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="321" t="s">
         <v>62</v>
       </c>
@@ -11351,7 +11615,7 @@
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="19" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="322"/>
       <c r="B19" s="322"/>
       <c r="C19" s="322"/>
@@ -11369,7 +11633,7 @@
       </c>
       <c r="J19" s="314"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="313" t="s">
         <v>76</v>
       </c>
@@ -11386,7 +11650,7 @@
       </c>
       <c r="J20" s="314"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="313" t="s">
         <v>77</v>
       </c>
@@ -11400,496 +11664,496 @@
       <c r="I21" s="313"/>
       <c r="J21" s="314"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="512" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="487" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="512" t="s">
+      <c r="B22" s="487" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="512"/>
-      <c r="D22" s="512"/>
-      <c r="E22" s="512" t="s">
+      <c r="C22" s="487"/>
+      <c r="D22" s="487"/>
+      <c r="E22" s="487" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="512"/>
-      <c r="G22" s="513" t="s">
+      <c r="F22" s="487"/>
+      <c r="G22" s="488" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="512" t="s">
+      <c r="H22" s="487" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="512"/>
-      <c r="J22" s="512"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="512"/>
-      <c r="B23" s="512"/>
-      <c r="C23" s="512"/>
-      <c r="D23" s="512"/>
-      <c r="E23" s="512"/>
-      <c r="F23" s="512"/>
-      <c r="G23" s="513"/>
-      <c r="H23" s="512"/>
-      <c r="I23" s="512"/>
-      <c r="J23" s="512"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="487">
+      <c r="I22" s="487"/>
+      <c r="J22" s="487"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="487"/>
+      <c r="B23" s="487"/>
+      <c r="C23" s="487"/>
+      <c r="D23" s="487"/>
+      <c r="E23" s="487"/>
+      <c r="F23" s="487"/>
+      <c r="G23" s="488"/>
+      <c r="H23" s="487"/>
+      <c r="I23" s="487"/>
+      <c r="J23" s="487"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="489">
         <v>1</v>
       </c>
-      <c r="B24" s="509" t="s">
+      <c r="B24" s="491" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="510"/>
-      <c r="D24" s="511"/>
-      <c r="E24" s="492" t="str">
+      <c r="C24" s="492"/>
+      <c r="D24" s="493"/>
+      <c r="E24" s="494" t="str">
         <f>Данные!C14</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F24" s="493"/>
-      <c r="G24" s="496">
+      <c r="F24" s="495"/>
+      <c r="G24" s="498">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="498"/>
-      <c r="I24" s="499"/>
-      <c r="J24" s="500"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="507"/>
-      <c r="B25" s="504" t="str">
+      <c r="H24" s="500"/>
+      <c r="I24" s="501"/>
+      <c r="J24" s="502"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="490"/>
+      <c r="B25" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C25" s="505"/>
-      <c r="D25" s="506"/>
-      <c r="E25" s="508"/>
-      <c r="F25" s="495"/>
-      <c r="G25" s="497"/>
-      <c r="H25" s="501"/>
-      <c r="I25" s="502"/>
-      <c r="J25" s="503"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="487">
+      <c r="C25" s="507"/>
+      <c r="D25" s="508"/>
+      <c r="E25" s="496"/>
+      <c r="F25" s="497"/>
+      <c r="G25" s="499"/>
+      <c r="H25" s="503"/>
+      <c r="I25" s="504"/>
+      <c r="J25" s="505"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="489">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="489" t="s">
+      <c r="B26" s="509" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="490"/>
-      <c r="D26" s="491"/>
-      <c r="E26" s="492" t="str">
+      <c r="C26" s="510"/>
+      <c r="D26" s="511"/>
+      <c r="E26" s="494" t="str">
         <f>Данные!C15</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F26" s="493"/>
-      <c r="G26" s="496">
+      <c r="F26" s="495"/>
+      <c r="G26" s="498">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="498"/>
-      <c r="I26" s="499"/>
-      <c r="J26" s="500"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="507"/>
-      <c r="B27" s="504" t="str">
+      <c r="H26" s="500"/>
+      <c r="I26" s="501"/>
+      <c r="J26" s="502"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="490"/>
+      <c r="B27" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C27" s="505"/>
-      <c r="D27" s="506"/>
-      <c r="E27" s="508"/>
-      <c r="F27" s="495"/>
-      <c r="G27" s="497"/>
-      <c r="H27" s="501"/>
-      <c r="I27" s="502"/>
-      <c r="J27" s="503"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="487">
+      <c r="C27" s="507"/>
+      <c r="D27" s="508"/>
+      <c r="E27" s="496"/>
+      <c r="F27" s="497"/>
+      <c r="G27" s="499"/>
+      <c r="H27" s="503"/>
+      <c r="I27" s="504"/>
+      <c r="J27" s="505"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="489">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="489" t="s">
+      <c r="B28" s="509" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="490"/>
-      <c r="D28" s="491"/>
-      <c r="E28" s="492" t="str">
+      <c r="C28" s="510"/>
+      <c r="D28" s="511"/>
+      <c r="E28" s="494" t="str">
         <f>Данные!C16</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F28" s="493"/>
-      <c r="G28" s="496">
+      <c r="F28" s="495"/>
+      <c r="G28" s="498">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H28" s="498"/>
-      <c r="I28" s="499"/>
-      <c r="J28" s="500"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="507"/>
-      <c r="B29" s="504" t="str">
+      <c r="H28" s="500"/>
+      <c r="I28" s="501"/>
+      <c r="J28" s="502"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="490"/>
+      <c r="B29" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C29" s="505"/>
-      <c r="D29" s="506"/>
-      <c r="E29" s="508"/>
-      <c r="F29" s="495"/>
-      <c r="G29" s="497"/>
-      <c r="H29" s="501"/>
-      <c r="I29" s="502"/>
-      <c r="J29" s="503"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="487">
+      <c r="C29" s="507"/>
+      <c r="D29" s="508"/>
+      <c r="E29" s="496"/>
+      <c r="F29" s="497"/>
+      <c r="G29" s="499"/>
+      <c r="H29" s="503"/>
+      <c r="I29" s="504"/>
+      <c r="J29" s="505"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="489">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="489" t="s">
+      <c r="B30" s="509" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="490"/>
-      <c r="D30" s="491"/>
-      <c r="E30" s="492" t="str">
+      <c r="C30" s="510"/>
+      <c r="D30" s="511"/>
+      <c r="E30" s="494" t="str">
         <f>Данные!C17</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F30" s="493"/>
-      <c r="G30" s="496">
+      <c r="F30" s="495"/>
+      <c r="G30" s="498">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H30" s="498"/>
-      <c r="I30" s="499"/>
-      <c r="J30" s="500"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="507"/>
-      <c r="B31" s="504" t="str">
+      <c r="H30" s="500"/>
+      <c r="I30" s="501"/>
+      <c r="J30" s="502"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="490"/>
+      <c r="B31" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C31" s="505"/>
-      <c r="D31" s="506"/>
-      <c r="E31" s="494"/>
-      <c r="F31" s="495"/>
-      <c r="G31" s="497"/>
-      <c r="H31" s="501"/>
-      <c r="I31" s="502"/>
-      <c r="J31" s="503"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="487">
+      <c r="C31" s="507"/>
+      <c r="D31" s="508"/>
+      <c r="E31" s="513"/>
+      <c r="F31" s="497"/>
+      <c r="G31" s="499"/>
+      <c r="H31" s="503"/>
+      <c r="I31" s="504"/>
+      <c r="J31" s="505"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="489">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="489" t="s">
+      <c r="B32" s="509" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="490"/>
-      <c r="D32" s="491"/>
-      <c r="E32" s="492" t="str">
+      <c r="C32" s="510"/>
+      <c r="D32" s="511"/>
+      <c r="E32" s="494" t="str">
         <f>Данные!C18</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F32" s="493"/>
-      <c r="G32" s="496">
+      <c r="F32" s="495"/>
+      <c r="G32" s="498">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="498"/>
-      <c r="I32" s="499"/>
-      <c r="J32" s="500"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="507"/>
-      <c r="B33" s="504" t="str">
+      <c r="H32" s="500"/>
+      <c r="I32" s="501"/>
+      <c r="J32" s="502"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="490"/>
+      <c r="B33" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C33" s="505"/>
-      <c r="D33" s="506"/>
-      <c r="E33" s="494"/>
-      <c r="F33" s="495"/>
-      <c r="G33" s="497"/>
-      <c r="H33" s="501"/>
-      <c r="I33" s="502"/>
-      <c r="J33" s="503"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="487">
+      <c r="C33" s="507"/>
+      <c r="D33" s="508"/>
+      <c r="E33" s="513"/>
+      <c r="F33" s="497"/>
+      <c r="G33" s="499"/>
+      <c r="H33" s="503"/>
+      <c r="I33" s="504"/>
+      <c r="J33" s="505"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="489">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="489" t="s">
+      <c r="B34" s="509" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="490"/>
-      <c r="D34" s="491"/>
-      <c r="E34" s="492" t="str">
+      <c r="C34" s="510"/>
+      <c r="D34" s="511"/>
+      <c r="E34" s="494" t="str">
         <f>Данные!C19</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F34" s="493"/>
-      <c r="G34" s="496">
+      <c r="F34" s="495"/>
+      <c r="G34" s="498">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="498"/>
-      <c r="I34" s="499"/>
-      <c r="J34" s="500"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="507"/>
-      <c r="B35" s="504" t="str">
+      <c r="H34" s="500"/>
+      <c r="I34" s="501"/>
+      <c r="J34" s="502"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="490"/>
+      <c r="B35" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C35" s="505"/>
-      <c r="D35" s="506"/>
-      <c r="E35" s="494"/>
-      <c r="F35" s="495"/>
-      <c r="G35" s="497"/>
-      <c r="H35" s="501"/>
-      <c r="I35" s="502"/>
-      <c r="J35" s="503"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="487">
+      <c r="C35" s="507"/>
+      <c r="D35" s="508"/>
+      <c r="E35" s="513"/>
+      <c r="F35" s="497"/>
+      <c r="G35" s="499"/>
+      <c r="H35" s="503"/>
+      <c r="I35" s="504"/>
+      <c r="J35" s="505"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="489">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="489" t="s">
+      <c r="B36" s="509" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="490"/>
-      <c r="D36" s="491"/>
-      <c r="E36" s="492" t="str">
+      <c r="C36" s="510"/>
+      <c r="D36" s="511"/>
+      <c r="E36" s="494" t="str">
         <f>Данные!C20</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F36" s="493"/>
-      <c r="G36" s="496">
+      <c r="F36" s="495"/>
+      <c r="G36" s="498">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="498"/>
-      <c r="I36" s="499"/>
-      <c r="J36" s="500"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="507"/>
-      <c r="B37" s="504" t="str">
+      <c r="H36" s="500"/>
+      <c r="I36" s="501"/>
+      <c r="J36" s="502"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="490"/>
+      <c r="B37" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C37" s="505"/>
-      <c r="D37" s="506"/>
-      <c r="E37" s="494"/>
-      <c r="F37" s="495"/>
-      <c r="G37" s="497"/>
-      <c r="H37" s="501"/>
-      <c r="I37" s="502"/>
-      <c r="J37" s="503"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="487">
+      <c r="C37" s="507"/>
+      <c r="D37" s="508"/>
+      <c r="E37" s="513"/>
+      <c r="F37" s="497"/>
+      <c r="G37" s="499"/>
+      <c r="H37" s="503"/>
+      <c r="I37" s="504"/>
+      <c r="J37" s="505"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="489">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="489" t="s">
+      <c r="B38" s="509" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="490"/>
-      <c r="D38" s="491"/>
-      <c r="E38" s="492" t="str">
+      <c r="C38" s="510"/>
+      <c r="D38" s="511"/>
+      <c r="E38" s="494" t="str">
         <f>Данные!C21</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F38" s="493"/>
-      <c r="G38" s="496">
+      <c r="F38" s="495"/>
+      <c r="G38" s="498">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="498"/>
-      <c r="I38" s="499"/>
-      <c r="J38" s="500"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A39" s="507"/>
-      <c r="B39" s="504" t="str">
+      <c r="H38" s="500"/>
+      <c r="I38" s="501"/>
+      <c r="J38" s="502"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="490"/>
+      <c r="B39" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C39" s="505"/>
-      <c r="D39" s="506"/>
-      <c r="E39" s="494"/>
-      <c r="F39" s="495"/>
-      <c r="G39" s="497"/>
-      <c r="H39" s="501"/>
-      <c r="I39" s="502"/>
-      <c r="J39" s="503"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="487">
+      <c r="C39" s="507"/>
+      <c r="D39" s="508"/>
+      <c r="E39" s="513"/>
+      <c r="F39" s="497"/>
+      <c r="G39" s="499"/>
+      <c r="H39" s="503"/>
+      <c r="I39" s="504"/>
+      <c r="J39" s="505"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="489">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="489" t="s">
+      <c r="B40" s="509" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="490"/>
-      <c r="D40" s="491"/>
-      <c r="E40" s="492" t="str">
+      <c r="C40" s="510"/>
+      <c r="D40" s="511"/>
+      <c r="E40" s="494" t="str">
         <f>Данные!C23</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F40" s="493"/>
-      <c r="G40" s="496">
+      <c r="F40" s="495"/>
+      <c r="G40" s="498">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="498"/>
-      <c r="I40" s="499"/>
-      <c r="J40" s="500"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A41" s="507"/>
-      <c r="B41" s="504" t="str">
+      <c r="H40" s="500"/>
+      <c r="I40" s="501"/>
+      <c r="J40" s="502"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="490"/>
+      <c r="B41" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C41" s="505"/>
-      <c r="D41" s="506"/>
-      <c r="E41" s="494"/>
-      <c r="F41" s="495"/>
-      <c r="G41" s="497"/>
-      <c r="H41" s="501"/>
-      <c r="I41" s="502"/>
-      <c r="J41" s="503"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="487">
+      <c r="C41" s="507"/>
+      <c r="D41" s="508"/>
+      <c r="E41" s="513"/>
+      <c r="F41" s="497"/>
+      <c r="G41" s="499"/>
+      <c r="H41" s="503"/>
+      <c r="I41" s="504"/>
+      <c r="J41" s="505"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="489">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="489" t="s">
+      <c r="B42" s="509" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="490"/>
-      <c r="D42" s="491"/>
-      <c r="E42" s="492" t="str">
+      <c r="C42" s="510"/>
+      <c r="D42" s="511"/>
+      <c r="E42" s="494" t="str">
         <f>Данные!C25</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F42" s="493"/>
-      <c r="G42" s="496">
+      <c r="F42" s="495"/>
+      <c r="G42" s="498">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="498"/>
-      <c r="I42" s="499"/>
-      <c r="J42" s="500"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A43" s="507"/>
-      <c r="B43" s="504" t="str">
+      <c r="H42" s="500"/>
+      <c r="I42" s="501"/>
+      <c r="J42" s="502"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="490"/>
+      <c r="B43" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C43" s="505"/>
-      <c r="D43" s="506"/>
-      <c r="E43" s="494"/>
-      <c r="F43" s="495"/>
-      <c r="G43" s="497"/>
-      <c r="H43" s="501"/>
-      <c r="I43" s="502"/>
-      <c r="J43" s="503"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="487">
+      <c r="C43" s="507"/>
+      <c r="D43" s="508"/>
+      <c r="E43" s="513"/>
+      <c r="F43" s="497"/>
+      <c r="G43" s="499"/>
+      <c r="H43" s="503"/>
+      <c r="I43" s="504"/>
+      <c r="J43" s="505"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="489">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="489" t="s">
+      <c r="B44" s="509" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="490"/>
-      <c r="D44" s="491"/>
-      <c r="E44" s="492">
+      <c r="C44" s="510"/>
+      <c r="D44" s="511"/>
+      <c r="E44" s="494">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="493"/>
-      <c r="G44" s="496">
+      <c r="F44" s="495"/>
+      <c r="G44" s="498">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="498"/>
-      <c r="I44" s="499"/>
-      <c r="J44" s="500"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A45" s="507"/>
-      <c r="B45" s="504" t="str">
+      <c r="H44" s="500"/>
+      <c r="I44" s="501"/>
+      <c r="J44" s="502"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="490"/>
+      <c r="B45" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C45" s="505"/>
-      <c r="D45" s="506"/>
-      <c r="E45" s="494"/>
-      <c r="F45" s="495"/>
-      <c r="G45" s="497"/>
-      <c r="H45" s="501"/>
-      <c r="I45" s="502"/>
-      <c r="J45" s="503"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="487">
+      <c r="C45" s="507"/>
+      <c r="D45" s="508"/>
+      <c r="E45" s="513"/>
+      <c r="F45" s="497"/>
+      <c r="G45" s="499"/>
+      <c r="H45" s="503"/>
+      <c r="I45" s="504"/>
+      <c r="J45" s="505"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="489">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="489" t="s">
+      <c r="B46" s="509" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="490"/>
-      <c r="D46" s="491"/>
-      <c r="E46" s="492" t="str">
+      <c r="C46" s="510"/>
+      <c r="D46" s="511"/>
+      <c r="E46" s="494" t="str">
         <f>Данные!C24</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F46" s="493"/>
-      <c r="G46" s="496">
+      <c r="F46" s="495"/>
+      <c r="G46" s="498">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="498"/>
-      <c r="I46" s="499"/>
-      <c r="J46" s="500"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A47" s="507"/>
-      <c r="B47" s="504" t="str">
+      <c r="H46" s="500"/>
+      <c r="I46" s="501"/>
+      <c r="J46" s="502"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="490"/>
+      <c r="B47" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C47" s="505"/>
-      <c r="D47" s="506"/>
-      <c r="E47" s="494"/>
-      <c r="F47" s="495"/>
-      <c r="G47" s="497"/>
-      <c r="H47" s="501"/>
-      <c r="I47" s="502"/>
-      <c r="J47" s="503"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
+      <c r="C47" s="507"/>
+      <c r="D47" s="508"/>
+      <c r="E47" s="513"/>
+      <c r="F47" s="497"/>
+      <c r="G47" s="499"/>
+      <c r="H47" s="503"/>
+      <c r="I47" s="504"/>
+      <c r="J47" s="505"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="313"/>
       <c r="B48" s="313"/>
       <c r="C48" s="313"/>
@@ -11901,7 +12165,7 @@
       <c r="I48" s="313"/>
       <c r="J48" s="314"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="313" t="s">
         <v>72</v>
       </c>
@@ -11915,7 +12179,7 @@
       <c r="I49" s="313"/>
       <c r="J49" s="314"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="313"/>
       <c r="B50" s="313"/>
       <c r="C50" s="313"/>
@@ -11927,7 +12191,7 @@
       <c r="I50" s="313"/>
       <c r="J50" s="314"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="313"/>
       <c r="B51" s="316" t="s">
         <v>73</v>
@@ -11943,7 +12207,7 @@
       <c r="I51" s="313"/>
       <c r="J51" s="314"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="313"/>
       <c r="B52" s="313"/>
       <c r="C52" s="313"/>
@@ -11955,7 +12219,7 @@
       <c r="I52" s="313"/>
       <c r="J52" s="314"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="313"/>
       <c r="B53" s="313"/>
       <c r="C53" s="313"/>
@@ -11969,7 +12233,7 @@
       </c>
       <c r="J53" s="313"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="313"/>
       <c r="B54" s="313"/>
       <c r="C54" s="313"/>
@@ -11980,7 +12244,7 @@
       <c r="I54" s="313"/>
       <c r="J54" s="313"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="313"/>
       <c r="B55" s="313"/>
       <c r="C55" s="313"/>
@@ -11993,14 +12257,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="310"/>
       <c r="B56" s="310"/>
       <c r="C56" s="310"/>
       <c r="D56" s="310"/>
       <c r="E56" s="310"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="310"/>
       <c r="B57" s="310"/>
       <c r="C57" s="310"/>
@@ -12016,70 +12280,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -12096,6 +12296,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12104,7 +12368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12114,20 +12378,20 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12148,49 +12412,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12199,11 +12463,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12220,24 +12484,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="550"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="536"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12246,24 +12510,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="553"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="551"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="538"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12272,29 +12536,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="538">
+      <c r="C7" s="581"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="526">
+      <c r="J7" s="584"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12303,7 +12567,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12324,7 +12588,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12357,7 +12621,7 @@
       <c r="R9" s="327"/>
       <c r="S9" s="199"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12390,7 +12654,7 @@
       <c r="R10" s="329"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -12423,7 +12687,7 @@
       <c r="R11" s="331"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -12456,7 +12720,7 @@
       <c r="R12" s="331"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -12489,7 +12753,7 @@
       <c r="R13" s="331"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -12522,7 +12786,7 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -12555,7 +12819,7 @@
       <c r="R15" s="331"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -12588,7 +12852,7 @@
       <c r="R16" s="331"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>30</v>
@@ -12621,7 +12885,7 @@
       <c r="R17" s="331"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="105" t="s">
         <v>32</v>
@@ -12654,7 +12918,7 @@
       <c r="R18" s="333"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="105" t="s">
         <v>33</v>
@@ -12687,7 +12951,7 @@
       <c r="R19" s="333"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="105" t="s">
         <v>35</v>
@@ -12720,7 +12984,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="105" t="s">
         <v>41</v>
@@ -12753,7 +13017,7 @@
       <c r="R21" s="333"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="105" t="s">
         <v>42</v>
@@ -12786,14 +13050,14 @@
       <c r="R22" s="333"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="561" t="s">
+      <c r="B23" s="585" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="562"/>
-      <c r="D23" s="562"/>
-      <c r="E23" s="563"/>
+      <c r="C23" s="586"/>
+      <c r="D23" s="586"/>
+      <c r="E23" s="587"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -12813,14 +13077,14 @@
       <c r="R23" s="333"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="546" t="s">
+      <c r="B24" s="570" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="547"/>
-      <c r="D24" s="547"/>
-      <c r="E24" s="548"/>
+      <c r="C24" s="571"/>
+      <c r="D24" s="571"/>
+      <c r="E24" s="572"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -12840,7 +13104,7 @@
       <c r="R24" s="335"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="112"/>
       <c r="B25" s="113"/>
       <c r="C25" s="113"/>
@@ -12861,15 +13125,9 @@
       <c r="R25" s="115"/>
       <c r="S25" s="116"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12884,6 +13142,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -12903,7 +13167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12913,20 +13177,20 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12947,52 +13211,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="595">
+      <c r="B2" s="588">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13001,11 +13265,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13022,24 +13286,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13048,24 +13312,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13074,29 +13338,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="538">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="526">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13105,7 +13369,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13126,7 +13390,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13159,7 +13423,7 @@
       <c r="R9" s="327"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13192,7 +13456,7 @@
       <c r="R10" s="329"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -13225,7 +13489,7 @@
       <c r="R11" s="331"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -13258,7 +13522,7 @@
       <c r="R12" s="331"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -13291,15 +13555,15 @@
       <c r="R13" s="331"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="561" t="s">
+      <c r="B14" s="585" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="562"/>
-      <c r="D14" s="562"/>
-      <c r="E14" s="562"/>
-      <c r="F14" s="594"/>
+      <c r="C14" s="586"/>
+      <c r="D14" s="586"/>
+      <c r="E14" s="586"/>
+      <c r="F14" s="617"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -13316,14 +13580,14 @@
       <c r="R14" s="333"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="546" t="s">
+      <c r="B15" s="570" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="547"/>
-      <c r="D15" s="547"/>
-      <c r="E15" s="548"/>
+      <c r="C15" s="571"/>
+      <c r="D15" s="571"/>
+      <c r="E15" s="572"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -13343,7 +13607,7 @@
       <c r="R15" s="335"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="113"/>
@@ -13364,22 +13628,16 @@
       <c r="R16" s="115"/>
       <c r="S16" s="116"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="125"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -13394,6 +13652,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13421,7 +13685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -13431,20 +13695,20 @@
       <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13465,49 +13729,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13516,11 +13780,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13537,24 +13801,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="550"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="536"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13563,24 +13827,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="553"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="551"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="538"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13589,29 +13853,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="538">
+      <c r="C7" s="581"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="526">
+      <c r="J7" s="584"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13620,7 +13884,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13641,7 +13905,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13677,7 +13941,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13713,7 +13977,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -13749,7 +14013,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -13785,7 +14049,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -13821,7 +14085,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -13857,7 +14121,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -13893,7 +14157,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -13929,7 +14193,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="105" t="s">
         <v>32</v>
@@ -13965,7 +14229,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="105" t="s">
         <v>33</v>
@@ -14001,7 +14265,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="105" t="s">
         <v>34</v>
@@ -14037,7 +14301,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="105" t="s">
         <v>35</v>
@@ -14070,7 +14334,7 @@
       <c r="R20" s="335"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="112"/>
       <c r="B21" s="113"/>
       <c r="C21" s="113"/>
@@ -14091,14 +14355,9 @@
       <c r="R21" s="115"/>
       <c r="S21" s="116"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -14112,6 +14371,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -14133,7 +14397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -14143,20 +14407,20 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -14177,26 +14441,26 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -14205,21 +14469,21 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -14228,11 +14492,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -14249,24 +14513,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="550"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="536"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14275,24 +14539,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="553"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="551"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="538"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -14301,29 +14565,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="538">
+      <c r="C7" s="581"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="526">
+      <c r="J7" s="584"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14332,7 +14596,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -14353,7 +14617,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -14386,7 +14650,7 @@
       <c r="R9" s="337"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -14419,7 +14683,7 @@
       <c r="R10" s="339"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -14452,7 +14716,7 @@
       <c r="R11" s="339"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -14485,7 +14749,7 @@
       <c r="R12" s="339"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -14518,7 +14782,7 @@
       <c r="R13" s="339"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -14551,7 +14815,7 @@
       <c r="R14" s="339"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -14584,7 +14848,7 @@
       <c r="R15" s="341"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -14605,20 +14869,9 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -14626,6 +14879,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14648,7 +14912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14661,20 +14925,20 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14695,26 +14959,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="619"/>
       <c r="N2" s="620"/>
       <c r="O2" s="620"/>
@@ -14723,21 +14987,21 @@
       <c r="R2" s="621"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="622"/>
       <c r="N3" s="623"/>
       <c r="O3" s="623"/>
@@ -14746,11 +15010,11 @@
       <c r="R3" s="624"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14767,24 +15031,24 @@
       <c r="R4" s="624"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="535" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="536"/>
-      <c r="F5" s="536"/>
-      <c r="G5" s="536"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="537"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="622"/>
       <c r="N5" s="623"/>
       <c r="O5" s="623"/>
@@ -14793,24 +15057,24 @@
       <c r="R5" s="624"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="529" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="537"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="622"/>
       <c r="N6" s="623"/>
       <c r="O6" s="623"/>
@@ -14819,29 +15083,29 @@
       <c r="R6" s="624"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="538">
+      <c r="C7" s="615"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="526">
+      <c r="J7" s="615"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="527"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="622"/>
       <c r="N7" s="623"/>
       <c r="O7" s="623"/>
@@ -14850,7 +15114,7 @@
       <c r="R7" s="624"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14871,7 +15135,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -14904,7 +15168,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -14937,7 +15201,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="202" t="s">
         <v>26</v>
@@ -14970,7 +15234,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="202" t="s">
         <v>2</v>
@@ -15003,7 +15267,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="202" t="s">
         <v>3</v>
@@ -15036,7 +15300,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -15069,7 +15333,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -15102,7 +15366,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -15135,7 +15399,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -15168,7 +15432,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -15201,7 +15465,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -15234,7 +15498,7 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="97" t="s">
         <v>39</v>
@@ -15267,14 +15531,14 @@
       <c r="R20" s="108"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="546" t="s">
+      <c r="B21" s="570" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="547"/>
-      <c r="D21" s="547"/>
-      <c r="E21" s="548"/>
+      <c r="C21" s="571"/>
+      <c r="D21" s="571"/>
+      <c r="E21" s="572"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -15294,7 +15558,7 @@
       <c r="R21" s="111"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="112"/>
       <c r="B22" s="113"/>
       <c r="C22" s="113"/>
@@ -15315,11 +15579,18 @@
       <c r="R22" s="115"/>
       <c r="S22" s="116"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -15332,13 +15603,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-B-30-4A-500 (Байрон)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11365ED-3D2F-4293-8824-E6A8E6EA9947}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE5ABE1-59DC-4420-ABD5-748B5D3606EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="147">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2183,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="637">
+  <cellXfs count="639">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3480,41 +3483,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3569,6 +3546,48 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3988,19 +4007,19 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6570,374 +6589,374 @@
       <c r="J3" s="314"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="487" t="s">
+      <c r="A4" s="489" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="487" t="s">
+      <c r="B4" s="489" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="487"/>
-      <c r="D4" s="487"/>
-      <c r="E4" s="487" t="s">
+      <c r="C4" s="489"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="489" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="487"/>
-      <c r="G4" s="488" t="s">
+      <c r="F4" s="489"/>
+      <c r="G4" s="490" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="487" t="s">
+      <c r="H4" s="489" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="487"/>
-      <c r="J4" s="487"/>
+      <c r="I4" s="489"/>
+      <c r="J4" s="489"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="487"/>
-      <c r="B5" s="487"/>
-      <c r="C5" s="487"/>
-      <c r="D5" s="487"/>
-      <c r="E5" s="487"/>
-      <c r="F5" s="487"/>
-      <c r="G5" s="488"/>
-      <c r="H5" s="487"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="487"/>
+      <c r="A5" s="489"/>
+      <c r="B5" s="489"/>
+      <c r="C5" s="489"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="489"/>
+      <c r="F5" s="489"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="489"/>
+      <c r="I5" s="489"/>
+      <c r="J5" s="489"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="489">
+      <c r="A6" s="491">
         <v>1</v>
       </c>
-      <c r="B6" s="491" t="s">
+      <c r="B6" s="493" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="492"/>
-      <c r="D6" s="493"/>
-      <c r="E6" s="494"/>
-      <c r="F6" s="495"/>
-      <c r="G6" s="498"/>
-      <c r="H6" s="500"/>
-      <c r="I6" s="501"/>
-      <c r="J6" s="502"/>
+      <c r="C6" s="494"/>
+      <c r="D6" s="495"/>
+      <c r="E6" s="496"/>
+      <c r="F6" s="497"/>
+      <c r="G6" s="500"/>
+      <c r="H6" s="502"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="504"/>
     </row>
     <row r="7" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="490"/>
-      <c r="B7" s="506"/>
-      <c r="C7" s="507"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="496"/>
-      <c r="F7" s="497"/>
-      <c r="G7" s="499"/>
-      <c r="H7" s="503"/>
-      <c r="I7" s="504"/>
-      <c r="J7" s="505"/>
+      <c r="A7" s="492"/>
+      <c r="B7" s="508"/>
+      <c r="C7" s="509"/>
+      <c r="D7" s="510"/>
+      <c r="E7" s="498"/>
+      <c r="F7" s="499"/>
+      <c r="G7" s="501"/>
+      <c r="H7" s="505"/>
+      <c r="I7" s="506"/>
+      <c r="J7" s="507"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="489">
+      <c r="A8" s="491">
         <v>1</v>
       </c>
-      <c r="B8" s="509" t="s">
+      <c r="B8" s="511" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="510"/>
-      <c r="D8" s="511"/>
-      <c r="E8" s="494"/>
-      <c r="F8" s="495"/>
-      <c r="G8" s="498"/>
-      <c r="H8" s="500"/>
-      <c r="I8" s="501"/>
-      <c r="J8" s="502"/>
+      <c r="C8" s="512"/>
+      <c r="D8" s="513"/>
+      <c r="E8" s="496"/>
+      <c r="F8" s="497"/>
+      <c r="G8" s="500"/>
+      <c r="H8" s="502"/>
+      <c r="I8" s="503"/>
+      <c r="J8" s="504"/>
     </row>
     <row r="9" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="490"/>
-      <c r="B9" s="506"/>
-      <c r="C9" s="507"/>
-      <c r="D9" s="508"/>
-      <c r="E9" s="496"/>
-      <c r="F9" s="497"/>
-      <c r="G9" s="499"/>
-      <c r="H9" s="503"/>
-      <c r="I9" s="504"/>
-      <c r="J9" s="505"/>
+      <c r="A9" s="492"/>
+      <c r="B9" s="508"/>
+      <c r="C9" s="509"/>
+      <c r="D9" s="510"/>
+      <c r="E9" s="498"/>
+      <c r="F9" s="499"/>
+      <c r="G9" s="501"/>
+      <c r="H9" s="505"/>
+      <c r="I9" s="506"/>
+      <c r="J9" s="507"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="489">
+      <c r="A10" s="491">
         <v>1</v>
       </c>
-      <c r="B10" s="509" t="s">
+      <c r="B10" s="511" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="510"/>
-      <c r="D10" s="511"/>
-      <c r="E10" s="494"/>
-      <c r="F10" s="495"/>
-      <c r="G10" s="498"/>
-      <c r="H10" s="500"/>
-      <c r="I10" s="501"/>
-      <c r="J10" s="502"/>
+      <c r="C10" s="512"/>
+      <c r="D10" s="513"/>
+      <c r="E10" s="496"/>
+      <c r="F10" s="497"/>
+      <c r="G10" s="500"/>
+      <c r="H10" s="502"/>
+      <c r="I10" s="503"/>
+      <c r="J10" s="504"/>
     </row>
     <row r="11" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="490"/>
-      <c r="B11" s="506"/>
-      <c r="C11" s="507"/>
-      <c r="D11" s="508"/>
-      <c r="E11" s="496"/>
-      <c r="F11" s="497"/>
-      <c r="G11" s="499"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="504"/>
-      <c r="J11" s="505"/>
+      <c r="A11" s="492"/>
+      <c r="B11" s="508"/>
+      <c r="C11" s="509"/>
+      <c r="D11" s="510"/>
+      <c r="E11" s="498"/>
+      <c r="F11" s="499"/>
+      <c r="G11" s="501"/>
+      <c r="H11" s="505"/>
+      <c r="I11" s="506"/>
+      <c r="J11" s="507"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="489">
+      <c r="A12" s="491">
         <v>1</v>
       </c>
-      <c r="B12" s="509" t="s">
+      <c r="B12" s="511" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="510"/>
-      <c r="D12" s="511"/>
-      <c r="E12" s="494"/>
-      <c r="F12" s="495"/>
-      <c r="G12" s="498"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="501"/>
-      <c r="J12" s="502"/>
+      <c r="C12" s="512"/>
+      <c r="D12" s="513"/>
+      <c r="E12" s="496"/>
+      <c r="F12" s="497"/>
+      <c r="G12" s="500"/>
+      <c r="H12" s="502"/>
+      <c r="I12" s="503"/>
+      <c r="J12" s="504"/>
     </row>
     <row r="13" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="512"/>
-      <c r="B13" s="506"/>
-      <c r="C13" s="507"/>
-      <c r="D13" s="508"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="497"/>
-      <c r="G13" s="499"/>
-      <c r="H13" s="503"/>
-      <c r="I13" s="504"/>
-      <c r="J13" s="505"/>
+      <c r="A13" s="514"/>
+      <c r="B13" s="508"/>
+      <c r="C13" s="509"/>
+      <c r="D13" s="510"/>
+      <c r="E13" s="515"/>
+      <c r="F13" s="499"/>
+      <c r="G13" s="501"/>
+      <c r="H13" s="505"/>
+      <c r="I13" s="506"/>
+      <c r="J13" s="507"/>
     </row>
     <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="489">
+      <c r="A14" s="491">
         <v>1</v>
       </c>
-      <c r="B14" s="509" t="s">
+      <c r="B14" s="511" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="510"/>
-      <c r="D14" s="511"/>
-      <c r="E14" s="494"/>
-      <c r="F14" s="495"/>
-      <c r="G14" s="498"/>
-      <c r="H14" s="500"/>
-      <c r="I14" s="501"/>
-      <c r="J14" s="502"/>
+      <c r="C14" s="512"/>
+      <c r="D14" s="513"/>
+      <c r="E14" s="496"/>
+      <c r="F14" s="497"/>
+      <c r="G14" s="500"/>
+      <c r="H14" s="502"/>
+      <c r="I14" s="503"/>
+      <c r="J14" s="504"/>
     </row>
     <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="512"/>
-      <c r="B15" s="506"/>
-      <c r="C15" s="507"/>
-      <c r="D15" s="508"/>
-      <c r="E15" s="513"/>
-      <c r="F15" s="497"/>
-      <c r="G15" s="499"/>
-      <c r="H15" s="503"/>
-      <c r="I15" s="504"/>
-      <c r="J15" s="505"/>
+      <c r="A15" s="514"/>
+      <c r="B15" s="508"/>
+      <c r="C15" s="509"/>
+      <c r="D15" s="510"/>
+      <c r="E15" s="515"/>
+      <c r="F15" s="499"/>
+      <c r="G15" s="501"/>
+      <c r="H15" s="505"/>
+      <c r="I15" s="506"/>
+      <c r="J15" s="507"/>
     </row>
     <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="489">
+      <c r="A16" s="491">
         <v>1</v>
       </c>
-      <c r="B16" s="509" t="s">
+      <c r="B16" s="511" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="510"/>
-      <c r="D16" s="511"/>
-      <c r="E16" s="494"/>
-      <c r="F16" s="495"/>
-      <c r="G16" s="498"/>
-      <c r="H16" s="500"/>
-      <c r="I16" s="501"/>
-      <c r="J16" s="502"/>
+      <c r="C16" s="512"/>
+      <c r="D16" s="513"/>
+      <c r="E16" s="496"/>
+      <c r="F16" s="497"/>
+      <c r="G16" s="500"/>
+      <c r="H16" s="502"/>
+      <c r="I16" s="503"/>
+      <c r="J16" s="504"/>
     </row>
     <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="512"/>
-      <c r="B17" s="506"/>
-      <c r="C17" s="507"/>
-      <c r="D17" s="508"/>
-      <c r="E17" s="513"/>
-      <c r="F17" s="497"/>
-      <c r="G17" s="499"/>
-      <c r="H17" s="503"/>
-      <c r="I17" s="504"/>
-      <c r="J17" s="505"/>
+      <c r="A17" s="514"/>
+      <c r="B17" s="508"/>
+      <c r="C17" s="509"/>
+      <c r="D17" s="510"/>
+      <c r="E17" s="515"/>
+      <c r="F17" s="499"/>
+      <c r="G17" s="501"/>
+      <c r="H17" s="505"/>
+      <c r="I17" s="506"/>
+      <c r="J17" s="507"/>
     </row>
     <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="489">
+      <c r="A18" s="491">
         <v>1</v>
       </c>
-      <c r="B18" s="509" t="s">
+      <c r="B18" s="511" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="510"/>
-      <c r="D18" s="511"/>
-      <c r="E18" s="494"/>
-      <c r="F18" s="495"/>
-      <c r="G18" s="498"/>
-      <c r="H18" s="500"/>
-      <c r="I18" s="501"/>
-      <c r="J18" s="502"/>
+      <c r="C18" s="512"/>
+      <c r="D18" s="513"/>
+      <c r="E18" s="496"/>
+      <c r="F18" s="497"/>
+      <c r="G18" s="500"/>
+      <c r="H18" s="502"/>
+      <c r="I18" s="503"/>
+      <c r="J18" s="504"/>
     </row>
     <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="512"/>
-      <c r="B19" s="506"/>
-      <c r="C19" s="507"/>
-      <c r="D19" s="508"/>
-      <c r="E19" s="513"/>
-      <c r="F19" s="497"/>
-      <c r="G19" s="499"/>
-      <c r="H19" s="503"/>
-      <c r="I19" s="504"/>
-      <c r="J19" s="505"/>
+      <c r="A19" s="514"/>
+      <c r="B19" s="508"/>
+      <c r="C19" s="509"/>
+      <c r="D19" s="510"/>
+      <c r="E19" s="515"/>
+      <c r="F19" s="499"/>
+      <c r="G19" s="501"/>
+      <c r="H19" s="505"/>
+      <c r="I19" s="506"/>
+      <c r="J19" s="507"/>
     </row>
     <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="489">
+      <c r="A20" s="491">
         <v>1</v>
       </c>
-      <c r="B20" s="509" t="s">
+      <c r="B20" s="511" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="510"/>
-      <c r="D20" s="511"/>
-      <c r="E20" s="494"/>
-      <c r="F20" s="495"/>
-      <c r="G20" s="498"/>
-      <c r="H20" s="500"/>
-      <c r="I20" s="501"/>
-      <c r="J20" s="502"/>
+      <c r="C20" s="512"/>
+      <c r="D20" s="513"/>
+      <c r="E20" s="496"/>
+      <c r="F20" s="497"/>
+      <c r="G20" s="500"/>
+      <c r="H20" s="502"/>
+      <c r="I20" s="503"/>
+      <c r="J20" s="504"/>
     </row>
     <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="512"/>
-      <c r="B21" s="506"/>
-      <c r="C21" s="507"/>
-      <c r="D21" s="508"/>
-      <c r="E21" s="513"/>
-      <c r="F21" s="497"/>
-      <c r="G21" s="499"/>
-      <c r="H21" s="503"/>
-      <c r="I21" s="504"/>
-      <c r="J21" s="505"/>
+      <c r="A21" s="514"/>
+      <c r="B21" s="508"/>
+      <c r="C21" s="509"/>
+      <c r="D21" s="510"/>
+      <c r="E21" s="515"/>
+      <c r="F21" s="499"/>
+      <c r="G21" s="501"/>
+      <c r="H21" s="505"/>
+      <c r="I21" s="506"/>
+      <c r="J21" s="507"/>
     </row>
     <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="489">
+      <c r="A22" s="491">
         <v>1</v>
       </c>
-      <c r="B22" s="509" t="s">
+      <c r="B22" s="511" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="510"/>
-      <c r="D22" s="511"/>
-      <c r="E22" s="494"/>
-      <c r="F22" s="495"/>
-      <c r="G22" s="498"/>
-      <c r="H22" s="500"/>
-      <c r="I22" s="501"/>
-      <c r="J22" s="502"/>
+      <c r="C22" s="512"/>
+      <c r="D22" s="513"/>
+      <c r="E22" s="496"/>
+      <c r="F22" s="497"/>
+      <c r="G22" s="500"/>
+      <c r="H22" s="502"/>
+      <c r="I22" s="503"/>
+      <c r="J22" s="504"/>
     </row>
     <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="512"/>
-      <c r="B23" s="506"/>
-      <c r="C23" s="507"/>
-      <c r="D23" s="508"/>
-      <c r="E23" s="513"/>
-      <c r="F23" s="497"/>
-      <c r="G23" s="499"/>
-      <c r="H23" s="503"/>
-      <c r="I23" s="504"/>
-      <c r="J23" s="505"/>
+      <c r="A23" s="514"/>
+      <c r="B23" s="508"/>
+      <c r="C23" s="509"/>
+      <c r="D23" s="510"/>
+      <c r="E23" s="515"/>
+      <c r="F23" s="499"/>
+      <c r="G23" s="501"/>
+      <c r="H23" s="505"/>
+      <c r="I23" s="506"/>
+      <c r="J23" s="507"/>
     </row>
     <row r="24" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="489">
+      <c r="A24" s="491">
         <v>1</v>
       </c>
-      <c r="B24" s="509" t="s">
+      <c r="B24" s="511" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="510"/>
-      <c r="D24" s="511"/>
-      <c r="E24" s="494"/>
-      <c r="F24" s="495"/>
-      <c r="G24" s="498"/>
-      <c r="H24" s="500"/>
-      <c r="I24" s="501"/>
-      <c r="J24" s="502"/>
+      <c r="C24" s="512"/>
+      <c r="D24" s="513"/>
+      <c r="E24" s="496"/>
+      <c r="F24" s="497"/>
+      <c r="G24" s="500"/>
+      <c r="H24" s="502"/>
+      <c r="I24" s="503"/>
+      <c r="J24" s="504"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="512"/>
-      <c r="B25" s="506"/>
-      <c r="C25" s="507"/>
-      <c r="D25" s="508"/>
-      <c r="E25" s="513"/>
-      <c r="F25" s="497"/>
-      <c r="G25" s="499"/>
-      <c r="H25" s="503"/>
-      <c r="I25" s="504"/>
-      <c r="J25" s="505"/>
+      <c r="A25" s="514"/>
+      <c r="B25" s="508"/>
+      <c r="C25" s="509"/>
+      <c r="D25" s="510"/>
+      <c r="E25" s="515"/>
+      <c r="F25" s="499"/>
+      <c r="G25" s="501"/>
+      <c r="H25" s="505"/>
+      <c r="I25" s="506"/>
+      <c r="J25" s="507"/>
     </row>
     <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="489">
+      <c r="A26" s="491">
         <v>1</v>
       </c>
-      <c r="B26" s="509" t="s">
+      <c r="B26" s="511" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="510"/>
-      <c r="D26" s="511"/>
-      <c r="E26" s="494"/>
-      <c r="F26" s="495"/>
-      <c r="G26" s="498"/>
-      <c r="H26" s="500"/>
-      <c r="I26" s="501"/>
-      <c r="J26" s="502"/>
+      <c r="C26" s="512"/>
+      <c r="D26" s="513"/>
+      <c r="E26" s="496"/>
+      <c r="F26" s="497"/>
+      <c r="G26" s="500"/>
+      <c r="H26" s="502"/>
+      <c r="I26" s="503"/>
+      <c r="J26" s="504"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="512"/>
-      <c r="B27" s="506"/>
-      <c r="C27" s="507"/>
-      <c r="D27" s="508"/>
-      <c r="E27" s="513"/>
-      <c r="F27" s="497"/>
-      <c r="G27" s="499"/>
-      <c r="H27" s="503"/>
-      <c r="I27" s="504"/>
-      <c r="J27" s="505"/>
+      <c r="A27" s="514"/>
+      <c r="B27" s="508"/>
+      <c r="C27" s="509"/>
+      <c r="D27" s="510"/>
+      <c r="E27" s="515"/>
+      <c r="F27" s="499"/>
+      <c r="G27" s="501"/>
+      <c r="H27" s="505"/>
+      <c r="I27" s="506"/>
+      <c r="J27" s="507"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="489">
+      <c r="A28" s="491">
         <v>1</v>
       </c>
-      <c r="B28" s="509" t="s">
+      <c r="B28" s="511" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="510"/>
-      <c r="D28" s="511"/>
-      <c r="E28" s="494"/>
-      <c r="F28" s="495"/>
-      <c r="G28" s="498"/>
-      <c r="H28" s="500"/>
-      <c r="I28" s="501"/>
-      <c r="J28" s="502"/>
+      <c r="C28" s="512"/>
+      <c r="D28" s="513"/>
+      <c r="E28" s="496"/>
+      <c r="F28" s="497"/>
+      <c r="G28" s="500"/>
+      <c r="H28" s="502"/>
+      <c r="I28" s="503"/>
+      <c r="J28" s="504"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="512"/>
-      <c r="B29" s="506"/>
-      <c r="C29" s="507"/>
-      <c r="D29" s="508"/>
-      <c r="E29" s="513"/>
-      <c r="F29" s="497"/>
-      <c r="G29" s="499"/>
-      <c r="H29" s="503"/>
-      <c r="I29" s="504"/>
-      <c r="J29" s="505"/>
+      <c r="A29" s="514"/>
+      <c r="B29" s="508"/>
+      <c r="C29" s="509"/>
+      <c r="D29" s="510"/>
+      <c r="E29" s="515"/>
+      <c r="F29" s="499"/>
+      <c r="G29" s="501"/>
+      <c r="H29" s="505"/>
+      <c r="I29" s="506"/>
+      <c r="J29" s="507"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="313"/>
@@ -6951,90 +6970,90 @@
       <c r="I30" s="313"/>
       <c r="J30" s="314"/>
     </row>
-    <row r="31" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="481"/>
-      <c r="B31" s="481"/>
-      <c r="C31" s="481"/>
-      <c r="D31" s="481"/>
-      <c r="E31" s="481"/>
-      <c r="F31" s="481"/>
-      <c r="G31" s="481"/>
-      <c r="H31" s="481"/>
-      <c r="I31" s="481"/>
-      <c r="J31" s="482"/>
-    </row>
-    <row r="32" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="481"/>
-      <c r="B32" s="481"/>
-      <c r="C32" s="481"/>
-      <c r="D32" s="484"/>
-      <c r="E32" s="484"/>
-      <c r="F32" s="484"/>
-      <c r="G32" s="484"/>
-      <c r="H32" s="484"/>
-      <c r="I32" s="481"/>
-      <c r="J32" s="482"/>
-    </row>
-    <row r="33" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="481"/>
-      <c r="B33" s="485"/>
-      <c r="C33" s="481"/>
-      <c r="D33" s="481"/>
-      <c r="E33" s="481"/>
-      <c r="F33" s="481"/>
-      <c r="G33" s="481"/>
-      <c r="H33" s="481"/>
-      <c r="I33" s="481"/>
-      <c r="J33" s="482"/>
-    </row>
-    <row r="34" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="481"/>
-      <c r="B34" s="481"/>
-      <c r="C34" s="481"/>
-      <c r="D34" s="481"/>
-      <c r="E34" s="481"/>
-      <c r="F34" s="481"/>
-      <c r="G34" s="481"/>
-      <c r="H34" s="481"/>
-      <c r="I34" s="481"/>
-      <c r="J34" s="482"/>
-    </row>
-    <row r="35" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="481"/>
-      <c r="B35" s="481"/>
-      <c r="C35" s="481"/>
-      <c r="D35" s="481"/>
-      <c r="E35" s="481"/>
-      <c r="G35" s="481"/>
-      <c r="H35" s="481"/>
-      <c r="I35" s="481"/>
-      <c r="J35" s="481"/>
-    </row>
-    <row r="36" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="481"/>
-      <c r="B36" s="481"/>
-      <c r="C36" s="481"/>
-      <c r="D36" s="481"/>
-      <c r="E36" s="481"/>
-      <c r="G36" s="481"/>
-      <c r="H36" s="481"/>
-      <c r="I36" s="481"/>
-      <c r="J36" s="481"/>
-    </row>
-    <row r="37" spans="1:10" s="483" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="481"/>
-      <c r="B37" s="481"/>
-      <c r="C37" s="481"/>
-      <c r="D37" s="481"/>
-      <c r="E37" s="481"/>
-      <c r="I37" s="481"/>
-    </row>
-    <row r="38" spans="1:10" s="483" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="486"/>
-      <c r="B38" s="486"/>
-      <c r="C38" s="486"/>
-      <c r="D38" s="486"/>
-      <c r="E38" s="486"/>
+    <row r="31" spans="1:10" s="471" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="469"/>
+      <c r="B31" s="469"/>
+      <c r="C31" s="469"/>
+      <c r="D31" s="469"/>
+      <c r="E31" s="469"/>
+      <c r="F31" s="469"/>
+      <c r="G31" s="469"/>
+      <c r="H31" s="469"/>
+      <c r="I31" s="469"/>
+      <c r="J31" s="470"/>
+    </row>
+    <row r="32" spans="1:10" s="471" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="469"/>
+      <c r="B32" s="469"/>
+      <c r="C32" s="469"/>
+      <c r="D32" s="472"/>
+      <c r="E32" s="472"/>
+      <c r="F32" s="472"/>
+      <c r="G32" s="472"/>
+      <c r="H32" s="472"/>
+      <c r="I32" s="469"/>
+      <c r="J32" s="470"/>
+    </row>
+    <row r="33" spans="1:10" s="471" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="469"/>
+      <c r="B33" s="473"/>
+      <c r="C33" s="469"/>
+      <c r="D33" s="469"/>
+      <c r="E33" s="469"/>
+      <c r="F33" s="469"/>
+      <c r="G33" s="469"/>
+      <c r="H33" s="469"/>
+      <c r="I33" s="469"/>
+      <c r="J33" s="470"/>
+    </row>
+    <row r="34" spans="1:10" s="471" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="469"/>
+      <c r="B34" s="469"/>
+      <c r="C34" s="469"/>
+      <c r="D34" s="469"/>
+      <c r="E34" s="469"/>
+      <c r="F34" s="469"/>
+      <c r="G34" s="469"/>
+      <c r="H34" s="469"/>
+      <c r="I34" s="469"/>
+      <c r="J34" s="470"/>
+    </row>
+    <row r="35" spans="1:10" s="471" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="469"/>
+      <c r="B35" s="469"/>
+      <c r="C35" s="469"/>
+      <c r="D35" s="469"/>
+      <c r="E35" s="469"/>
+      <c r="G35" s="469"/>
+      <c r="H35" s="469"/>
+      <c r="I35" s="469"/>
+      <c r="J35" s="469"/>
+    </row>
+    <row r="36" spans="1:10" s="471" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="469"/>
+      <c r="B36" s="469"/>
+      <c r="C36" s="469"/>
+      <c r="D36" s="469"/>
+      <c r="E36" s="469"/>
+      <c r="G36" s="469"/>
+      <c r="H36" s="469"/>
+      <c r="I36" s="469"/>
+      <c r="J36" s="469"/>
+    </row>
+    <row r="37" spans="1:10" s="471" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="469"/>
+      <c r="B37" s="469"/>
+      <c r="C37" s="469"/>
+      <c r="D37" s="469"/>
+      <c r="E37" s="469"/>
+      <c r="I37" s="469"/>
+    </row>
+    <row r="38" spans="1:10" s="471" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="474"/>
+      <c r="B38" s="474"/>
+      <c r="C38" s="474"/>
+      <c r="D38" s="474"/>
+      <c r="E38" s="474"/>
     </row>
     <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="310"/>
@@ -7182,47 +7201,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="625"/>
-      <c r="Q2" s="625"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -7233,9 +7252,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7254,22 +7273,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="541"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7280,22 +7299,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7306,27 +7325,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="617"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="617"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="531"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -7589,12 +7608,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="570" t="s">
+      <c r="B16" s="572" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="571"/>
-      <c r="D16" s="571"/>
-      <c r="E16" s="572"/>
+      <c r="C16" s="573"/>
+      <c r="D16" s="573"/>
+      <c r="E16" s="574"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -7726,47 +7745,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7777,9 +7796,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7798,22 +7817,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="541"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7824,22 +7843,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7850,27 +7869,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="617"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="617"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="531"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -8339,47 +8358,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8390,9 +8409,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8411,22 +8430,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="541"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8437,22 +8456,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8463,27 +8482,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="617"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="617"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="531"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8812,12 +8831,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
-      <c r="B18" s="628" t="s">
+      <c r="B18" s="630" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="629"/>
-      <c r="D18" s="629"/>
-      <c r="E18" s="630"/>
+      <c r="C18" s="631"/>
+      <c r="D18" s="631"/>
+      <c r="E18" s="632"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8965,47 +8984,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -9016,9 +9035,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9037,22 +9056,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="541"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -9063,22 +9082,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -9089,27 +9108,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="617"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="617"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="531"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9573,47 +9592,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="633">
+      <c r="J2" s="606"/>
+      <c r="K2" s="634">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="634"/>
+      <c r="L2" s="635"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="632"/>
-      <c r="Q2" s="632"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="635"/>
-      <c r="L3" s="636"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="636"/>
+      <c r="L3" s="637"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9624,9 +9643,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9645,22 +9664,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="541"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9671,22 +9690,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9697,27 +9716,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="617"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="617"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="531"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9990,6 +10009,7 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -10007,7 +10027,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -10036,8 +10055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10057,49 +10076,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="516" t="s">
+      <c r="A1" s="518" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
+      <c r="B1" s="518"/>
+      <c r="C1" s="518"/>
+      <c r="D1" s="518"/>
+      <c r="E1" s="518"/>
+      <c r="F1" s="518"/>
+      <c r="G1" s="518"/>
+      <c r="H1" s="518"/>
+      <c r="I1" s="518"/>
       <c r="J1" s="392"/>
       <c r="K1" s="392"/>
       <c r="L1" s="392"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="516" t="s">
+      <c r="A2" s="518" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="516"/>
-      <c r="C2" s="516"/>
-      <c r="D2" s="516"/>
-      <c r="E2" s="516"/>
-      <c r="F2" s="516"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
+      <c r="B2" s="518"/>
+      <c r="C2" s="518"/>
+      <c r="D2" s="518"/>
+      <c r="E2" s="518"/>
+      <c r="F2" s="518"/>
+      <c r="G2" s="518"/>
+      <c r="H2" s="518"/>
+      <c r="I2" s="518"/>
       <c r="J2" s="393"/>
       <c r="K2" s="393"/>
       <c r="L2" s="393"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="517" t="s">
+      <c r="A3" s="519" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="517"/>
-      <c r="C3" s="517"/>
-      <c r="D3" s="517"/>
-      <c r="E3" s="517"/>
-      <c r="F3" s="517"/>
-      <c r="G3" s="517"/>
-      <c r="H3" s="517"/>
-      <c r="I3" s="517"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="519"/>
+      <c r="E3" s="519"/>
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
       <c r="K3" s="394"/>
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
@@ -10150,7 +10169,7 @@
       <c r="A6" s="403">
         <v>1</v>
       </c>
-      <c r="B6" s="477" t="str">
+      <c r="B6" s="465" t="str">
         <f>Данные!A14</f>
         <v>Чистовая форма</v>
       </c>
@@ -10495,11 +10514,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="478" t="str">
+      <c r="B17" s="466" t="str">
         <f>Данные!A25</f>
         <v>Дутьевая головка</v>
       </c>
-      <c r="C17" s="480" t="str">
+      <c r="C17" s="468" t="str">
         <f>Данные!C25</f>
         <v>В-30-4А-500</v>
       </c>
@@ -10523,7 +10542,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="422"/>
-      <c r="B18" s="479"/>
+      <c r="B18" s="467"/>
       <c r="C18" s="395"/>
       <c r="D18" s="395"/>
       <c r="E18" s="395"/>
@@ -10639,11 +10658,11 @@
         <v>4.7461103896103897E-2</v>
       </c>
       <c r="H22" s="439">
-        <f>H21-F22</f>
+        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
         <v>13637184</v>
       </c>
       <c r="I22" s="440">
-        <f>I21-G22</f>
+        <f t="shared" si="2"/>
         <v>0.88553142857142852</v>
       </c>
       <c r="J22" s="395"/>
@@ -10652,160 +10671,236 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="441"/>
-      <c r="B23" s="442"/>
-      <c r="C23" s="442"/>
-      <c r="D23" s="442"/>
-      <c r="E23" s="443"/>
-      <c r="F23" s="443"/>
-      <c r="G23" s="444"/>
-      <c r="H23" s="445"/>
-      <c r="I23" s="446"/>
+      <c r="B23" s="442">
+        <v>44033</v>
+      </c>
+      <c r="C23" s="442">
+        <v>44035</v>
+      </c>
+      <c r="D23" s="442">
+        <v>44041</v>
+      </c>
+      <c r="E23" s="443">
+        <v>408660</v>
+      </c>
+      <c r="F23" s="443">
+        <v>432734</v>
+      </c>
+      <c r="G23" s="432">
+        <f>F23/A$21</f>
+        <v>2.809961038961039E-2</v>
+      </c>
+      <c r="H23" s="439">
+        <f t="shared" si="2"/>
+        <v>13204450</v>
+      </c>
+      <c r="I23" s="440">
+        <f t="shared" si="2"/>
+        <v>0.85743181818181813</v>
+      </c>
       <c r="J23" s="435"/>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="441"/>
-      <c r="B24" s="387"/>
-      <c r="C24" s="387"/>
-      <c r="D24" s="387"/>
-      <c r="E24" s="387"/>
-      <c r="F24" s="387"/>
-      <c r="G24" s="387"/>
-      <c r="H24" s="387"/>
-      <c r="I24" s="447"/>
+      <c r="B24" s="381">
+        <v>44133</v>
+      </c>
+      <c r="C24" s="384" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="381">
+        <v>44137</v>
+      </c>
+      <c r="E24" s="484">
+        <v>411600</v>
+      </c>
+      <c r="F24" s="484">
+        <v>439463</v>
+      </c>
+      <c r="G24" s="432">
+        <f>F24/A$21</f>
+        <v>2.8536558441558443E-2</v>
+      </c>
+      <c r="H24" s="439">
+        <f t="shared" si="2"/>
+        <v>12764987</v>
+      </c>
+      <c r="I24" s="440">
+        <f t="shared" si="2"/>
+        <v>0.82889525974025968</v>
+      </c>
       <c r="J24" s="435"/>
       <c r="K24" s="435"/>
       <c r="L24" s="395"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="441"/>
-      <c r="B25" s="442"/>
-      <c r="C25" s="442"/>
-      <c r="D25" s="442"/>
-      <c r="E25" s="443"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="448"/>
-      <c r="H25" s="445"/>
-      <c r="I25" s="446"/>
+      <c r="B25" s="488" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="381">
+        <v>44136</v>
+      </c>
+      <c r="D25" s="381">
+        <v>44166</v>
+      </c>
+      <c r="E25" s="485">
+        <v>141120</v>
+      </c>
+      <c r="F25" s="485">
+        <v>146210</v>
+      </c>
+      <c r="G25" s="476">
+        <f>F25/A$21</f>
+        <v>9.4941558441558448E-3</v>
+      </c>
+      <c r="H25" s="439">
+        <f t="shared" ref="H25" si="3">H24-F25</f>
+        <v>12618777</v>
+      </c>
+      <c r="I25" s="440">
+        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <v>0.81940110389610388</v>
+      </c>
       <c r="J25" s="435"/>
-      <c r="K25" s="449"/>
+      <c r="K25" s="445"/>
       <c r="L25" s="395"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="441"/>
-      <c r="B26" s="442"/>
-      <c r="C26" s="442"/>
-      <c r="D26" s="442"/>
-      <c r="E26" s="443"/>
-      <c r="F26" s="443"/>
-      <c r="G26" s="448"/>
-      <c r="H26" s="445"/>
-      <c r="I26" s="446"/>
+      <c r="B26" s="381">
+        <v>44270</v>
+      </c>
+      <c r="C26" s="381">
+        <v>44272</v>
+      </c>
+      <c r="D26" s="381">
+        <v>44287</v>
+      </c>
+      <c r="E26" s="485">
+        <v>405720</v>
+      </c>
+      <c r="F26" s="485">
+        <v>438556</v>
+      </c>
+      <c r="G26" s="476">
+        <f>F26/A$21</f>
+        <v>2.8477662337662336E-2</v>
+      </c>
+      <c r="H26" s="439">
+        <f t="shared" ref="H26" si="5">H25-F26</f>
+        <v>12180221</v>
+      </c>
+      <c r="I26" s="440">
+        <f t="shared" ref="I26" si="6">I25-G26</f>
+        <v>0.79092344155844152</v>
+      </c>
       <c r="J26" s="435"/>
       <c r="K26" s="435"/>
       <c r="L26" s="395"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="441"/>
-      <c r="B27" s="442"/>
-      <c r="C27" s="442"/>
-      <c r="D27" s="442"/>
-      <c r="E27" s="445"/>
-      <c r="F27" s="443"/>
-      <c r="G27" s="448"/>
-      <c r="H27" s="445"/>
-      <c r="I27" s="446"/>
+      <c r="B27" s="381"/>
+      <c r="C27" s="381"/>
+      <c r="D27" s="381"/>
+      <c r="E27" s="485"/>
+      <c r="F27" s="485"/>
+      <c r="G27" s="476"/>
+      <c r="H27" s="475"/>
+      <c r="I27" s="444"/>
       <c r="J27" s="435"/>
       <c r="K27" s="435"/>
       <c r="L27" s="395"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="441"/>
-      <c r="B28" s="442"/>
-      <c r="C28" s="442"/>
-      <c r="D28" s="442"/>
-      <c r="E28" s="445"/>
-      <c r="F28" s="443"/>
-      <c r="G28" s="448"/>
-      <c r="H28" s="445"/>
-      <c r="I28" s="446"/>
+      <c r="B28" s="381"/>
+      <c r="C28" s="381"/>
+      <c r="D28" s="381"/>
+      <c r="E28" s="485"/>
+      <c r="F28" s="485"/>
+      <c r="G28" s="476"/>
+      <c r="H28" s="475"/>
+      <c r="I28" s="444"/>
       <c r="J28" s="435"/>
       <c r="K28" s="435"/>
       <c r="L28" s="395"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="441"/>
-      <c r="B29" s="442"/>
-      <c r="C29" s="442"/>
-      <c r="D29" s="387"/>
-      <c r="E29" s="387"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="450"/>
-      <c r="H29" s="445"/>
-      <c r="I29" s="451"/>
+      <c r="B29" s="381"/>
+      <c r="C29" s="381"/>
+      <c r="D29" s="378"/>
+      <c r="E29" s="484"/>
+      <c r="F29" s="485"/>
+      <c r="G29" s="477"/>
+      <c r="H29" s="475"/>
+      <c r="I29" s="478"/>
       <c r="J29" s="435"/>
       <c r="K29" s="435"/>
       <c r="L29" s="395"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="441"/>
-      <c r="B30" s="442"/>
-      <c r="C30" s="442"/>
-      <c r="D30" s="387"/>
-      <c r="E30" s="387"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="448"/>
-      <c r="H30" s="445"/>
-      <c r="I30" s="451"/>
+      <c r="B30" s="381"/>
+      <c r="C30" s="381"/>
+      <c r="D30" s="378"/>
+      <c r="E30" s="484"/>
+      <c r="F30" s="485"/>
+      <c r="G30" s="476"/>
+      <c r="H30" s="475"/>
+      <c r="I30" s="478"/>
       <c r="J30" s="435"/>
       <c r="K30" s="435"/>
       <c r="L30" s="395"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="452"/>
-      <c r="B31" s="453"/>
-      <c r="C31" s="453"/>
-      <c r="D31" s="454"/>
-      <c r="E31" s="454"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="456"/>
-      <c r="H31" s="457"/>
-      <c r="I31" s="458"/>
+      <c r="A31" s="446"/>
+      <c r="B31" s="479"/>
+      <c r="C31" s="479"/>
+      <c r="D31" s="480"/>
+      <c r="E31" s="486"/>
+      <c r="F31" s="487"/>
+      <c r="G31" s="481"/>
+      <c r="H31" s="482"/>
+      <c r="I31" s="483"/>
       <c r="J31" s="395"/>
       <c r="K31" s="395"/>
       <c r="L31" s="395"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="459" t="s">
+      <c r="A32" s="447" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="460"/>
-      <c r="C32" s="460"/>
-      <c r="D32" s="461"/>
-      <c r="E32" s="462">
+      <c r="B32" s="448"/>
+      <c r="C32" s="448"/>
+      <c r="D32" s="449"/>
+      <c r="E32" s="450">
         <f>SUM(E21:E31)</f>
-        <v>1572846</v>
-      </c>
-      <c r="F32" s="463">
+        <v>2939946</v>
+      </c>
+      <c r="F32" s="451">
         <f>SUM(F21:F31)</f>
-        <v>1762816</v>
-      </c>
-      <c r="G32" s="464">
+        <v>3219779</v>
+      </c>
+      <c r="G32" s="452">
         <f>SUM(G21:G31)</f>
-        <v>0.11446857142857142</v>
-      </c>
-      <c r="H32" s="465">
+        <v>0.20907655844155842</v>
+      </c>
+      <c r="H32" s="453">
         <f>A21-F32</f>
-        <v>13637184</v>
-      </c>
-      <c r="I32" s="466">
+        <v>12180221</v>
+      </c>
+      <c r="I32" s="454">
         <f>1-G32</f>
-        <v>0.88553142857142864</v>
-      </c>
-      <c r="J32" s="467"/>
-      <c r="K32" s="467"/>
-      <c r="L32" s="467"/>
+        <v>0.79092344155844163</v>
+      </c>
+      <c r="J32" s="455"/>
+      <c r="K32" s="455"/>
+      <c r="L32" s="455"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="395"/>
@@ -10820,12 +10915,12 @@
       <c r="J35" s="395"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="518" t="s">
+      <c r="A36" s="520" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="518"/>
-      <c r="C36" s="518"/>
-      <c r="D36" s="518"/>
+      <c r="B36" s="520"/>
+      <c r="C36" s="520"/>
+      <c r="D36" s="520"/>
       <c r="E36" s="395"/>
       <c r="F36" s="395"/>
       <c r="G36" s="395"/>
@@ -10834,14 +10929,14 @@
       <c r="J36" s="395"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="519" t="s">
+      <c r="A37" s="521" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="519"/>
-      <c r="C37" s="468" t="s">
+      <c r="B37" s="521"/>
+      <c r="C37" s="456" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="468" t="s">
+      <c r="D37" s="456" t="s">
         <v>144</v>
       </c>
       <c r="E37" s="395"/>
@@ -10852,27 +10947,27 @@
       <c r="J37" s="395"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="514">
+      <c r="A38" s="516">
         <f>A21-F32</f>
-        <v>13637184</v>
-      </c>
-      <c r="B38" s="515"/>
-      <c r="C38" s="469">
+        <v>12180221</v>
+      </c>
+      <c r="B38" s="517"/>
+      <c r="C38" s="457">
         <f>1-G32</f>
-        <v>0.88553142857142864</v>
-      </c>
-      <c r="D38" s="470">
+        <v>0.79092344155844163</v>
+      </c>
+      <c r="D38" s="458">
         <f>(C38/0.8)*100</f>
-        <v>110.69142857142857</v>
-      </c>
-      <c r="E38" s="471" t="s">
+        <v>98.865430194805199</v>
+      </c>
+      <c r="E38" s="459" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="471"/>
-      <c r="G38" s="471"/>
-      <c r="H38" s="471"/>
-      <c r="I38" s="471"/>
-      <c r="J38" s="471"/>
+      <c r="F38" s="459"/>
+      <c r="G38" s="459"/>
+      <c r="H38" s="459"/>
+      <c r="I38" s="459"/>
+      <c r="J38" s="459"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="395"/>
@@ -10899,8 +10994,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="395"/>
-      <c r="B41" s="472"/>
-      <c r="C41" s="472"/>
+      <c r="B41" s="460"/>
+      <c r="C41" s="460"/>
       <c r="D41" s="395"/>
       <c r="E41" s="395"/>
       <c r="F41" s="395"/>
@@ -10910,113 +11005,113 @@
       <c r="J41" s="395"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="473"/>
-      <c r="B42" s="473"/>
-      <c r="C42" s="473"/>
-      <c r="D42" s="473"/>
-      <c r="E42" s="473"/>
-      <c r="F42" s="473"/>
-      <c r="G42" s="473"/>
-      <c r="H42" s="473"/>
-      <c r="I42" s="520"/>
-      <c r="J42" s="521"/>
+      <c r="A42" s="461"/>
+      <c r="B42" s="461"/>
+      <c r="C42" s="461"/>
+      <c r="D42" s="461"/>
+      <c r="E42" s="461"/>
+      <c r="F42" s="461"/>
+      <c r="G42" s="461"/>
+      <c r="H42" s="461"/>
+      <c r="I42" s="522"/>
+      <c r="J42" s="523"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="474"/>
-      <c r="B43" s="475"/>
-      <c r="C43" s="475"/>
+      <c r="A43" s="462"/>
+      <c r="B43" s="463"/>
+      <c r="C43" s="463"/>
       <c r="D43" s="395"/>
       <c r="E43" s="395"/>
-      <c r="F43" s="475"/>
+      <c r="F43" s="463"/>
       <c r="G43" s="421"/>
-      <c r="H43" s="475"/>
+      <c r="H43" s="463"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="474"/>
-      <c r="B44" s="475"/>
-      <c r="C44" s="475"/>
-      <c r="D44" s="475"/>
-      <c r="E44" s="475"/>
-      <c r="F44" s="475"/>
+      <c r="A44" s="462"/>
+      <c r="B44" s="463"/>
+      <c r="C44" s="463"/>
+      <c r="D44" s="463"/>
+      <c r="E44" s="463"/>
+      <c r="F44" s="463"/>
       <c r="G44" s="421"/>
-      <c r="H44" s="475"/>
+      <c r="H44" s="463"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="474"/>
-      <c r="B45" s="475"/>
-      <c r="C45" s="475"/>
+      <c r="A45" s="462"/>
+      <c r="B45" s="463"/>
+      <c r="C45" s="463"/>
       <c r="D45" s="395"/>
       <c r="E45" s="395"/>
-      <c r="F45" s="475"/>
+      <c r="F45" s="463"/>
       <c r="G45" s="421"/>
-      <c r="H45" s="475"/>
+      <c r="H45" s="463"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="474"/>
-      <c r="B46" s="475"/>
-      <c r="C46" s="475"/>
-      <c r="D46" s="475"/>
-      <c r="E46" s="475"/>
-      <c r="F46" s="475"/>
+      <c r="A46" s="462"/>
+      <c r="B46" s="463"/>
+      <c r="C46" s="463"/>
+      <c r="D46" s="463"/>
+      <c r="E46" s="463"/>
+      <c r="F46" s="463"/>
       <c r="G46" s="421"/>
-      <c r="H46" s="475"/>
+      <c r="H46" s="463"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="474"/>
-      <c r="B47" s="475"/>
-      <c r="C47" s="475"/>
+      <c r="A47" s="462"/>
+      <c r="B47" s="463"/>
+      <c r="C47" s="463"/>
       <c r="D47" s="395"/>
       <c r="E47" s="395"/>
-      <c r="F47" s="475"/>
+      <c r="F47" s="463"/>
       <c r="G47" s="421"/>
-      <c r="H47" s="475"/>
+      <c r="H47" s="463"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="474"/>
-      <c r="B48" s="475"/>
+      <c r="A48" s="462"/>
+      <c r="B48" s="463"/>
       <c r="C48" s="413"/>
-      <c r="D48" s="476"/>
-      <c r="E48" s="476"/>
+      <c r="D48" s="464"/>
+      <c r="E48" s="464"/>
       <c r="F48" s="413"/>
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="474"/>
-      <c r="B49" s="475"/>
-      <c r="C49" s="475"/>
-      <c r="D49" s="475"/>
-      <c r="E49" s="475"/>
-      <c r="F49" s="475"/>
+      <c r="A49" s="462"/>
+      <c r="B49" s="463"/>
+      <c r="C49" s="463"/>
+      <c r="D49" s="463"/>
+      <c r="E49" s="463"/>
+      <c r="F49" s="463"/>
       <c r="G49" s="421"/>
-      <c r="H49" s="475"/>
+      <c r="H49" s="463"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="474"/>
-      <c r="B50" s="475"/>
-      <c r="C50" s="475"/>
-      <c r="D50" s="475"/>
-      <c r="E50" s="475"/>
-      <c r="F50" s="475"/>
+      <c r="A50" s="462"/>
+      <c r="B50" s="463"/>
+      <c r="C50" s="463"/>
+      <c r="D50" s="463"/>
+      <c r="E50" s="463"/>
+      <c r="F50" s="463"/>
       <c r="G50" s="421"/>
-      <c r="H50" s="475"/>
+      <c r="H50" s="463"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="474"/>
-      <c r="B51" s="475"/>
-      <c r="C51" s="475"/>
+      <c r="A51" s="462"/>
+      <c r="B51" s="463"/>
+      <c r="C51" s="463"/>
       <c r="D51" s="395"/>
       <c r="E51" s="395"/>
-      <c r="F51" s="475"/>
+      <c r="F51" s="463"/>
       <c r="G51" s="421"/>
-      <c r="H51" s="475"/>
+      <c r="H51" s="463"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="395"/>
-      <c r="B52" s="522"/>
-      <c r="C52" s="522"/>
-      <c r="D52" s="523"/>
-      <c r="E52" s="471"/>
+      <c r="B52" s="524"/>
+      <c r="C52" s="524"/>
+      <c r="D52" s="525"/>
+      <c r="E52" s="459"/>
       <c r="F52" s="395"/>
       <c r="G52" s="395"/>
       <c r="H52" s="395"/>
@@ -11024,31 +11119,31 @@
       <c r="J52" s="395"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="473"/>
-      <c r="B53" s="473"/>
-      <c r="C53" s="473"/>
-      <c r="D53" s="473"/>
-      <c r="E53" s="473"/>
-      <c r="F53" s="473"/>
-      <c r="G53" s="473"/>
-      <c r="H53" s="473"/>
-      <c r="I53" s="520"/>
-      <c r="J53" s="521"/>
+      <c r="A53" s="461"/>
+      <c r="B53" s="461"/>
+      <c r="C53" s="461"/>
+      <c r="D53" s="461"/>
+      <c r="E53" s="461"/>
+      <c r="F53" s="461"/>
+      <c r="G53" s="461"/>
+      <c r="H53" s="461"/>
+      <c r="I53" s="522"/>
+      <c r="J53" s="523"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="474"/>
+      <c r="A54" s="462"/>
       <c r="B54" s="395"/>
       <c r="C54" s="395"/>
       <c r="D54" s="395"/>
       <c r="E54" s="395"/>
       <c r="F54" s="421"/>
       <c r="G54" s="421"/>
-      <c r="H54" s="475"/>
-      <c r="I54" s="524"/>
-      <c r="J54" s="524"/>
+      <c r="H54" s="463"/>
+      <c r="I54" s="526"/>
+      <c r="J54" s="526"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="474"/>
+      <c r="A55" s="462"/>
       <c r="B55" s="395"/>
       <c r="C55" s="395"/>
       <c r="D55" s="413"/>
@@ -11056,8 +11151,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="524"/>
-      <c r="J55" s="524"/>
+      <c r="I55" s="526"/>
+      <c r="J55" s="526"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="395"/>
@@ -11070,12 +11165,12 @@
       <c r="H56" s="395"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="520"/>
-      <c r="C61" s="521"/>
+      <c r="B61" s="522"/>
+      <c r="C61" s="523"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="520"/>
-      <c r="C68" s="521"/>
+      <c r="B68" s="522"/>
+      <c r="C68" s="523"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11093,8 +11188,9 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
@@ -11118,25 +11214,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="530" t="s">
+      <c r="A1" s="532" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="534"/>
-      <c r="C1" s="534"/>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
+      <c r="B1" s="536"/>
+      <c r="C1" s="536"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
       <c r="G1" s="373" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="531" t="s">
+      <c r="A2" s="533" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="532"/>
-      <c r="C2" s="532"/>
-      <c r="D2" s="532"/>
-      <c r="E2" s="533"/>
+      <c r="B2" s="534"/>
+      <c r="C2" s="534"/>
+      <c r="D2" s="534"/>
+      <c r="E2" s="535"/>
       <c r="G2" s="372" t="s">
         <v>80</v>
       </c>
@@ -11147,45 +11243,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="535" t="s">
+      <c r="A4" s="537" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="536"/>
-      <c r="C4" s="536"/>
-      <c r="D4" s="536"/>
-      <c r="E4" s="536"/>
+      <c r="B4" s="538"/>
+      <c r="C4" s="538"/>
+      <c r="D4" s="538"/>
+      <c r="E4" s="538"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="537" t="s">
+      <c r="A5" s="539" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="538"/>
-      <c r="C5" s="538"/>
-      <c r="D5" s="538"/>
-      <c r="E5" s="539"/>
+      <c r="B5" s="540"/>
+      <c r="C5" s="540"/>
+      <c r="D5" s="540"/>
+      <c r="E5" s="541"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="530" t="s">
+      <c r="A7" s="532" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="534"/>
-      <c r="C7" s="534"/>
-      <c r="D7" s="534"/>
-      <c r="E7" s="534"/>
+      <c r="B7" s="536"/>
+      <c r="C7" s="536"/>
+      <c r="D7" s="536"/>
+      <c r="E7" s="536"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="540"/>
-      <c r="B8" s="541"/>
-      <c r="C8" s="541"/>
-      <c r="D8" s="541"/>
-      <c r="E8" s="542"/>
+      <c r="A8" s="542"/>
+      <c r="B8" s="543"/>
+      <c r="C8" s="543"/>
+      <c r="D8" s="543"/>
+      <c r="E8" s="544"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="530" t="s">
+      <c r="A10" s="532" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="530"/>
+      <c r="B10" s="532"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>95</v>
@@ -11196,33 +11292,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="528"/>
-      <c r="B11" s="529"/>
+      <c r="A11" s="530"/>
+      <c r="B11" s="531"/>
       <c r="D11" s="381">
         <v>43753</v>
       </c>
-      <c r="F11" s="525" t="s">
+      <c r="F11" s="527" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="525"/>
-      <c r="H11" s="525"/>
-      <c r="I11" s="525"/>
-      <c r="J11" s="526" t="s">
+      <c r="G11" s="527"/>
+      <c r="H11" s="527"/>
+      <c r="I11" s="527"/>
+      <c r="J11" s="528" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="526"/>
+      <c r="K11" s="528"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="525" t="s">
+      <c r="F12" s="527" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="525"/>
-      <c r="H12" s="525"/>
-      <c r="I12" s="525"/>
-      <c r="J12" s="526" t="s">
+      <c r="G12" s="527"/>
+      <c r="H12" s="527"/>
+      <c r="I12" s="527"/>
+      <c r="J12" s="528" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="526"/>
+      <c r="K12" s="528"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="375" t="s">
@@ -11234,16 +11330,16 @@
       <c r="C13" s="386" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="525" t="s">
+      <c r="F13" s="527" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="525"/>
-      <c r="H13" s="525"/>
-      <c r="I13" s="525"/>
-      <c r="J13" s="526" t="s">
+      <c r="G13" s="527"/>
+      <c r="H13" s="527"/>
+      <c r="I13" s="527"/>
+      <c r="J13" s="528" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="526"/>
+      <c r="K13" s="528"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="377" t="s">
@@ -11395,11 +11491,11 @@
       <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="527" t="s">
+      <c r="A29" s="529" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="527"/>
-      <c r="C29" s="527"/>
+      <c r="B29" s="529"/>
+      <c r="C29" s="529"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -11500,47 +11596,47 @@
       <c r="J8" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="544" t="s">
+      <c r="A11" s="546" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="544"/>
-      <c r="C11" s="544"/>
-      <c r="D11" s="544"/>
-      <c r="E11" s="544"/>
-      <c r="F11" s="544"/>
-      <c r="G11" s="544"/>
-      <c r="H11" s="544"/>
-      <c r="I11" s="544"/>
-      <c r="J11" s="544"/>
+      <c r="B11" s="546"/>
+      <c r="C11" s="546"/>
+      <c r="D11" s="546"/>
+      <c r="E11" s="546"/>
+      <c r="F11" s="546"/>
+      <c r="G11" s="546"/>
+      <c r="H11" s="546"/>
+      <c r="I11" s="546"/>
+      <c r="J11" s="546"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="543" t="s">
+      <c r="A12" s="545" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="543"/>
-      <c r="C12" s="543"/>
-      <c r="D12" s="543"/>
-      <c r="E12" s="543"/>
-      <c r="F12" s="543"/>
-      <c r="G12" s="543"/>
-      <c r="H12" s="543"/>
-      <c r="I12" s="543"/>
-      <c r="J12" s="543"/>
+      <c r="B12" s="545"/>
+      <c r="C12" s="545"/>
+      <c r="D12" s="545"/>
+      <c r="E12" s="545"/>
+      <c r="F12" s="545"/>
+      <c r="G12" s="545"/>
+      <c r="H12" s="545"/>
+      <c r="I12" s="545"/>
+      <c r="J12" s="545"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="545" t="str">
+      <c r="A13" s="547" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="B13" s="544"/>
-      <c r="C13" s="544"/>
-      <c r="D13" s="544"/>
-      <c r="E13" s="544"/>
-      <c r="F13" s="544"/>
-      <c r="G13" s="544"/>
-      <c r="H13" s="544"/>
-      <c r="I13" s="544"/>
-      <c r="J13" s="544"/>
+      <c r="B13" s="546"/>
+      <c r="C13" s="546"/>
+      <c r="D13" s="546"/>
+      <c r="E13" s="546"/>
+      <c r="F13" s="546"/>
+      <c r="G13" s="546"/>
+      <c r="H13" s="546"/>
+      <c r="I13" s="546"/>
+      <c r="J13" s="546"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
@@ -11665,493 +11761,493 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="487" t="s">
+      <c r="A22" s="489" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="487" t="s">
+      <c r="B22" s="489" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="487"/>
-      <c r="D22" s="487"/>
-      <c r="E22" s="487" t="s">
+      <c r="C22" s="489"/>
+      <c r="D22" s="489"/>
+      <c r="E22" s="489" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="487"/>
-      <c r="G22" s="488" t="s">
+      <c r="F22" s="489"/>
+      <c r="G22" s="490" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="487" t="s">
+      <c r="H22" s="489" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="487"/>
-      <c r="J22" s="487"/>
+      <c r="I22" s="489"/>
+      <c r="J22" s="489"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="487"/>
-      <c r="B23" s="487"/>
-      <c r="C23" s="487"/>
-      <c r="D23" s="487"/>
-      <c r="E23" s="487"/>
-      <c r="F23" s="487"/>
-      <c r="G23" s="488"/>
-      <c r="H23" s="487"/>
-      <c r="I23" s="487"/>
-      <c r="J23" s="487"/>
+      <c r="A23" s="489"/>
+      <c r="B23" s="489"/>
+      <c r="C23" s="489"/>
+      <c r="D23" s="489"/>
+      <c r="E23" s="489"/>
+      <c r="F23" s="489"/>
+      <c r="G23" s="490"/>
+      <c r="H23" s="489"/>
+      <c r="I23" s="489"/>
+      <c r="J23" s="489"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="489">
+      <c r="A24" s="491">
         <v>1</v>
       </c>
-      <c r="B24" s="491" t="s">
+      <c r="B24" s="493" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="492"/>
-      <c r="D24" s="493"/>
-      <c r="E24" s="494" t="str">
+      <c r="C24" s="494"/>
+      <c r="D24" s="495"/>
+      <c r="E24" s="496" t="str">
         <f>Данные!C14</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F24" s="495"/>
-      <c r="G24" s="498">
+      <c r="F24" s="497"/>
+      <c r="G24" s="500">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="500"/>
-      <c r="I24" s="501"/>
-      <c r="J24" s="502"/>
+      <c r="H24" s="502"/>
+      <c r="I24" s="503"/>
+      <c r="J24" s="504"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="490"/>
-      <c r="B25" s="506" t="str">
+      <c r="A25" s="492"/>
+      <c r="B25" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C25" s="507"/>
-      <c r="D25" s="508"/>
-      <c r="E25" s="496"/>
-      <c r="F25" s="497"/>
-      <c r="G25" s="499"/>
-      <c r="H25" s="503"/>
-      <c r="I25" s="504"/>
-      <c r="J25" s="505"/>
+      <c r="C25" s="509"/>
+      <c r="D25" s="510"/>
+      <c r="E25" s="498"/>
+      <c r="F25" s="499"/>
+      <c r="G25" s="501"/>
+      <c r="H25" s="505"/>
+      <c r="I25" s="506"/>
+      <c r="J25" s="507"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="489">
+      <c r="A26" s="491">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="509" t="s">
+      <c r="B26" s="511" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="510"/>
-      <c r="D26" s="511"/>
-      <c r="E26" s="494" t="str">
+      <c r="C26" s="512"/>
+      <c r="D26" s="513"/>
+      <c r="E26" s="496" t="str">
         <f>Данные!C15</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F26" s="495"/>
-      <c r="G26" s="498">
+      <c r="F26" s="497"/>
+      <c r="G26" s="500">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="500"/>
-      <c r="I26" s="501"/>
-      <c r="J26" s="502"/>
+      <c r="H26" s="502"/>
+      <c r="I26" s="503"/>
+      <c r="J26" s="504"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="490"/>
-      <c r="B27" s="506" t="str">
+      <c r="A27" s="492"/>
+      <c r="B27" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C27" s="507"/>
-      <c r="D27" s="508"/>
-      <c r="E27" s="496"/>
-      <c r="F27" s="497"/>
-      <c r="G27" s="499"/>
-      <c r="H27" s="503"/>
-      <c r="I27" s="504"/>
-      <c r="J27" s="505"/>
+      <c r="C27" s="509"/>
+      <c r="D27" s="510"/>
+      <c r="E27" s="498"/>
+      <c r="F27" s="499"/>
+      <c r="G27" s="501"/>
+      <c r="H27" s="505"/>
+      <c r="I27" s="506"/>
+      <c r="J27" s="507"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="489">
+      <c r="A28" s="491">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="509" t="s">
+      <c r="B28" s="511" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="510"/>
-      <c r="D28" s="511"/>
-      <c r="E28" s="494" t="str">
+      <c r="C28" s="512"/>
+      <c r="D28" s="513"/>
+      <c r="E28" s="496" t="str">
         <f>Данные!C16</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F28" s="495"/>
-      <c r="G28" s="498">
+      <c r="F28" s="497"/>
+      <c r="G28" s="500">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H28" s="500"/>
-      <c r="I28" s="501"/>
-      <c r="J28" s="502"/>
+      <c r="H28" s="502"/>
+      <c r="I28" s="503"/>
+      <c r="J28" s="504"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="490"/>
-      <c r="B29" s="506" t="str">
+      <c r="A29" s="492"/>
+      <c r="B29" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C29" s="507"/>
-      <c r="D29" s="508"/>
-      <c r="E29" s="496"/>
-      <c r="F29" s="497"/>
-      <c r="G29" s="499"/>
-      <c r="H29" s="503"/>
-      <c r="I29" s="504"/>
-      <c r="J29" s="505"/>
+      <c r="C29" s="509"/>
+      <c r="D29" s="510"/>
+      <c r="E29" s="498"/>
+      <c r="F29" s="499"/>
+      <c r="G29" s="501"/>
+      <c r="H29" s="505"/>
+      <c r="I29" s="506"/>
+      <c r="J29" s="507"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="489">
+      <c r="A30" s="491">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="509" t="s">
+      <c r="B30" s="511" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="510"/>
-      <c r="D30" s="511"/>
-      <c r="E30" s="494" t="str">
+      <c r="C30" s="512"/>
+      <c r="D30" s="513"/>
+      <c r="E30" s="496" t="str">
         <f>Данные!C17</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F30" s="495"/>
-      <c r="G30" s="498">
+      <c r="F30" s="497"/>
+      <c r="G30" s="500">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H30" s="500"/>
-      <c r="I30" s="501"/>
-      <c r="J30" s="502"/>
+      <c r="H30" s="502"/>
+      <c r="I30" s="503"/>
+      <c r="J30" s="504"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="490"/>
-      <c r="B31" s="506" t="str">
+      <c r="A31" s="492"/>
+      <c r="B31" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C31" s="507"/>
-      <c r="D31" s="508"/>
-      <c r="E31" s="513"/>
-      <c r="F31" s="497"/>
-      <c r="G31" s="499"/>
-      <c r="H31" s="503"/>
-      <c r="I31" s="504"/>
-      <c r="J31" s="505"/>
+      <c r="C31" s="509"/>
+      <c r="D31" s="510"/>
+      <c r="E31" s="515"/>
+      <c r="F31" s="499"/>
+      <c r="G31" s="501"/>
+      <c r="H31" s="505"/>
+      <c r="I31" s="506"/>
+      <c r="J31" s="507"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="489">
+      <c r="A32" s="491">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="509" t="s">
+      <c r="B32" s="511" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="510"/>
-      <c r="D32" s="511"/>
-      <c r="E32" s="494" t="str">
+      <c r="C32" s="512"/>
+      <c r="D32" s="513"/>
+      <c r="E32" s="496" t="str">
         <f>Данные!C18</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F32" s="495"/>
-      <c r="G32" s="498">
+      <c r="F32" s="497"/>
+      <c r="G32" s="500">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="500"/>
-      <c r="I32" s="501"/>
-      <c r="J32" s="502"/>
+      <c r="H32" s="502"/>
+      <c r="I32" s="503"/>
+      <c r="J32" s="504"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="490"/>
-      <c r="B33" s="506" t="str">
+      <c r="A33" s="492"/>
+      <c r="B33" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C33" s="507"/>
-      <c r="D33" s="508"/>
-      <c r="E33" s="513"/>
-      <c r="F33" s="497"/>
-      <c r="G33" s="499"/>
-      <c r="H33" s="503"/>
-      <c r="I33" s="504"/>
-      <c r="J33" s="505"/>
+      <c r="C33" s="509"/>
+      <c r="D33" s="510"/>
+      <c r="E33" s="515"/>
+      <c r="F33" s="499"/>
+      <c r="G33" s="501"/>
+      <c r="H33" s="505"/>
+      <c r="I33" s="506"/>
+      <c r="J33" s="507"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="489">
+      <c r="A34" s="491">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="509" t="s">
+      <c r="B34" s="511" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="510"/>
-      <c r="D34" s="511"/>
-      <c r="E34" s="494" t="str">
+      <c r="C34" s="512"/>
+      <c r="D34" s="513"/>
+      <c r="E34" s="496" t="str">
         <f>Данные!C19</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F34" s="495"/>
-      <c r="G34" s="498">
+      <c r="F34" s="497"/>
+      <c r="G34" s="500">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="500"/>
-      <c r="I34" s="501"/>
-      <c r="J34" s="502"/>
+      <c r="H34" s="502"/>
+      <c r="I34" s="503"/>
+      <c r="J34" s="504"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="490"/>
-      <c r="B35" s="506" t="str">
+      <c r="A35" s="492"/>
+      <c r="B35" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C35" s="507"/>
-      <c r="D35" s="508"/>
-      <c r="E35" s="513"/>
-      <c r="F35" s="497"/>
-      <c r="G35" s="499"/>
-      <c r="H35" s="503"/>
-      <c r="I35" s="504"/>
-      <c r="J35" s="505"/>
+      <c r="C35" s="509"/>
+      <c r="D35" s="510"/>
+      <c r="E35" s="515"/>
+      <c r="F35" s="499"/>
+      <c r="G35" s="501"/>
+      <c r="H35" s="505"/>
+      <c r="I35" s="506"/>
+      <c r="J35" s="507"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="489">
+      <c r="A36" s="491">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="509" t="s">
+      <c r="B36" s="511" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="510"/>
-      <c r="D36" s="511"/>
-      <c r="E36" s="494" t="str">
+      <c r="C36" s="512"/>
+      <c r="D36" s="513"/>
+      <c r="E36" s="496" t="str">
         <f>Данные!C20</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F36" s="495"/>
-      <c r="G36" s="498">
+      <c r="F36" s="497"/>
+      <c r="G36" s="500">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="500"/>
-      <c r="I36" s="501"/>
-      <c r="J36" s="502"/>
+      <c r="H36" s="502"/>
+      <c r="I36" s="503"/>
+      <c r="J36" s="504"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="490"/>
-      <c r="B37" s="506" t="str">
+      <c r="A37" s="492"/>
+      <c r="B37" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C37" s="507"/>
-      <c r="D37" s="508"/>
-      <c r="E37" s="513"/>
-      <c r="F37" s="497"/>
-      <c r="G37" s="499"/>
-      <c r="H37" s="503"/>
-      <c r="I37" s="504"/>
-      <c r="J37" s="505"/>
+      <c r="C37" s="509"/>
+      <c r="D37" s="510"/>
+      <c r="E37" s="515"/>
+      <c r="F37" s="499"/>
+      <c r="G37" s="501"/>
+      <c r="H37" s="505"/>
+      <c r="I37" s="506"/>
+      <c r="J37" s="507"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="489">
+      <c r="A38" s="491">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="509" t="s">
+      <c r="B38" s="511" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="510"/>
-      <c r="D38" s="511"/>
-      <c r="E38" s="494" t="str">
+      <c r="C38" s="512"/>
+      <c r="D38" s="513"/>
+      <c r="E38" s="496" t="str">
         <f>Данные!C21</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F38" s="495"/>
-      <c r="G38" s="498">
+      <c r="F38" s="497"/>
+      <c r="G38" s="500">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="500"/>
-      <c r="I38" s="501"/>
-      <c r="J38" s="502"/>
+      <c r="H38" s="502"/>
+      <c r="I38" s="503"/>
+      <c r="J38" s="504"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="490"/>
-      <c r="B39" s="506" t="str">
+      <c r="A39" s="492"/>
+      <c r="B39" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C39" s="507"/>
-      <c r="D39" s="508"/>
-      <c r="E39" s="513"/>
-      <c r="F39" s="497"/>
-      <c r="G39" s="499"/>
-      <c r="H39" s="503"/>
-      <c r="I39" s="504"/>
-      <c r="J39" s="505"/>
+      <c r="C39" s="509"/>
+      <c r="D39" s="510"/>
+      <c r="E39" s="515"/>
+      <c r="F39" s="499"/>
+      <c r="G39" s="501"/>
+      <c r="H39" s="505"/>
+      <c r="I39" s="506"/>
+      <c r="J39" s="507"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="489">
+      <c r="A40" s="491">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="509" t="s">
+      <c r="B40" s="511" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="510"/>
-      <c r="D40" s="511"/>
-      <c r="E40" s="494" t="str">
+      <c r="C40" s="512"/>
+      <c r="D40" s="513"/>
+      <c r="E40" s="496" t="str">
         <f>Данные!C23</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F40" s="495"/>
-      <c r="G40" s="498">
+      <c r="F40" s="497"/>
+      <c r="G40" s="500">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="500"/>
-      <c r="I40" s="501"/>
-      <c r="J40" s="502"/>
+      <c r="H40" s="502"/>
+      <c r="I40" s="503"/>
+      <c r="J40" s="504"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="490"/>
-      <c r="B41" s="506" t="str">
+      <c r="A41" s="492"/>
+      <c r="B41" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C41" s="507"/>
-      <c r="D41" s="508"/>
-      <c r="E41" s="513"/>
-      <c r="F41" s="497"/>
-      <c r="G41" s="499"/>
-      <c r="H41" s="503"/>
-      <c r="I41" s="504"/>
-      <c r="J41" s="505"/>
+      <c r="C41" s="509"/>
+      <c r="D41" s="510"/>
+      <c r="E41" s="515"/>
+      <c r="F41" s="499"/>
+      <c r="G41" s="501"/>
+      <c r="H41" s="505"/>
+      <c r="I41" s="506"/>
+      <c r="J41" s="507"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="489">
+      <c r="A42" s="491">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="509" t="s">
+      <c r="B42" s="511" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="510"/>
-      <c r="D42" s="511"/>
-      <c r="E42" s="494" t="str">
+      <c r="C42" s="512"/>
+      <c r="D42" s="513"/>
+      <c r="E42" s="496" t="str">
         <f>Данные!C25</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F42" s="495"/>
-      <c r="G42" s="498">
+      <c r="F42" s="497"/>
+      <c r="G42" s="500">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="500"/>
-      <c r="I42" s="501"/>
-      <c r="J42" s="502"/>
+      <c r="H42" s="502"/>
+      <c r="I42" s="503"/>
+      <c r="J42" s="504"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="490"/>
-      <c r="B43" s="506" t="str">
+      <c r="A43" s="492"/>
+      <c r="B43" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C43" s="507"/>
-      <c r="D43" s="508"/>
-      <c r="E43" s="513"/>
-      <c r="F43" s="497"/>
-      <c r="G43" s="499"/>
-      <c r="H43" s="503"/>
-      <c r="I43" s="504"/>
-      <c r="J43" s="505"/>
+      <c r="C43" s="509"/>
+      <c r="D43" s="510"/>
+      <c r="E43" s="515"/>
+      <c r="F43" s="499"/>
+      <c r="G43" s="501"/>
+      <c r="H43" s="505"/>
+      <c r="I43" s="506"/>
+      <c r="J43" s="507"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="489">
+      <c r="A44" s="491">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="509" t="s">
+      <c r="B44" s="511" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="510"/>
-      <c r="D44" s="511"/>
-      <c r="E44" s="494">
+      <c r="C44" s="512"/>
+      <c r="D44" s="513"/>
+      <c r="E44" s="496">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="495"/>
-      <c r="G44" s="498">
+      <c r="F44" s="497"/>
+      <c r="G44" s="500">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="500"/>
-      <c r="I44" s="501"/>
-      <c r="J44" s="502"/>
+      <c r="H44" s="502"/>
+      <c r="I44" s="503"/>
+      <c r="J44" s="504"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="490"/>
-      <c r="B45" s="506" t="str">
+      <c r="A45" s="492"/>
+      <c r="B45" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C45" s="507"/>
-      <c r="D45" s="508"/>
-      <c r="E45" s="513"/>
-      <c r="F45" s="497"/>
-      <c r="G45" s="499"/>
-      <c r="H45" s="503"/>
-      <c r="I45" s="504"/>
-      <c r="J45" s="505"/>
+      <c r="C45" s="509"/>
+      <c r="D45" s="510"/>
+      <c r="E45" s="515"/>
+      <c r="F45" s="499"/>
+      <c r="G45" s="501"/>
+      <c r="H45" s="505"/>
+      <c r="I45" s="506"/>
+      <c r="J45" s="507"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="489">
+      <c r="A46" s="491">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="509" t="s">
+      <c r="B46" s="511" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="510"/>
-      <c r="D46" s="511"/>
-      <c r="E46" s="494" t="str">
+      <c r="C46" s="512"/>
+      <c r="D46" s="513"/>
+      <c r="E46" s="496" t="str">
         <f>Данные!C24</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F46" s="495"/>
-      <c r="G46" s="498">
+      <c r="F46" s="497"/>
+      <c r="G46" s="500">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="500"/>
-      <c r="I46" s="501"/>
-      <c r="J46" s="502"/>
+      <c r="H46" s="502"/>
+      <c r="I46" s="503"/>
+      <c r="J46" s="504"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="490"/>
-      <c r="B47" s="506" t="str">
+      <c r="A47" s="492"/>
+      <c r="B47" s="508" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C47" s="507"/>
-      <c r="D47" s="508"/>
-      <c r="E47" s="513"/>
-      <c r="F47" s="497"/>
-      <c r="G47" s="499"/>
-      <c r="H47" s="503"/>
-      <c r="I47" s="504"/>
-      <c r="J47" s="505"/>
+      <c r="C47" s="509"/>
+      <c r="D47" s="510"/>
+      <c r="E47" s="515"/>
+      <c r="F47" s="499"/>
+      <c r="G47" s="501"/>
+      <c r="H47" s="505"/>
+      <c r="I47" s="506"/>
+      <c r="J47" s="507"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="313"/>
@@ -12414,47 +12510,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="546"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="555" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="557" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="556"/>
-      <c r="G2" s="556"/>
-      <c r="H2" s="557"/>
-      <c r="I2" s="562" t="s">
+      <c r="F2" s="558"/>
+      <c r="G2" s="558"/>
+      <c r="H2" s="559"/>
+      <c r="I2" s="564" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="563"/>
-      <c r="K2" s="566">
+      <c r="J2" s="565"/>
+      <c r="K2" s="568">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="567"/>
+      <c r="L2" s="569"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="558"/>
-      <c r="Q2" s="558"/>
+      <c r="P2" s="560"/>
+      <c r="Q2" s="560"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="550"/>
-      <c r="D3" s="551"/>
-      <c r="E3" s="559" t="s">
+      <c r="B3" s="551"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="561" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="560"/>
-      <c r="G3" s="560"/>
-      <c r="H3" s="561"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="565"/>
-      <c r="K3" s="568"/>
-      <c r="L3" s="569"/>
+      <c r="F3" s="562"/>
+      <c r="G3" s="562"/>
+      <c r="H3" s="563"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="567"/>
+      <c r="K3" s="570"/>
+      <c r="L3" s="571"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12465,9 +12561,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="552"/>
-      <c r="C4" s="553"/>
-      <c r="D4" s="554"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="555"/>
+      <c r="D4" s="556"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12486,22 +12582,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="576"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="575"/>
-      <c r="J5" s="576"/>
-      <c r="K5" s="538"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="577"/>
+      <c r="J5" s="578"/>
+      <c r="K5" s="540"/>
+      <c r="L5" s="541"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12512,22 +12608,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="577"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="575"/>
-      <c r="J6" s="576"/>
-      <c r="K6" s="538"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="577"/>
+      <c r="J6" s="578"/>
+      <c r="K6" s="540"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12538,27 +12634,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="581"/>
-      <c r="D7" s="540">
+      <c r="C7" s="583"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="580" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="582" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="584"/>
-      <c r="K7" s="528">
+      <c r="J7" s="586"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="531"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13052,12 +13148,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="585" t="s">
+      <c r="B23" s="587" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="586"/>
-      <c r="D23" s="586"/>
-      <c r="E23" s="587"/>
+      <c r="C23" s="588"/>
+      <c r="D23" s="588"/>
+      <c r="E23" s="589"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -13079,12 +13175,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="570" t="s">
+      <c r="B24" s="572" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="571"/>
-      <c r="D24" s="571"/>
-      <c r="E24" s="572"/>
+      <c r="C24" s="573"/>
+      <c r="D24" s="573"/>
+      <c r="E24" s="574"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -13213,50 +13309,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="588">
+      <c r="B2" s="590">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="558"/>
-      <c r="Q2" s="558"/>
+      <c r="P2" s="560"/>
+      <c r="Q2" s="560"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13267,9 +13363,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13288,22 +13384,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="541"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13314,22 +13410,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13340,27 +13436,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="617"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="617"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="531"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13557,13 +13653,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="585" t="s">
+      <c r="B14" s="587" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="586"/>
-      <c r="D14" s="586"/>
-      <c r="E14" s="586"/>
-      <c r="F14" s="617"/>
+      <c r="C14" s="588"/>
+      <c r="D14" s="588"/>
+      <c r="E14" s="588"/>
+      <c r="F14" s="619"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -13582,12 +13678,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="570" t="s">
+      <c r="B15" s="572" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="571"/>
-      <c r="D15" s="571"/>
-      <c r="E15" s="572"/>
+      <c r="C15" s="573"/>
+      <c r="D15" s="573"/>
+      <c r="E15" s="574"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -13731,47 +13827,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="546"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="555" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="557" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="556"/>
-      <c r="G2" s="556"/>
-      <c r="H2" s="557"/>
-      <c r="I2" s="562" t="s">
+      <c r="F2" s="558"/>
+      <c r="G2" s="558"/>
+      <c r="H2" s="559"/>
+      <c r="I2" s="564" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="563"/>
-      <c r="K2" s="566">
+      <c r="J2" s="565"/>
+      <c r="K2" s="568">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="567"/>
+      <c r="L2" s="569"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="558"/>
-      <c r="Q2" s="558"/>
+      <c r="P2" s="560"/>
+      <c r="Q2" s="560"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="550"/>
-      <c r="D3" s="551"/>
-      <c r="E3" s="559" t="s">
+      <c r="B3" s="551"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="561" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="560"/>
-      <c r="G3" s="560"/>
-      <c r="H3" s="561"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="565"/>
-      <c r="K3" s="568"/>
-      <c r="L3" s="569"/>
+      <c r="F3" s="562"/>
+      <c r="G3" s="562"/>
+      <c r="H3" s="563"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="567"/>
+      <c r="K3" s="570"/>
+      <c r="L3" s="571"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13782,9 +13878,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="552"/>
-      <c r="C4" s="553"/>
-      <c r="D4" s="554"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="555"/>
+      <c r="D4" s="556"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13803,22 +13899,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="576"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="575"/>
-      <c r="J5" s="576"/>
-      <c r="K5" s="538"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="577"/>
+      <c r="J5" s="578"/>
+      <c r="K5" s="540"/>
+      <c r="L5" s="541"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13829,22 +13925,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="577"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="575"/>
-      <c r="J6" s="576"/>
-      <c r="K6" s="538"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="577"/>
+      <c r="J6" s="578"/>
+      <c r="K6" s="540"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13855,27 +13951,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="581"/>
-      <c r="D7" s="540">
+      <c r="C7" s="583"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="580" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="582" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="584"/>
-      <c r="K7" s="528">
+      <c r="J7" s="586"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="531"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -14358,6 +14454,7 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -14375,7 +14472,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -14443,47 +14539,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="546"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="555" t="s">
+      <c r="B2" s="548"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="557" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="556"/>
-      <c r="G2" s="556"/>
-      <c r="H2" s="557"/>
-      <c r="I2" s="562" t="s">
+      <c r="F2" s="558"/>
+      <c r="G2" s="558"/>
+      <c r="H2" s="559"/>
+      <c r="I2" s="564" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="563"/>
-      <c r="K2" s="566">
+      <c r="J2" s="565"/>
+      <c r="K2" s="568">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="567"/>
+      <c r="L2" s="569"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="618"/>
-      <c r="Q2" s="618"/>
+      <c r="P2" s="620"/>
+      <c r="Q2" s="620"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="549"/>
-      <c r="C3" s="550"/>
-      <c r="D3" s="551"/>
-      <c r="E3" s="559" t="s">
+      <c r="B3" s="551"/>
+      <c r="C3" s="552"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="561" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="560"/>
-      <c r="G3" s="560"/>
-      <c r="H3" s="561"/>
-      <c r="I3" s="564"/>
-      <c r="J3" s="565"/>
-      <c r="K3" s="568"/>
-      <c r="L3" s="569"/>
+      <c r="F3" s="562"/>
+      <c r="G3" s="562"/>
+      <c r="H3" s="563"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="567"/>
+      <c r="K3" s="570"/>
+      <c r="L3" s="571"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -14494,9 +14590,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="552"/>
-      <c r="C4" s="553"/>
-      <c r="D4" s="554"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="555"/>
+      <c r="D4" s="556"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -14515,22 +14611,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="576"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="575"/>
-      <c r="J5" s="576"/>
-      <c r="K5" s="538"/>
-      <c r="L5" s="539"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="577"/>
+      <c r="J5" s="578"/>
+      <c r="K5" s="540"/>
+      <c r="L5" s="541"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14541,22 +14637,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="577"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="575"/>
-      <c r="J6" s="576"/>
-      <c r="K6" s="538"/>
-      <c r="L6" s="539"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="577"/>
+      <c r="J6" s="578"/>
+      <c r="K6" s="540"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -14567,27 +14663,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="581"/>
-      <c r="D7" s="540">
+      <c r="C7" s="583"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="580" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="582" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="584"/>
-      <c r="K7" s="528">
+      <c r="J7" s="586"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
+      <c r="L7" s="531"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14961,60 +15057,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="588"/>
-      <c r="C2" s="589"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="597" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="598"/>
-      <c r="G2" s="598"/>
-      <c r="H2" s="599"/>
-      <c r="I2" s="603" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="604"/>
-      <c r="K2" s="607">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="608"/>
-      <c r="M2" s="619"/>
-      <c r="N2" s="620"/>
-      <c r="O2" s="620"/>
-      <c r="P2" s="620"/>
-      <c r="Q2" s="620"/>
-      <c r="R2" s="621"/>
+      <c r="L2" s="610"/>
+      <c r="M2" s="621"/>
+      <c r="N2" s="622"/>
+      <c r="O2" s="622"/>
+      <c r="P2" s="622"/>
+      <c r="Q2" s="622"/>
+      <c r="R2" s="623"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="591"/>
-      <c r="C3" s="592"/>
-      <c r="D3" s="593"/>
-      <c r="E3" s="600" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="601"/>
-      <c r="G3" s="601"/>
-      <c r="H3" s="602"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="606"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="622"/>
-      <c r="N3" s="623"/>
-      <c r="O3" s="623"/>
-      <c r="P3" s="623"/>
-      <c r="Q3" s="623"/>
-      <c r="R3" s="624"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
+      <c r="M3" s="624"/>
+      <c r="N3" s="625"/>
+      <c r="O3" s="625"/>
+      <c r="P3" s="625"/>
+      <c r="Q3" s="625"/>
+      <c r="R3" s="626"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="594"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -15023,95 +15119,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="622"/>
-      <c r="N4" s="623"/>
-      <c r="O4" s="623"/>
-      <c r="P4" s="623"/>
-      <c r="Q4" s="623"/>
-      <c r="R4" s="624"/>
+      <c r="M4" s="624"/>
+      <c r="N4" s="625"/>
+      <c r="O4" s="625"/>
+      <c r="P4" s="625"/>
+      <c r="Q4" s="625"/>
+      <c r="R4" s="626"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="575" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="611"/>
-      <c r="D5" s="537" t="str">
+      <c r="C5" s="613"/>
+      <c r="D5" s="539" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="613"/>
-      <c r="K5" s="614"/>
-      <c r="L5" s="539"/>
-      <c r="M5" s="622"/>
-      <c r="N5" s="623"/>
-      <c r="O5" s="623"/>
-      <c r="P5" s="623"/>
-      <c r="Q5" s="623"/>
-      <c r="R5" s="624"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="541"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="541"/>
+      <c r="M5" s="624"/>
+      <c r="N5" s="625"/>
+      <c r="O5" s="625"/>
+      <c r="P5" s="625"/>
+      <c r="Q5" s="625"/>
+      <c r="R5" s="626"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="575" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="611"/>
-      <c r="D6" s="531" t="str">
+      <c r="C6" s="613"/>
+      <c r="D6" s="533" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="578"/>
-      <c r="F6" s="578"/>
-      <c r="G6" s="578"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="613"/>
-      <c r="K6" s="614"/>
-      <c r="L6" s="539"/>
-      <c r="M6" s="622"/>
-      <c r="N6" s="623"/>
-      <c r="O6" s="623"/>
-      <c r="P6" s="623"/>
-      <c r="Q6" s="623"/>
-      <c r="R6" s="624"/>
+      <c r="E6" s="580"/>
+      <c r="F6" s="580"/>
+      <c r="G6" s="580"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="615"/>
+      <c r="K6" s="616"/>
+      <c r="L6" s="541"/>
+      <c r="M6" s="624"/>
+      <c r="N6" s="625"/>
+      <c r="O6" s="625"/>
+      <c r="P6" s="625"/>
+      <c r="Q6" s="625"/>
+      <c r="R6" s="626"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="582" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="615"/>
-      <c r="D7" s="540">
+      <c r="C7" s="617"/>
+      <c r="D7" s="542">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="583"/>
-      <c r="I7" s="616" t="s">
+      <c r="E7" s="584"/>
+      <c r="F7" s="584"/>
+      <c r="G7" s="584"/>
+      <c r="H7" s="585"/>
+      <c r="I7" s="618" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="615"/>
-      <c r="K7" s="528">
+      <c r="J7" s="617"/>
+      <c r="K7" s="530">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="529"/>
-      <c r="M7" s="622"/>
-      <c r="N7" s="623"/>
-      <c r="O7" s="623"/>
-      <c r="P7" s="623"/>
-      <c r="Q7" s="623"/>
-      <c r="R7" s="624"/>
+      <c r="L7" s="531"/>
+      <c r="M7" s="624"/>
+      <c r="N7" s="625"/>
+      <c r="O7" s="625"/>
+      <c r="P7" s="625"/>
+      <c r="Q7" s="625"/>
+      <c r="R7" s="626"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15533,12 +15629,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="570" t="s">
+      <c r="B21" s="572" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="571"/>
-      <c r="D21" s="571"/>
-      <c r="E21" s="572"/>
+      <c r="C21" s="573"/>
+      <c r="D21" s="573"/>
+      <c r="E21" s="574"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019 Байрон 0.5 л..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-B-30-4A-500 (Байрон)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE5ABE1-59DC-4420-ABD5-748B5D3606EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC6A88-DEBC-4C38-9CE8-759817D41645}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3588,104 +3588,86 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3694,10 +3676,22 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3744,6 +3738,12 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3752,78 +3752,6 @@
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3875,73 +3803,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3965,6 +3896,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3991,22 +3991,25 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4017,9 +4020,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6589,374 +6589,374 @@
       <c r="J3" s="314"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="489" t="s">
+      <c r="A4" s="514" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="489" t="s">
+      <c r="B4" s="514" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="489"/>
-      <c r="D4" s="489"/>
-      <c r="E4" s="489" t="s">
+      <c r="C4" s="514"/>
+      <c r="D4" s="514"/>
+      <c r="E4" s="514" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="489"/>
-      <c r="G4" s="490" t="s">
+      <c r="F4" s="514"/>
+      <c r="G4" s="515" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="489" t="s">
+      <c r="H4" s="514" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="489"/>
-      <c r="J4" s="489"/>
+      <c r="I4" s="514"/>
+      <c r="J4" s="514"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="489"/>
-      <c r="B5" s="489"/>
-      <c r="C5" s="489"/>
-      <c r="D5" s="489"/>
-      <c r="E5" s="489"/>
-      <c r="F5" s="489"/>
-      <c r="G5" s="490"/>
-      <c r="H5" s="489"/>
-      <c r="I5" s="489"/>
-      <c r="J5" s="489"/>
+      <c r="A5" s="514"/>
+      <c r="B5" s="514"/>
+      <c r="C5" s="514"/>
+      <c r="D5" s="514"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="514"/>
+      <c r="J5" s="514"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="491">
+      <c r="A6" s="489">
         <v>1</v>
       </c>
-      <c r="B6" s="493" t="s">
+      <c r="B6" s="511" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="494"/>
-      <c r="D6" s="495"/>
-      <c r="E6" s="496"/>
-      <c r="F6" s="497"/>
-      <c r="G6" s="500"/>
-      <c r="H6" s="502"/>
-      <c r="I6" s="503"/>
-      <c r="J6" s="504"/>
+      <c r="C6" s="512"/>
+      <c r="D6" s="513"/>
+      <c r="E6" s="494"/>
+      <c r="F6" s="495"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="500"/>
+      <c r="I6" s="501"/>
+      <c r="J6" s="502"/>
     </row>
     <row r="7" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="492"/>
-      <c r="B7" s="508"/>
-      <c r="C7" s="509"/>
-      <c r="D7" s="510"/>
-      <c r="E7" s="498"/>
-      <c r="F7" s="499"/>
-      <c r="G7" s="501"/>
-      <c r="H7" s="505"/>
-      <c r="I7" s="506"/>
-      <c r="J7" s="507"/>
+      <c r="A7" s="509"/>
+      <c r="B7" s="506"/>
+      <c r="C7" s="507"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="510"/>
+      <c r="F7" s="497"/>
+      <c r="G7" s="499"/>
+      <c r="H7" s="503"/>
+      <c r="I7" s="504"/>
+      <c r="J7" s="505"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="491">
+      <c r="A8" s="489">
         <v>1</v>
       </c>
-      <c r="B8" s="511" t="s">
+      <c r="B8" s="491" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="512"/>
-      <c r="D8" s="513"/>
-      <c r="E8" s="496"/>
-      <c r="F8" s="497"/>
-      <c r="G8" s="500"/>
-      <c r="H8" s="502"/>
-      <c r="I8" s="503"/>
-      <c r="J8" s="504"/>
+      <c r="C8" s="492"/>
+      <c r="D8" s="493"/>
+      <c r="E8" s="494"/>
+      <c r="F8" s="495"/>
+      <c r="G8" s="498"/>
+      <c r="H8" s="500"/>
+      <c r="I8" s="501"/>
+      <c r="J8" s="502"/>
     </row>
     <row r="9" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="492"/>
-      <c r="B9" s="508"/>
-      <c r="C9" s="509"/>
-      <c r="D9" s="510"/>
-      <c r="E9" s="498"/>
-      <c r="F9" s="499"/>
-      <c r="G9" s="501"/>
-      <c r="H9" s="505"/>
-      <c r="I9" s="506"/>
-      <c r="J9" s="507"/>
+      <c r="A9" s="509"/>
+      <c r="B9" s="506"/>
+      <c r="C9" s="507"/>
+      <c r="D9" s="508"/>
+      <c r="E9" s="510"/>
+      <c r="F9" s="497"/>
+      <c r="G9" s="499"/>
+      <c r="H9" s="503"/>
+      <c r="I9" s="504"/>
+      <c r="J9" s="505"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="491">
+      <c r="A10" s="489">
         <v>1</v>
       </c>
-      <c r="B10" s="511" t="s">
+      <c r="B10" s="491" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="512"/>
-      <c r="D10" s="513"/>
-      <c r="E10" s="496"/>
-      <c r="F10" s="497"/>
-      <c r="G10" s="500"/>
-      <c r="H10" s="502"/>
-      <c r="I10" s="503"/>
-      <c r="J10" s="504"/>
+      <c r="C10" s="492"/>
+      <c r="D10" s="493"/>
+      <c r="E10" s="494"/>
+      <c r="F10" s="495"/>
+      <c r="G10" s="498"/>
+      <c r="H10" s="500"/>
+      <c r="I10" s="501"/>
+      <c r="J10" s="502"/>
     </row>
     <row r="11" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="492"/>
-      <c r="B11" s="508"/>
-      <c r="C11" s="509"/>
-      <c r="D11" s="510"/>
-      <c r="E11" s="498"/>
-      <c r="F11" s="499"/>
-      <c r="G11" s="501"/>
-      <c r="H11" s="505"/>
-      <c r="I11" s="506"/>
-      <c r="J11" s="507"/>
+      <c r="A11" s="509"/>
+      <c r="B11" s="506"/>
+      <c r="C11" s="507"/>
+      <c r="D11" s="508"/>
+      <c r="E11" s="510"/>
+      <c r="F11" s="497"/>
+      <c r="G11" s="499"/>
+      <c r="H11" s="503"/>
+      <c r="I11" s="504"/>
+      <c r="J11" s="505"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="491">
+      <c r="A12" s="489">
         <v>1</v>
       </c>
-      <c r="B12" s="511" t="s">
+      <c r="B12" s="491" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="512"/>
-      <c r="D12" s="513"/>
-      <c r="E12" s="496"/>
-      <c r="F12" s="497"/>
-      <c r="G12" s="500"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="503"/>
-      <c r="J12" s="504"/>
+      <c r="C12" s="492"/>
+      <c r="D12" s="493"/>
+      <c r="E12" s="494"/>
+      <c r="F12" s="495"/>
+      <c r="G12" s="498"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="501"/>
+      <c r="J12" s="502"/>
     </row>
     <row r="13" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="514"/>
-      <c r="B13" s="508"/>
-      <c r="C13" s="509"/>
-      <c r="D13" s="510"/>
-      <c r="E13" s="515"/>
-      <c r="F13" s="499"/>
-      <c r="G13" s="501"/>
-      <c r="H13" s="505"/>
-      <c r="I13" s="506"/>
-      <c r="J13" s="507"/>
+      <c r="A13" s="490"/>
+      <c r="B13" s="506"/>
+      <c r="C13" s="507"/>
+      <c r="D13" s="508"/>
+      <c r="E13" s="496"/>
+      <c r="F13" s="497"/>
+      <c r="G13" s="499"/>
+      <c r="H13" s="503"/>
+      <c r="I13" s="504"/>
+      <c r="J13" s="505"/>
     </row>
     <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="491">
+      <c r="A14" s="489">
         <v>1</v>
       </c>
-      <c r="B14" s="511" t="s">
+      <c r="B14" s="491" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="512"/>
-      <c r="D14" s="513"/>
-      <c r="E14" s="496"/>
-      <c r="F14" s="497"/>
-      <c r="G14" s="500"/>
-      <c r="H14" s="502"/>
-      <c r="I14" s="503"/>
-      <c r="J14" s="504"/>
+      <c r="C14" s="492"/>
+      <c r="D14" s="493"/>
+      <c r="E14" s="494"/>
+      <c r="F14" s="495"/>
+      <c r="G14" s="498"/>
+      <c r="H14" s="500"/>
+      <c r="I14" s="501"/>
+      <c r="J14" s="502"/>
     </row>
     <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="514"/>
-      <c r="B15" s="508"/>
-      <c r="C15" s="509"/>
-      <c r="D15" s="510"/>
-      <c r="E15" s="515"/>
-      <c r="F15" s="499"/>
-      <c r="G15" s="501"/>
-      <c r="H15" s="505"/>
-      <c r="I15" s="506"/>
-      <c r="J15" s="507"/>
+      <c r="A15" s="490"/>
+      <c r="B15" s="506"/>
+      <c r="C15" s="507"/>
+      <c r="D15" s="508"/>
+      <c r="E15" s="496"/>
+      <c r="F15" s="497"/>
+      <c r="G15" s="499"/>
+      <c r="H15" s="503"/>
+      <c r="I15" s="504"/>
+      <c r="J15" s="505"/>
     </row>
     <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="491">
+      <c r="A16" s="489">
         <v>1</v>
       </c>
-      <c r="B16" s="511" t="s">
+      <c r="B16" s="491" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="512"/>
-      <c r="D16" s="513"/>
-      <c r="E16" s="496"/>
-      <c r="F16" s="497"/>
-      <c r="G16" s="500"/>
-      <c r="H16" s="502"/>
-      <c r="I16" s="503"/>
-      <c r="J16" s="504"/>
+      <c r="C16" s="492"/>
+      <c r="D16" s="493"/>
+      <c r="E16" s="494"/>
+      <c r="F16" s="495"/>
+      <c r="G16" s="498"/>
+      <c r="H16" s="500"/>
+      <c r="I16" s="501"/>
+      <c r="J16" s="502"/>
     </row>
     <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="514"/>
-      <c r="B17" s="508"/>
-      <c r="C17" s="509"/>
-      <c r="D17" s="510"/>
-      <c r="E17" s="515"/>
-      <c r="F17" s="499"/>
-      <c r="G17" s="501"/>
-      <c r="H17" s="505"/>
-      <c r="I17" s="506"/>
-      <c r="J17" s="507"/>
+      <c r="A17" s="490"/>
+      <c r="B17" s="506"/>
+      <c r="C17" s="507"/>
+      <c r="D17" s="508"/>
+      <c r="E17" s="496"/>
+      <c r="F17" s="497"/>
+      <c r="G17" s="499"/>
+      <c r="H17" s="503"/>
+      <c r="I17" s="504"/>
+      <c r="J17" s="505"/>
     </row>
     <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="491">
+      <c r="A18" s="489">
         <v>1</v>
       </c>
-      <c r="B18" s="511" t="s">
+      <c r="B18" s="491" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="512"/>
-      <c r="D18" s="513"/>
-      <c r="E18" s="496"/>
-      <c r="F18" s="497"/>
-      <c r="G18" s="500"/>
-      <c r="H18" s="502"/>
-      <c r="I18" s="503"/>
-      <c r="J18" s="504"/>
+      <c r="C18" s="492"/>
+      <c r="D18" s="493"/>
+      <c r="E18" s="494"/>
+      <c r="F18" s="495"/>
+      <c r="G18" s="498"/>
+      <c r="H18" s="500"/>
+      <c r="I18" s="501"/>
+      <c r="J18" s="502"/>
     </row>
     <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="514"/>
-      <c r="B19" s="508"/>
-      <c r="C19" s="509"/>
-      <c r="D19" s="510"/>
-      <c r="E19" s="515"/>
-      <c r="F19" s="499"/>
-      <c r="G19" s="501"/>
-      <c r="H19" s="505"/>
-      <c r="I19" s="506"/>
-      <c r="J19" s="507"/>
+      <c r="A19" s="490"/>
+      <c r="B19" s="506"/>
+      <c r="C19" s="507"/>
+      <c r="D19" s="508"/>
+      <c r="E19" s="496"/>
+      <c r="F19" s="497"/>
+      <c r="G19" s="499"/>
+      <c r="H19" s="503"/>
+      <c r="I19" s="504"/>
+      <c r="J19" s="505"/>
     </row>
     <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="491">
+      <c r="A20" s="489">
         <v>1</v>
       </c>
-      <c r="B20" s="511" t="s">
+      <c r="B20" s="491" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="512"/>
-      <c r="D20" s="513"/>
-      <c r="E20" s="496"/>
-      <c r="F20" s="497"/>
-      <c r="G20" s="500"/>
-      <c r="H20" s="502"/>
-      <c r="I20" s="503"/>
-      <c r="J20" s="504"/>
+      <c r="C20" s="492"/>
+      <c r="D20" s="493"/>
+      <c r="E20" s="494"/>
+      <c r="F20" s="495"/>
+      <c r="G20" s="498"/>
+      <c r="H20" s="500"/>
+      <c r="I20" s="501"/>
+      <c r="J20" s="502"/>
     </row>
     <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="514"/>
-      <c r="B21" s="508"/>
-      <c r="C21" s="509"/>
-      <c r="D21" s="510"/>
-      <c r="E21" s="515"/>
-      <c r="F21" s="499"/>
-      <c r="G21" s="501"/>
-      <c r="H21" s="505"/>
-      <c r="I21" s="506"/>
-      <c r="J21" s="507"/>
+      <c r="A21" s="490"/>
+      <c r="B21" s="506"/>
+      <c r="C21" s="507"/>
+      <c r="D21" s="508"/>
+      <c r="E21" s="496"/>
+      <c r="F21" s="497"/>
+      <c r="G21" s="499"/>
+      <c r="H21" s="503"/>
+      <c r="I21" s="504"/>
+      <c r="J21" s="505"/>
     </row>
     <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="491">
+      <c r="A22" s="489">
         <v>1</v>
       </c>
-      <c r="B22" s="511" t="s">
+      <c r="B22" s="491" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="512"/>
-      <c r="D22" s="513"/>
-      <c r="E22" s="496"/>
-      <c r="F22" s="497"/>
-      <c r="G22" s="500"/>
-      <c r="H22" s="502"/>
-      <c r="I22" s="503"/>
-      <c r="J22" s="504"/>
+      <c r="C22" s="492"/>
+      <c r="D22" s="493"/>
+      <c r="E22" s="494"/>
+      <c r="F22" s="495"/>
+      <c r="G22" s="498"/>
+      <c r="H22" s="500"/>
+      <c r="I22" s="501"/>
+      <c r="J22" s="502"/>
     </row>
     <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="514"/>
-      <c r="B23" s="508"/>
-      <c r="C23" s="509"/>
-      <c r="D23" s="510"/>
-      <c r="E23" s="515"/>
-      <c r="F23" s="499"/>
-      <c r="G23" s="501"/>
-      <c r="H23" s="505"/>
-      <c r="I23" s="506"/>
-      <c r="J23" s="507"/>
+      <c r="A23" s="490"/>
+      <c r="B23" s="506"/>
+      <c r="C23" s="507"/>
+      <c r="D23" s="508"/>
+      <c r="E23" s="496"/>
+      <c r="F23" s="497"/>
+      <c r="G23" s="499"/>
+      <c r="H23" s="503"/>
+      <c r="I23" s="504"/>
+      <c r="J23" s="505"/>
     </row>
     <row r="24" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="491">
+      <c r="A24" s="489">
         <v>1</v>
       </c>
-      <c r="B24" s="511" t="s">
+      <c r="B24" s="491" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="512"/>
-      <c r="D24" s="513"/>
-      <c r="E24" s="496"/>
-      <c r="F24" s="497"/>
-      <c r="G24" s="500"/>
-      <c r="H24" s="502"/>
-      <c r="I24" s="503"/>
-      <c r="J24" s="504"/>
+      <c r="C24" s="492"/>
+      <c r="D24" s="493"/>
+      <c r="E24" s="494"/>
+      <c r="F24" s="495"/>
+      <c r="G24" s="498"/>
+      <c r="H24" s="500"/>
+      <c r="I24" s="501"/>
+      <c r="J24" s="502"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="514"/>
-      <c r="B25" s="508"/>
-      <c r="C25" s="509"/>
-      <c r="D25" s="510"/>
-      <c r="E25" s="515"/>
-      <c r="F25" s="499"/>
-      <c r="G25" s="501"/>
-      <c r="H25" s="505"/>
-      <c r="I25" s="506"/>
-      <c r="J25" s="507"/>
+      <c r="A25" s="490"/>
+      <c r="B25" s="506"/>
+      <c r="C25" s="507"/>
+      <c r="D25" s="508"/>
+      <c r="E25" s="496"/>
+      <c r="F25" s="497"/>
+      <c r="G25" s="499"/>
+      <c r="H25" s="503"/>
+      <c r="I25" s="504"/>
+      <c r="J25" s="505"/>
     </row>
     <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="491">
+      <c r="A26" s="489">
         <v>1</v>
       </c>
-      <c r="B26" s="511" t="s">
+      <c r="B26" s="491" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="512"/>
-      <c r="D26" s="513"/>
-      <c r="E26" s="496"/>
-      <c r="F26" s="497"/>
-      <c r="G26" s="500"/>
-      <c r="H26" s="502"/>
-      <c r="I26" s="503"/>
-      <c r="J26" s="504"/>
+      <c r="C26" s="492"/>
+      <c r="D26" s="493"/>
+      <c r="E26" s="494"/>
+      <c r="F26" s="495"/>
+      <c r="G26" s="498"/>
+      <c r="H26" s="500"/>
+      <c r="I26" s="501"/>
+      <c r="J26" s="502"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="514"/>
-      <c r="B27" s="508"/>
-      <c r="C27" s="509"/>
-      <c r="D27" s="510"/>
-      <c r="E27" s="515"/>
-      <c r="F27" s="499"/>
-      <c r="G27" s="501"/>
-      <c r="H27" s="505"/>
-      <c r="I27" s="506"/>
-      <c r="J27" s="507"/>
+      <c r="A27" s="490"/>
+      <c r="B27" s="506"/>
+      <c r="C27" s="507"/>
+      <c r="D27" s="508"/>
+      <c r="E27" s="496"/>
+      <c r="F27" s="497"/>
+      <c r="G27" s="499"/>
+      <c r="H27" s="503"/>
+      <c r="I27" s="504"/>
+      <c r="J27" s="505"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="491">
+      <c r="A28" s="489">
         <v>1</v>
       </c>
-      <c r="B28" s="511" t="s">
+      <c r="B28" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="512"/>
-      <c r="D28" s="513"/>
-      <c r="E28" s="496"/>
-      <c r="F28" s="497"/>
-      <c r="G28" s="500"/>
-      <c r="H28" s="502"/>
-      <c r="I28" s="503"/>
-      <c r="J28" s="504"/>
+      <c r="C28" s="492"/>
+      <c r="D28" s="493"/>
+      <c r="E28" s="494"/>
+      <c r="F28" s="495"/>
+      <c r="G28" s="498"/>
+      <c r="H28" s="500"/>
+      <c r="I28" s="501"/>
+      <c r="J28" s="502"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="514"/>
-      <c r="B29" s="508"/>
-      <c r="C29" s="509"/>
-      <c r="D29" s="510"/>
-      <c r="E29" s="515"/>
-      <c r="F29" s="499"/>
-      <c r="G29" s="501"/>
-      <c r="H29" s="505"/>
-      <c r="I29" s="506"/>
-      <c r="J29" s="507"/>
+      <c r="A29" s="490"/>
+      <c r="B29" s="506"/>
+      <c r="C29" s="507"/>
+      <c r="D29" s="508"/>
+      <c r="E29" s="496"/>
+      <c r="F29" s="497"/>
+      <c r="G29" s="499"/>
+      <c r="H29" s="503"/>
+      <c r="I29" s="504"/>
+      <c r="J29" s="505"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="313"/>
@@ -7071,83 +7071,83 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:J7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:J29"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:J7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7201,24 +7201,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -7229,19 +7229,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -7252,9 +7252,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7273,22 +7273,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="616"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7299,22 +7299,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="616"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7325,27 +7325,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="617"/>
-      <c r="D7" s="542">
+      <c r="C7" s="594"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="618" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="617"/>
-      <c r="K7" s="530">
+      <c r="J7" s="594"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -7608,12 +7608,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="572" t="s">
+      <c r="B16" s="548" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="573"/>
-      <c r="D16" s="573"/>
-      <c r="E16" s="574"/>
+      <c r="C16" s="549"/>
+      <c r="D16" s="549"/>
+      <c r="E16" s="550"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -7659,15 +7659,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -7678,6 +7669,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -7745,24 +7745,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
@@ -7773,19 +7773,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7796,9 +7796,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7817,22 +7817,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="616"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7843,22 +7843,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="616"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7869,27 +7869,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="617"/>
-      <c r="D7" s="542">
+      <c r="C7" s="594"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="618" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="617"/>
-      <c r="K7" s="530">
+      <c r="J7" s="594"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -8275,17 +8275,6 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8293,6 +8282,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8358,47 +8358,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8409,9 +8409,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8430,22 +8430,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="616"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8456,22 +8456,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="616"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8482,27 +8482,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="617"/>
-      <c r="D7" s="542">
+      <c r="C7" s="594"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="618" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="617"/>
-      <c r="K7" s="530">
+      <c r="J7" s="594"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8831,12 +8831,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
-      <c r="B18" s="630" t="s">
+      <c r="B18" s="629" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="631"/>
-      <c r="D18" s="631"/>
-      <c r="E18" s="632"/>
+      <c r="C18" s="630"/>
+      <c r="D18" s="630"/>
+      <c r="E18" s="631"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8880,6 +8880,14 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8891,14 +8899,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8984,24 +8984,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
@@ -9012,19 +9012,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -9035,9 +9035,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9056,22 +9056,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="616"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -9082,22 +9082,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="616"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -9108,27 +9108,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="617"/>
-      <c r="D7" s="542">
+      <c r="C7" s="594"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="618" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="617"/>
-      <c r="K7" s="530">
+      <c r="J7" s="594"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9509,17 +9509,6 @@
     <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9527,6 +9516,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9592,47 +9592,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="634">
+      <c r="J2" s="613"/>
+      <c r="K2" s="635">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="635"/>
+      <c r="L2" s="636"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="638"/>
-      <c r="Q2" s="638"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="636"/>
-      <c r="L3" s="637"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="637"/>
+      <c r="L3" s="638"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9643,9 +9643,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9664,22 +9664,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="616"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9690,22 +9690,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="616"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9716,27 +9716,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="617"/>
-      <c r="D7" s="542">
+      <c r="C7" s="594"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="618" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="617"/>
-      <c r="K7" s="530">
+      <c r="J7" s="594"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -10009,6 +10009,8 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -10025,8 +10027,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -10056,7 +10056,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:I26"/>
+      <selection activeCell="H26" sqref="H26:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10076,49 +10076,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="518" t="s">
+      <c r="A1" s="523" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="518"/>
-      <c r="C1" s="518"/>
-      <c r="D1" s="518"/>
-      <c r="E1" s="518"/>
-      <c r="F1" s="518"/>
-      <c r="G1" s="518"/>
-      <c r="H1" s="518"/>
-      <c r="I1" s="518"/>
+      <c r="B1" s="523"/>
+      <c r="C1" s="523"/>
+      <c r="D1" s="523"/>
+      <c r="E1" s="523"/>
+      <c r="F1" s="523"/>
+      <c r="G1" s="523"/>
+      <c r="H1" s="523"/>
+      <c r="I1" s="523"/>
       <c r="J1" s="392"/>
       <c r="K1" s="392"/>
       <c r="L1" s="392"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="518" t="s">
+      <c r="A2" s="523" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="518"/>
-      <c r="C2" s="518"/>
-      <c r="D2" s="518"/>
-      <c r="E2" s="518"/>
-      <c r="F2" s="518"/>
-      <c r="G2" s="518"/>
-      <c r="H2" s="518"/>
-      <c r="I2" s="518"/>
+      <c r="B2" s="523"/>
+      <c r="C2" s="523"/>
+      <c r="D2" s="523"/>
+      <c r="E2" s="523"/>
+      <c r="F2" s="523"/>
+      <c r="G2" s="523"/>
+      <c r="H2" s="523"/>
+      <c r="I2" s="523"/>
       <c r="J2" s="393"/>
       <c r="K2" s="393"/>
       <c r="L2" s="393"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="519" t="s">
+      <c r="A3" s="524" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="519"/>
-      <c r="C3" s="519"/>
-      <c r="D3" s="519"/>
-      <c r="E3" s="519"/>
-      <c r="F3" s="519"/>
-      <c r="G3" s="519"/>
-      <c r="H3" s="519"/>
-      <c r="I3" s="519"/>
+      <c r="B3" s="524"/>
+      <c r="C3" s="524"/>
+      <c r="D3" s="524"/>
+      <c r="E3" s="524"/>
+      <c r="F3" s="524"/>
+      <c r="G3" s="524"/>
+      <c r="H3" s="524"/>
+      <c r="I3" s="524"/>
       <c r="K3" s="394"/>
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
@@ -10621,7 +10621,7 @@
         <v>1031915</v>
       </c>
       <c r="G21" s="432">
-        <f>F21/A$21</f>
+        <f t="shared" ref="G21:G27" si="2">F21/A$21</f>
         <v>6.700746753246753E-2</v>
       </c>
       <c r="H21" s="433">
@@ -10654,15 +10654,15 @@
         <v>730901</v>
       </c>
       <c r="G22" s="432">
-        <f>F22/A$21</f>
+        <f t="shared" si="2"/>
         <v>4.7461103896103897E-2</v>
       </c>
       <c r="H22" s="439">
-        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
+        <f t="shared" ref="H22:I24" si="3">H21-F22</f>
         <v>13637184</v>
       </c>
       <c r="I22" s="440">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88553142857142852</v>
       </c>
       <c r="J22" s="395"/>
@@ -10687,15 +10687,15 @@
         <v>432734</v>
       </c>
       <c r="G23" s="432">
-        <f>F23/A$21</f>
+        <f t="shared" si="2"/>
         <v>2.809961038961039E-2</v>
       </c>
       <c r="H23" s="439">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13204450</v>
       </c>
       <c r="I23" s="440">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85743181818181813</v>
       </c>
       <c r="J23" s="435"/>
@@ -10720,15 +10720,15 @@
         <v>439463</v>
       </c>
       <c r="G24" s="432">
-        <f>F24/A$21</f>
+        <f t="shared" si="2"/>
         <v>2.8536558441558443E-2</v>
       </c>
       <c r="H24" s="439">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12764987</v>
       </c>
       <c r="I24" s="440">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82889525974025968</v>
       </c>
       <c r="J24" s="435"/>
@@ -10753,15 +10753,15 @@
         <v>146210</v>
       </c>
       <c r="G25" s="476">
-        <f>F25/A$21</f>
+        <f t="shared" si="2"/>
         <v>9.4941558441558448E-3</v>
       </c>
       <c r="H25" s="439">
-        <f t="shared" ref="H25" si="3">H24-F25</f>
+        <f t="shared" ref="H25" si="4">H24-F25</f>
         <v>12618777</v>
       </c>
       <c r="I25" s="440">
-        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <f t="shared" ref="I25" si="5">I24-G25</f>
         <v>0.81940110389610388</v>
       </c>
       <c r="J25" s="435"/>
@@ -10786,15 +10786,15 @@
         <v>438556</v>
       </c>
       <c r="G26" s="476">
-        <f>F26/A$21</f>
+        <f t="shared" si="2"/>
         <v>2.8477662337662336E-2</v>
       </c>
       <c r="H26" s="439">
-        <f t="shared" ref="H26" si="5">H25-F26</f>
+        <f t="shared" ref="H26" si="6">H25-F26</f>
         <v>12180221</v>
       </c>
       <c r="I26" s="440">
-        <f t="shared" ref="I26" si="6">I25-G26</f>
+        <f t="shared" ref="I26" si="7">I25-G26</f>
         <v>0.79092344155844152</v>
       </c>
       <c r="J26" s="435"/>
@@ -10803,14 +10803,33 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="441"/>
-      <c r="B27" s="381"/>
-      <c r="C27" s="381"/>
-      <c r="D27" s="381"/>
-      <c r="E27" s="485"/>
-      <c r="F27" s="485"/>
-      <c r="G27" s="476"/>
-      <c r="H27" s="475"/>
-      <c r="I27" s="444"/>
+      <c r="B27" s="381">
+        <v>44358</v>
+      </c>
+      <c r="C27" s="381">
+        <v>44361</v>
+      </c>
+      <c r="D27" s="381">
+        <v>44378</v>
+      </c>
+      <c r="E27" s="485">
+        <v>568890</v>
+      </c>
+      <c r="F27" s="485">
+        <v>595350</v>
+      </c>
+      <c r="G27" s="476">
+        <f t="shared" si="2"/>
+        <v>3.8659090909090907E-2</v>
+      </c>
+      <c r="H27" s="439">
+        <f t="shared" ref="H27" si="8">H26-F27</f>
+        <v>11584871</v>
+      </c>
+      <c r="I27" s="440">
+        <f t="shared" ref="I27" si="9">I26-G27</f>
+        <v>0.7522643506493506</v>
+      </c>
       <c r="J27" s="435"/>
       <c r="K27" s="435"/>
       <c r="L27" s="395"/>
@@ -10880,23 +10899,23 @@
       <c r="D32" s="449"/>
       <c r="E32" s="450">
         <f>SUM(E21:E31)</f>
-        <v>2939946</v>
+        <v>3508836</v>
       </c>
       <c r="F32" s="451">
         <f>SUM(F21:F31)</f>
-        <v>3219779</v>
+        <v>3815129</v>
       </c>
       <c r="G32" s="452">
         <f>SUM(G21:G31)</f>
-        <v>0.20907655844155842</v>
+        <v>0.24773564935064935</v>
       </c>
       <c r="H32" s="453">
         <f>A21-F32</f>
-        <v>12180221</v>
+        <v>11584871</v>
       </c>
       <c r="I32" s="454">
         <f>1-G32</f>
-        <v>0.79092344155844163</v>
+        <v>0.75226435064935071</v>
       </c>
       <c r="J32" s="455"/>
       <c r="K32" s="455"/>
@@ -10915,12 +10934,12 @@
       <c r="J35" s="395"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="520" t="s">
+      <c r="A36" s="525" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="520"/>
-      <c r="C36" s="520"/>
-      <c r="D36" s="520"/>
+      <c r="B36" s="525"/>
+      <c r="C36" s="525"/>
+      <c r="D36" s="525"/>
       <c r="E36" s="395"/>
       <c r="F36" s="395"/>
       <c r="G36" s="395"/>
@@ -10929,10 +10948,10 @@
       <c r="J36" s="395"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="521" t="s">
+      <c r="A37" s="526" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="521"/>
+      <c r="B37" s="526"/>
       <c r="C37" s="456" t="s">
         <v>143</v>
       </c>
@@ -10947,18 +10966,18 @@
       <c r="J37" s="395"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="516">
+      <c r="A38" s="521">
         <f>A21-F32</f>
-        <v>12180221</v>
-      </c>
-      <c r="B38" s="517"/>
+        <v>11584871</v>
+      </c>
+      <c r="B38" s="522"/>
       <c r="C38" s="457">
         <f>1-G32</f>
-        <v>0.79092344155844163</v>
+        <v>0.75226435064935071</v>
       </c>
       <c r="D38" s="458">
         <f>(C38/0.8)*100</f>
-        <v>98.865430194805199</v>
+        <v>94.03304383116884</v>
       </c>
       <c r="E38" s="459" t="s">
         <v>145</v>
@@ -11013,8 +11032,8 @@
       <c r="F42" s="461"/>
       <c r="G42" s="461"/>
       <c r="H42" s="461"/>
-      <c r="I42" s="522"/>
-      <c r="J42" s="523"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="517"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="462"/>
@@ -11108,9 +11127,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="395"/>
-      <c r="B52" s="524"/>
-      <c r="C52" s="524"/>
-      <c r="D52" s="525"/>
+      <c r="B52" s="518"/>
+      <c r="C52" s="518"/>
+      <c r="D52" s="519"/>
       <c r="E52" s="459"/>
       <c r="F52" s="395"/>
       <c r="G52" s="395"/>
@@ -11127,8 +11146,8 @@
       <c r="F53" s="461"/>
       <c r="G53" s="461"/>
       <c r="H53" s="461"/>
-      <c r="I53" s="522"/>
-      <c r="J53" s="523"/>
+      <c r="I53" s="516"/>
+      <c r="J53" s="517"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="462"/>
@@ -11139,8 +11158,8 @@
       <c r="F54" s="421"/>
       <c r="G54" s="421"/>
       <c r="H54" s="463"/>
-      <c r="I54" s="526"/>
-      <c r="J54" s="526"/>
+      <c r="I54" s="520"/>
+      <c r="J54" s="520"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="462"/>
@@ -11151,8 +11170,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="526"/>
-      <c r="J55" s="526"/>
+      <c r="I55" s="520"/>
+      <c r="J55" s="520"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="395"/>
@@ -11165,15 +11184,21 @@
       <c r="H56" s="395"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="522"/>
-      <c r="C61" s="523"/>
+      <c r="B61" s="516"/>
+      <c r="C61" s="517"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="522"/>
-      <c r="C68" s="523"/>
+      <c r="B68" s="516"/>
+      <c r="C68" s="517"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="B52:D52"/>
@@ -11181,12 +11206,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11214,25 +11233,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="532" t="s">
+      <c r="A1" s="530" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="536"/>
-      <c r="C1" s="536"/>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
+      <c r="B1" s="534"/>
+      <c r="C1" s="534"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
       <c r="G1" s="373" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="533" t="s">
+      <c r="A2" s="531" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="534"/>
-      <c r="C2" s="534"/>
-      <c r="D2" s="534"/>
-      <c r="E2" s="535"/>
+      <c r="B2" s="532"/>
+      <c r="C2" s="532"/>
+      <c r="D2" s="532"/>
+      <c r="E2" s="533"/>
       <c r="G2" s="372" t="s">
         <v>80</v>
       </c>
@@ -11243,45 +11262,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="537" t="s">
+      <c r="A4" s="535" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="538"/>
-      <c r="C4" s="538"/>
-      <c r="D4" s="538"/>
-      <c r="E4" s="538"/>
+      <c r="B4" s="536"/>
+      <c r="C4" s="536"/>
+      <c r="D4" s="536"/>
+      <c r="E4" s="536"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="539" t="s">
+      <c r="A5" s="537" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="540"/>
-      <c r="C5" s="540"/>
-      <c r="D5" s="540"/>
-      <c r="E5" s="541"/>
+      <c r="B5" s="538"/>
+      <c r="C5" s="538"/>
+      <c r="D5" s="538"/>
+      <c r="E5" s="539"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="532" t="s">
+      <c r="A7" s="530" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="536"/>
-      <c r="C7" s="536"/>
-      <c r="D7" s="536"/>
-      <c r="E7" s="536"/>
+      <c r="B7" s="534"/>
+      <c r="C7" s="534"/>
+      <c r="D7" s="534"/>
+      <c r="E7" s="534"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="542"/>
-      <c r="B8" s="543"/>
-      <c r="C8" s="543"/>
-      <c r="D8" s="543"/>
-      <c r="E8" s="544"/>
+      <c r="A8" s="540"/>
+      <c r="B8" s="541"/>
+      <c r="C8" s="541"/>
+      <c r="D8" s="541"/>
+      <c r="E8" s="542"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="532" t="s">
+      <c r="A10" s="530" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="532"/>
+      <c r="B10" s="530"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>95</v>
@@ -11292,33 +11311,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="530"/>
-      <c r="B11" s="531"/>
+      <c r="A11" s="528"/>
+      <c r="B11" s="529"/>
       <c r="D11" s="381">
         <v>43753</v>
       </c>
-      <c r="F11" s="527" t="s">
+      <c r="F11" s="543" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="527"/>
-      <c r="H11" s="527"/>
-      <c r="I11" s="527"/>
-      <c r="J11" s="528" t="s">
+      <c r="G11" s="543"/>
+      <c r="H11" s="543"/>
+      <c r="I11" s="543"/>
+      <c r="J11" s="544" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="528"/>
+      <c r="K11" s="544"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="527" t="s">
+      <c r="F12" s="543" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="527"/>
-      <c r="H12" s="527"/>
-      <c r="I12" s="527"/>
-      <c r="J12" s="528" t="s">
+      <c r="G12" s="543"/>
+      <c r="H12" s="543"/>
+      <c r="I12" s="543"/>
+      <c r="J12" s="544" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="528"/>
+      <c r="K12" s="544"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="375" t="s">
@@ -11330,16 +11349,16 @@
       <c r="C13" s="386" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="527" t="s">
+      <c r="F13" s="543" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="527"/>
-      <c r="H13" s="527"/>
-      <c r="I13" s="527"/>
-      <c r="J13" s="528" t="s">
+      <c r="G13" s="543"/>
+      <c r="H13" s="543"/>
+      <c r="I13" s="543"/>
+      <c r="J13" s="544" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="528"/>
+      <c r="K13" s="544"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="377" t="s">
@@ -11491,11 +11510,11 @@
       <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="529" t="s">
+      <c r="A29" s="527" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="529"/>
-      <c r="C29" s="529"/>
+      <c r="B29" s="527"/>
+      <c r="C29" s="527"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -11504,6 +11523,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -11513,12 +11538,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -11761,493 +11780,493 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="489" t="s">
+      <c r="A22" s="514" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="489" t="s">
+      <c r="B22" s="514" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="489"/>
-      <c r="D22" s="489"/>
-      <c r="E22" s="489" t="s">
+      <c r="C22" s="514"/>
+      <c r="D22" s="514"/>
+      <c r="E22" s="514" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="489"/>
-      <c r="G22" s="490" t="s">
+      <c r="F22" s="514"/>
+      <c r="G22" s="515" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="489" t="s">
+      <c r="H22" s="514" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="489"/>
-      <c r="J22" s="489"/>
+      <c r="I22" s="514"/>
+      <c r="J22" s="514"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="489"/>
-      <c r="B23" s="489"/>
-      <c r="C23" s="489"/>
-      <c r="D23" s="489"/>
-      <c r="E23" s="489"/>
-      <c r="F23" s="489"/>
-      <c r="G23" s="490"/>
-      <c r="H23" s="489"/>
-      <c r="I23" s="489"/>
-      <c r="J23" s="489"/>
+      <c r="A23" s="514"/>
+      <c r="B23" s="514"/>
+      <c r="C23" s="514"/>
+      <c r="D23" s="514"/>
+      <c r="E23" s="514"/>
+      <c r="F23" s="514"/>
+      <c r="G23" s="515"/>
+      <c r="H23" s="514"/>
+      <c r="I23" s="514"/>
+      <c r="J23" s="514"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="491">
+      <c r="A24" s="489">
         <v>1</v>
       </c>
-      <c r="B24" s="493" t="s">
+      <c r="B24" s="511" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="494"/>
-      <c r="D24" s="495"/>
-      <c r="E24" s="496" t="str">
+      <c r="C24" s="512"/>
+      <c r="D24" s="513"/>
+      <c r="E24" s="494" t="str">
         <f>Данные!C14</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F24" s="497"/>
-      <c r="G24" s="500">
+      <c r="F24" s="495"/>
+      <c r="G24" s="498">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="502"/>
-      <c r="I24" s="503"/>
-      <c r="J24" s="504"/>
+      <c r="H24" s="500"/>
+      <c r="I24" s="501"/>
+      <c r="J24" s="502"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="492"/>
-      <c r="B25" s="508" t="str">
+      <c r="A25" s="509"/>
+      <c r="B25" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C25" s="509"/>
-      <c r="D25" s="510"/>
-      <c r="E25" s="498"/>
-      <c r="F25" s="499"/>
-      <c r="G25" s="501"/>
-      <c r="H25" s="505"/>
-      <c r="I25" s="506"/>
-      <c r="J25" s="507"/>
+      <c r="C25" s="507"/>
+      <c r="D25" s="508"/>
+      <c r="E25" s="510"/>
+      <c r="F25" s="497"/>
+      <c r="G25" s="499"/>
+      <c r="H25" s="503"/>
+      <c r="I25" s="504"/>
+      <c r="J25" s="505"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="491">
+      <c r="A26" s="489">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="511" t="s">
+      <c r="B26" s="491" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="512"/>
-      <c r="D26" s="513"/>
-      <c r="E26" s="496" t="str">
+      <c r="C26" s="492"/>
+      <c r="D26" s="493"/>
+      <c r="E26" s="494" t="str">
         <f>Данные!C15</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F26" s="497"/>
-      <c r="G26" s="500">
+      <c r="F26" s="495"/>
+      <c r="G26" s="498">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="502"/>
-      <c r="I26" s="503"/>
-      <c r="J26" s="504"/>
+      <c r="H26" s="500"/>
+      <c r="I26" s="501"/>
+      <c r="J26" s="502"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="492"/>
-      <c r="B27" s="508" t="str">
+      <c r="A27" s="509"/>
+      <c r="B27" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C27" s="509"/>
-      <c r="D27" s="510"/>
-      <c r="E27" s="498"/>
-      <c r="F27" s="499"/>
-      <c r="G27" s="501"/>
-      <c r="H27" s="505"/>
-      <c r="I27" s="506"/>
-      <c r="J27" s="507"/>
+      <c r="C27" s="507"/>
+      <c r="D27" s="508"/>
+      <c r="E27" s="510"/>
+      <c r="F27" s="497"/>
+      <c r="G27" s="499"/>
+      <c r="H27" s="503"/>
+      <c r="I27" s="504"/>
+      <c r="J27" s="505"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="491">
+      <c r="A28" s="489">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="511" t="s">
+      <c r="B28" s="491" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="512"/>
-      <c r="D28" s="513"/>
-      <c r="E28" s="496" t="str">
+      <c r="C28" s="492"/>
+      <c r="D28" s="493"/>
+      <c r="E28" s="494" t="str">
         <f>Данные!C16</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F28" s="497"/>
-      <c r="G28" s="500">
+      <c r="F28" s="495"/>
+      <c r="G28" s="498">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H28" s="502"/>
-      <c r="I28" s="503"/>
-      <c r="J28" s="504"/>
+      <c r="H28" s="500"/>
+      <c r="I28" s="501"/>
+      <c r="J28" s="502"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="492"/>
-      <c r="B29" s="508" t="str">
+      <c r="A29" s="509"/>
+      <c r="B29" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C29" s="509"/>
-      <c r="D29" s="510"/>
-      <c r="E29" s="498"/>
-      <c r="F29" s="499"/>
-      <c r="G29" s="501"/>
-      <c r="H29" s="505"/>
-      <c r="I29" s="506"/>
-      <c r="J29" s="507"/>
+      <c r="C29" s="507"/>
+      <c r="D29" s="508"/>
+      <c r="E29" s="510"/>
+      <c r="F29" s="497"/>
+      <c r="G29" s="499"/>
+      <c r="H29" s="503"/>
+      <c r="I29" s="504"/>
+      <c r="J29" s="505"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="491">
+      <c r="A30" s="489">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="511" t="s">
+      <c r="B30" s="491" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="512"/>
-      <c r="D30" s="513"/>
-      <c r="E30" s="496" t="str">
+      <c r="C30" s="492"/>
+      <c r="D30" s="493"/>
+      <c r="E30" s="494" t="str">
         <f>Данные!C17</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F30" s="497"/>
-      <c r="G30" s="500">
+      <c r="F30" s="495"/>
+      <c r="G30" s="498">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H30" s="502"/>
-      <c r="I30" s="503"/>
-      <c r="J30" s="504"/>
+      <c r="H30" s="500"/>
+      <c r="I30" s="501"/>
+      <c r="J30" s="502"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="492"/>
-      <c r="B31" s="508" t="str">
+      <c r="A31" s="509"/>
+      <c r="B31" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C31" s="509"/>
-      <c r="D31" s="510"/>
-      <c r="E31" s="515"/>
-      <c r="F31" s="499"/>
-      <c r="G31" s="501"/>
-      <c r="H31" s="505"/>
-      <c r="I31" s="506"/>
-      <c r="J31" s="507"/>
+      <c r="C31" s="507"/>
+      <c r="D31" s="508"/>
+      <c r="E31" s="496"/>
+      <c r="F31" s="497"/>
+      <c r="G31" s="499"/>
+      <c r="H31" s="503"/>
+      <c r="I31" s="504"/>
+      <c r="J31" s="505"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="491">
+      <c r="A32" s="489">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="511" t="s">
+      <c r="B32" s="491" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="512"/>
-      <c r="D32" s="513"/>
-      <c r="E32" s="496" t="str">
+      <c r="C32" s="492"/>
+      <c r="D32" s="493"/>
+      <c r="E32" s="494" t="str">
         <f>Данные!C18</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F32" s="497"/>
-      <c r="G32" s="500">
+      <c r="F32" s="495"/>
+      <c r="G32" s="498">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="502"/>
-      <c r="I32" s="503"/>
-      <c r="J32" s="504"/>
+      <c r="H32" s="500"/>
+      <c r="I32" s="501"/>
+      <c r="J32" s="502"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="492"/>
-      <c r="B33" s="508" t="str">
+      <c r="A33" s="509"/>
+      <c r="B33" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C33" s="509"/>
-      <c r="D33" s="510"/>
-      <c r="E33" s="515"/>
-      <c r="F33" s="499"/>
-      <c r="G33" s="501"/>
-      <c r="H33" s="505"/>
-      <c r="I33" s="506"/>
-      <c r="J33" s="507"/>
+      <c r="C33" s="507"/>
+      <c r="D33" s="508"/>
+      <c r="E33" s="496"/>
+      <c r="F33" s="497"/>
+      <c r="G33" s="499"/>
+      <c r="H33" s="503"/>
+      <c r="I33" s="504"/>
+      <c r="J33" s="505"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="491">
+      <c r="A34" s="489">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="511" t="s">
+      <c r="B34" s="491" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="512"/>
-      <c r="D34" s="513"/>
-      <c r="E34" s="496" t="str">
+      <c r="C34" s="492"/>
+      <c r="D34" s="493"/>
+      <c r="E34" s="494" t="str">
         <f>Данные!C19</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F34" s="497"/>
-      <c r="G34" s="500">
+      <c r="F34" s="495"/>
+      <c r="G34" s="498">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="502"/>
-      <c r="I34" s="503"/>
-      <c r="J34" s="504"/>
+      <c r="H34" s="500"/>
+      <c r="I34" s="501"/>
+      <c r="J34" s="502"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="492"/>
-      <c r="B35" s="508" t="str">
+      <c r="A35" s="509"/>
+      <c r="B35" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C35" s="509"/>
-      <c r="D35" s="510"/>
-      <c r="E35" s="515"/>
-      <c r="F35" s="499"/>
-      <c r="G35" s="501"/>
-      <c r="H35" s="505"/>
-      <c r="I35" s="506"/>
-      <c r="J35" s="507"/>
+      <c r="C35" s="507"/>
+      <c r="D35" s="508"/>
+      <c r="E35" s="496"/>
+      <c r="F35" s="497"/>
+      <c r="G35" s="499"/>
+      <c r="H35" s="503"/>
+      <c r="I35" s="504"/>
+      <c r="J35" s="505"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="491">
+      <c r="A36" s="489">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="511" t="s">
+      <c r="B36" s="491" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="512"/>
-      <c r="D36" s="513"/>
-      <c r="E36" s="496" t="str">
+      <c r="C36" s="492"/>
+      <c r="D36" s="493"/>
+      <c r="E36" s="494" t="str">
         <f>Данные!C20</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F36" s="497"/>
-      <c r="G36" s="500">
+      <c r="F36" s="495"/>
+      <c r="G36" s="498">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="502"/>
-      <c r="I36" s="503"/>
-      <c r="J36" s="504"/>
+      <c r="H36" s="500"/>
+      <c r="I36" s="501"/>
+      <c r="J36" s="502"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="492"/>
-      <c r="B37" s="508" t="str">
+      <c r="A37" s="509"/>
+      <c r="B37" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C37" s="509"/>
-      <c r="D37" s="510"/>
-      <c r="E37" s="515"/>
-      <c r="F37" s="499"/>
-      <c r="G37" s="501"/>
-      <c r="H37" s="505"/>
-      <c r="I37" s="506"/>
-      <c r="J37" s="507"/>
+      <c r="C37" s="507"/>
+      <c r="D37" s="508"/>
+      <c r="E37" s="496"/>
+      <c r="F37" s="497"/>
+      <c r="G37" s="499"/>
+      <c r="H37" s="503"/>
+      <c r="I37" s="504"/>
+      <c r="J37" s="505"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="491">
+      <c r="A38" s="489">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="511" t="s">
+      <c r="B38" s="491" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="512"/>
-      <c r="D38" s="513"/>
-      <c r="E38" s="496" t="str">
+      <c r="C38" s="492"/>
+      <c r="D38" s="493"/>
+      <c r="E38" s="494" t="str">
         <f>Данные!C21</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F38" s="497"/>
-      <c r="G38" s="500">
+      <c r="F38" s="495"/>
+      <c r="G38" s="498">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="502"/>
-      <c r="I38" s="503"/>
-      <c r="J38" s="504"/>
+      <c r="H38" s="500"/>
+      <c r="I38" s="501"/>
+      <c r="J38" s="502"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="492"/>
-      <c r="B39" s="508" t="str">
+      <c r="A39" s="509"/>
+      <c r="B39" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C39" s="509"/>
-      <c r="D39" s="510"/>
-      <c r="E39" s="515"/>
-      <c r="F39" s="499"/>
-      <c r="G39" s="501"/>
-      <c r="H39" s="505"/>
-      <c r="I39" s="506"/>
-      <c r="J39" s="507"/>
+      <c r="C39" s="507"/>
+      <c r="D39" s="508"/>
+      <c r="E39" s="496"/>
+      <c r="F39" s="497"/>
+      <c r="G39" s="499"/>
+      <c r="H39" s="503"/>
+      <c r="I39" s="504"/>
+      <c r="J39" s="505"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="491">
+      <c r="A40" s="489">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="511" t="s">
+      <c r="B40" s="491" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="512"/>
-      <c r="D40" s="513"/>
-      <c r="E40" s="496" t="str">
+      <c r="C40" s="492"/>
+      <c r="D40" s="493"/>
+      <c r="E40" s="494" t="str">
         <f>Данные!C23</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F40" s="497"/>
-      <c r="G40" s="500">
+      <c r="F40" s="495"/>
+      <c r="G40" s="498">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="502"/>
-      <c r="I40" s="503"/>
-      <c r="J40" s="504"/>
+      <c r="H40" s="500"/>
+      <c r="I40" s="501"/>
+      <c r="J40" s="502"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="492"/>
-      <c r="B41" s="508" t="str">
+      <c r="A41" s="509"/>
+      <c r="B41" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C41" s="509"/>
-      <c r="D41" s="510"/>
-      <c r="E41" s="515"/>
-      <c r="F41" s="499"/>
-      <c r="G41" s="501"/>
-      <c r="H41" s="505"/>
-      <c r="I41" s="506"/>
-      <c r="J41" s="507"/>
+      <c r="C41" s="507"/>
+      <c r="D41" s="508"/>
+      <c r="E41" s="496"/>
+      <c r="F41" s="497"/>
+      <c r="G41" s="499"/>
+      <c r="H41" s="503"/>
+      <c r="I41" s="504"/>
+      <c r="J41" s="505"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="491">
+      <c r="A42" s="489">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="511" t="s">
+      <c r="B42" s="491" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="512"/>
-      <c r="D42" s="513"/>
-      <c r="E42" s="496" t="str">
+      <c r="C42" s="492"/>
+      <c r="D42" s="493"/>
+      <c r="E42" s="494" t="str">
         <f>Данные!C25</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F42" s="497"/>
-      <c r="G42" s="500">
+      <c r="F42" s="495"/>
+      <c r="G42" s="498">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="502"/>
-      <c r="I42" s="503"/>
-      <c r="J42" s="504"/>
+      <c r="H42" s="500"/>
+      <c r="I42" s="501"/>
+      <c r="J42" s="502"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="492"/>
-      <c r="B43" s="508" t="str">
+      <c r="A43" s="509"/>
+      <c r="B43" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C43" s="509"/>
-      <c r="D43" s="510"/>
-      <c r="E43" s="515"/>
-      <c r="F43" s="499"/>
-      <c r="G43" s="501"/>
-      <c r="H43" s="505"/>
-      <c r="I43" s="506"/>
-      <c r="J43" s="507"/>
+      <c r="C43" s="507"/>
+      <c r="D43" s="508"/>
+      <c r="E43" s="496"/>
+      <c r="F43" s="497"/>
+      <c r="G43" s="499"/>
+      <c r="H43" s="503"/>
+      <c r="I43" s="504"/>
+      <c r="J43" s="505"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="491">
+      <c r="A44" s="489">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="511" t="s">
+      <c r="B44" s="491" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="512"/>
-      <c r="D44" s="513"/>
-      <c r="E44" s="496">
+      <c r="C44" s="492"/>
+      <c r="D44" s="493"/>
+      <c r="E44" s="494">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F44" s="497"/>
-      <c r="G44" s="500">
+      <c r="F44" s="495"/>
+      <c r="G44" s="498">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="502"/>
-      <c r="I44" s="503"/>
-      <c r="J44" s="504"/>
+      <c r="H44" s="500"/>
+      <c r="I44" s="501"/>
+      <c r="J44" s="502"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="492"/>
-      <c r="B45" s="508" t="str">
+      <c r="A45" s="509"/>
+      <c r="B45" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C45" s="509"/>
-      <c r="D45" s="510"/>
-      <c r="E45" s="515"/>
-      <c r="F45" s="499"/>
-      <c r="G45" s="501"/>
-      <c r="H45" s="505"/>
-      <c r="I45" s="506"/>
-      <c r="J45" s="507"/>
+      <c r="C45" s="507"/>
+      <c r="D45" s="508"/>
+      <c r="E45" s="496"/>
+      <c r="F45" s="497"/>
+      <c r="G45" s="499"/>
+      <c r="H45" s="503"/>
+      <c r="I45" s="504"/>
+      <c r="J45" s="505"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="491">
+      <c r="A46" s="489">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="511" t="s">
+      <c r="B46" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="512"/>
-      <c r="D46" s="513"/>
-      <c r="E46" s="496" t="str">
+      <c r="C46" s="492"/>
+      <c r="D46" s="493"/>
+      <c r="E46" s="494" t="str">
         <f>Данные!C24</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F46" s="497"/>
-      <c r="G46" s="500">
+      <c r="F46" s="495"/>
+      <c r="G46" s="498">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="502"/>
-      <c r="I46" s="503"/>
-      <c r="J46" s="504"/>
+      <c r="H46" s="500"/>
+      <c r="I46" s="501"/>
+      <c r="J46" s="502"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="492"/>
-      <c r="B47" s="508" t="str">
+      <c r="A47" s="509"/>
+      <c r="B47" s="506" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C47" s="509"/>
-      <c r="D47" s="510"/>
-      <c r="E47" s="515"/>
-      <c r="F47" s="499"/>
-      <c r="G47" s="501"/>
-      <c r="H47" s="505"/>
-      <c r="I47" s="506"/>
-      <c r="J47" s="507"/>
+      <c r="C47" s="507"/>
+      <c r="D47" s="508"/>
+      <c r="E47" s="496"/>
+      <c r="F47" s="497"/>
+      <c r="G47" s="499"/>
+      <c r="H47" s="503"/>
+      <c r="I47" s="504"/>
+      <c r="J47" s="505"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="313"/>
@@ -12376,6 +12395,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -12392,70 +12475,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12510,47 +12529,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="548"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="557" t="s">
+      <c r="B2" s="566"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="568"/>
+      <c r="E2" s="575" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="558"/>
-      <c r="G2" s="558"/>
-      <c r="H2" s="559"/>
-      <c r="I2" s="564" t="s">
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="565"/>
-      <c r="K2" s="568">
+      <c r="J2" s="583"/>
+      <c r="K2" s="586">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="569"/>
+      <c r="L2" s="587"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="560"/>
-      <c r="Q2" s="560"/>
+      <c r="P2" s="578"/>
+      <c r="Q2" s="578"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="551"/>
-      <c r="C3" s="552"/>
-      <c r="D3" s="553"/>
-      <c r="E3" s="561" t="s">
+      <c r="B3" s="569"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="579" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="562"/>
-      <c r="G3" s="562"/>
-      <c r="H3" s="563"/>
-      <c r="I3" s="566"/>
-      <c r="J3" s="567"/>
-      <c r="K3" s="570"/>
-      <c r="L3" s="571"/>
+      <c r="F3" s="580"/>
+      <c r="G3" s="580"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="588"/>
+      <c r="L3" s="589"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12561,9 +12580,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="554"/>
-      <c r="C4" s="555"/>
-      <c r="D4" s="556"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="574"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12582,22 +12601,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="576"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="552"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="577"/>
-      <c r="J5" s="578"/>
-      <c r="K5" s="540"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12608,22 +12627,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="579"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="555"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="577"/>
-      <c r="J6" s="578"/>
-      <c r="K6" s="540"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="538"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12634,27 +12653,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="583"/>
-      <c r="D7" s="542">
+      <c r="C7" s="559"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="582" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="530">
+      <c r="J7" s="562"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13148,12 +13167,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="587" t="s">
+      <c r="B23" s="563" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="588"/>
-      <c r="D23" s="588"/>
-      <c r="E23" s="589"/>
+      <c r="C23" s="564"/>
+      <c r="D23" s="564"/>
+      <c r="E23" s="565"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -13175,12 +13194,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="572" t="s">
+      <c r="B24" s="548" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="573"/>
-      <c r="D24" s="573"/>
-      <c r="E24" s="574"/>
+      <c r="C24" s="549"/>
+      <c r="D24" s="549"/>
+      <c r="E24" s="550"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -13224,6 +13243,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13238,12 +13263,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -13309,50 +13328,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="590">
+      <c r="B2" s="597">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="560"/>
-      <c r="Q2" s="560"/>
+      <c r="P2" s="578"/>
+      <c r="Q2" s="578"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13363,9 +13382,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13384,22 +13403,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="616"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13410,22 +13429,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="616"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13436,27 +13455,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="617"/>
-      <c r="D7" s="542">
+      <c r="C7" s="594"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="618" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="617"/>
-      <c r="K7" s="530">
+      <c r="J7" s="594"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13653,13 +13672,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="587" t="s">
+      <c r="B14" s="563" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="588"/>
-      <c r="D14" s="588"/>
-      <c r="E14" s="588"/>
-      <c r="F14" s="619"/>
+      <c r="C14" s="564"/>
+      <c r="D14" s="564"/>
+      <c r="E14" s="564"/>
+      <c r="F14" s="596"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -13678,12 +13697,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="572" t="s">
+      <c r="B15" s="548" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="573"/>
-      <c r="D15" s="573"/>
-      <c r="E15" s="574"/>
+      <c r="C15" s="549"/>
+      <c r="D15" s="549"/>
+      <c r="E15" s="550"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -13734,6 +13753,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -13748,12 +13773,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13827,47 +13846,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="548"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="557" t="s">
+      <c r="B2" s="566"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="568"/>
+      <c r="E2" s="575" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="558"/>
-      <c r="G2" s="558"/>
-      <c r="H2" s="559"/>
-      <c r="I2" s="564" t="s">
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="565"/>
-      <c r="K2" s="568">
+      <c r="J2" s="583"/>
+      <c r="K2" s="586">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="569"/>
+      <c r="L2" s="587"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="560"/>
-      <c r="Q2" s="560"/>
+      <c r="P2" s="578"/>
+      <c r="Q2" s="578"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="551"/>
-      <c r="C3" s="552"/>
-      <c r="D3" s="553"/>
-      <c r="E3" s="561" t="s">
+      <c r="B3" s="569"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="579" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="562"/>
-      <c r="G3" s="562"/>
-      <c r="H3" s="563"/>
-      <c r="I3" s="566"/>
-      <c r="J3" s="567"/>
-      <c r="K3" s="570"/>
-      <c r="L3" s="571"/>
+      <c r="F3" s="580"/>
+      <c r="G3" s="580"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="588"/>
+      <c r="L3" s="589"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13878,9 +13897,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="554"/>
-      <c r="C4" s="555"/>
-      <c r="D4" s="556"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="574"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13899,22 +13918,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="576"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="552"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="577"/>
-      <c r="J5" s="578"/>
-      <c r="K5" s="540"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13925,22 +13944,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="579"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="555"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="577"/>
-      <c r="J6" s="578"/>
-      <c r="K6" s="540"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="538"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13951,27 +13970,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="583"/>
-      <c r="D7" s="542">
+      <c r="C7" s="559"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="582" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="530">
+      <c r="J7" s="562"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -14454,6 +14473,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
@@ -14470,8 +14491,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -14539,24 +14558,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="548"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="557" t="s">
+      <c r="B2" s="566"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="568"/>
+      <c r="E2" s="575" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="558"/>
-      <c r="G2" s="558"/>
-      <c r="H2" s="559"/>
-      <c r="I2" s="564" t="s">
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="565"/>
-      <c r="K2" s="568">
+      <c r="J2" s="583"/>
+      <c r="K2" s="586">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="569"/>
+      <c r="L2" s="587"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -14567,19 +14586,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="551"/>
-      <c r="C3" s="552"/>
-      <c r="D3" s="553"/>
-      <c r="E3" s="561" t="s">
+      <c r="B3" s="569"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="579" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="562"/>
-      <c r="G3" s="562"/>
-      <c r="H3" s="563"/>
-      <c r="I3" s="566"/>
-      <c r="J3" s="567"/>
-      <c r="K3" s="570"/>
-      <c r="L3" s="571"/>
+      <c r="F3" s="580"/>
+      <c r="G3" s="580"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="588"/>
+      <c r="L3" s="589"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -14590,9 +14609,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="554"/>
-      <c r="C4" s="555"/>
-      <c r="D4" s="556"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="574"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -14611,22 +14630,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="576"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="552"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="577"/>
-      <c r="J5" s="578"/>
-      <c r="K5" s="540"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14637,22 +14656,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="579"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="555"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="577"/>
-      <c r="J6" s="578"/>
-      <c r="K6" s="540"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="538"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -14663,27 +14682,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="583"/>
-      <c r="D7" s="542">
+      <c r="C7" s="559"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="582" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="558" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="530">
+      <c r="J7" s="562"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14968,6 +14987,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -14975,17 +15005,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -15057,24 +15076,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="621"/>
       <c r="N2" s="622"/>
       <c r="O2" s="622"/>
@@ -15085,19 +15104,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="624"/>
       <c r="N3" s="625"/>
       <c r="O3" s="625"/>
@@ -15108,9 +15127,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -15129,22 +15148,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="551" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="539" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="537" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="616"/>
-      <c r="L5" s="541"/>
+      <c r="E5" s="538"/>
+      <c r="F5" s="538"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="593"/>
+      <c r="L5" s="539"/>
       <c r="M5" s="624"/>
       <c r="N5" s="625"/>
       <c r="O5" s="625"/>
@@ -15155,22 +15174,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="575" t="s">
+      <c r="B6" s="551" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="533" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="531" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="581"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="616"/>
-      <c r="L6" s="541"/>
+      <c r="E6" s="556"/>
+      <c r="F6" s="556"/>
+      <c r="G6" s="556"/>
+      <c r="H6" s="557"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="539"/>
       <c r="M6" s="624"/>
       <c r="N6" s="625"/>
       <c r="O6" s="625"/>
@@ -15181,27 +15200,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="582" t="s">
+      <c r="B7" s="558" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="617"/>
-      <c r="D7" s="542">
+      <c r="C7" s="594"/>
+      <c r="D7" s="540">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="584"/>
-      <c r="F7" s="584"/>
-      <c r="G7" s="584"/>
-      <c r="H7" s="585"/>
-      <c r="I7" s="618" t="s">
+      <c r="E7" s="560"/>
+      <c r="F7" s="560"/>
+      <c r="G7" s="560"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="617"/>
-      <c r="K7" s="530">
+      <c r="J7" s="594"/>
+      <c r="K7" s="528">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="531"/>
+      <c r="L7" s="529"/>
       <c r="M7" s="624"/>
       <c r="N7" s="625"/>
       <c r="O7" s="625"/>
@@ -15629,12 +15648,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="572" t="s">
+      <c r="B21" s="548" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="573"/>
-      <c r="D21" s="573"/>
-      <c r="E21" s="574"/>
+      <c r="C21" s="549"/>
+      <c r="D21" s="549"/>
+      <c r="E21" s="550"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -15680,13 +15699,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -15699,6 +15711,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
